--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -1046,20 +1046,14 @@
         <v>82833.33333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>82900</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,20 +1081,14 @@
         <v>82766.66666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>82700</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1136,12 +1124,10 @@
       <c r="J21" t="n">
         <v>82700</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="n">
+        <v>82700</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1163,12 @@
       <c r="J22" t="n">
         <v>82700</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>82700</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1216,12 +1204,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>82600</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>82700</v>
+      </c>
+      <c r="K23" t="n">
+        <v>82700</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1257,14 +1247,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>82950</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>82600</v>
+      </c>
+      <c r="K24" t="n">
+        <v>82600</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1292,18 +1280,18 @@
         <v>82966.66666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>83350</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>82600</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1333,18 +1321,18 @@
         <v>83350</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>83550</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>82600</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1374,20 +1362,14 @@
         <v>83633.33333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>83800</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1415,20 +1397,14 @@
         <v>83783.33333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>83800</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1456,20 +1432,14 @@
         <v>83800</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>83800</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1497,20 +1467,14 @@
         <v>83816.66666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>83850</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1538,20 +1502,14 @@
         <v>83866.66666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>83950</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1579,20 +1537,14 @@
         <v>83916.66666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>83950</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1620,20 +1572,14 @@
         <v>83933.33333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>83900</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1661,20 +1607,14 @@
         <v>83916.66666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>83900</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1702,20 +1642,14 @@
         <v>83883.33333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>83900</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1743,20 +1677,14 @@
         <v>83866.66666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>83850</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1784,20 +1712,14 @@
         <v>84016.66666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>84000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1825,20 +1747,14 @@
         <v>84333.33333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>84800</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1789,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1912,11 +1824,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1859,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1894,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +1929,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +1964,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2107,11 +1999,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2034,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2069,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2220,15 +2100,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2259,16 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2296,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2366,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2401,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2436,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2471,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
         <v>83700</v>
       </c>
       <c r="C2" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="D2" t="n">
         <v>83800</v>
@@ -445,10 +445,10 @@
         <v>83700</v>
       </c>
       <c r="F2" t="n">
-        <v>20.10333604</v>
+        <v>11.14566396</v>
       </c>
       <c r="G2" t="n">
-        <v>83733.33333333333</v>
+        <v>84073.33333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>83700</v>
       </c>
       <c r="C3" t="n">
-        <v>83700</v>
+        <v>83800</v>
       </c>
       <c r="D3" t="n">
-        <v>83700</v>
+        <v>83800</v>
       </c>
       <c r="E3" t="n">
         <v>83700</v>
       </c>
       <c r="F3" t="n">
-        <v>2.7156</v>
+        <v>20.10333604</v>
       </c>
       <c r="G3" t="n">
-        <v>83733.33333333333</v>
+        <v>84058.33333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83850</v>
+        <v>83700</v>
       </c>
       <c r="C4" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="D4" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="E4" t="n">
-        <v>83850</v>
+        <v>83700</v>
       </c>
       <c r="F4" t="n">
-        <v>13.1864</v>
+        <v>2.7156</v>
       </c>
       <c r="G4" t="n">
-        <v>83816.66666666667</v>
+        <v>84044.16666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="C5" t="n">
         <v>83950</v>
@@ -547,13 +547,13 @@
         <v>83950</v>
       </c>
       <c r="E5" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8189</v>
+        <v>13.1864</v>
       </c>
       <c r="G5" t="n">
-        <v>83866.66666666667</v>
+        <v>84039.16666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>84300</v>
+        <v>83950</v>
       </c>
       <c r="C6" t="n">
-        <v>84300</v>
+        <v>83950</v>
       </c>
       <c r="D6" t="n">
-        <v>84300</v>
+        <v>83950</v>
       </c>
       <c r="E6" t="n">
-        <v>84300</v>
+        <v>83950</v>
       </c>
       <c r="F6" t="n">
-        <v>69.1673</v>
+        <v>0.8189</v>
       </c>
       <c r="G6" t="n">
-        <v>84066.66666666667</v>
+        <v>84040</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>84300</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0053</v>
+        <v>69.1673</v>
       </c>
       <c r="G7" t="n">
-        <v>84183.33333333333</v>
+        <v>84045.83333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>84300</v>
       </c>
       <c r="F8" t="n">
-        <v>0.383</v>
+        <v>1.0053</v>
       </c>
       <c r="G8" t="n">
-        <v>84300</v>
+        <v>84047.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="C9" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="D9" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="E9" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="F9" t="n">
-        <v>3.9244</v>
+        <v>0.383</v>
       </c>
       <c r="G9" t="n">
-        <v>84200</v>
+        <v>84048.33333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83950</v>
+        <v>84000</v>
       </c>
       <c r="C10" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="D10" t="n">
-        <v>83950</v>
+        <v>84000</v>
       </c>
       <c r="E10" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="F10" t="n">
-        <v>0.704</v>
+        <v>3.9244</v>
       </c>
       <c r="G10" t="n">
-        <v>84066.66666666667</v>
+        <v>84048.33333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="C11" t="n">
         <v>83900</v>
       </c>
       <c r="D11" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="E11" t="n">
         <v>83900</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1427</v>
+        <v>0.704</v>
       </c>
       <c r="G11" t="n">
-        <v>83933.33333333333</v>
+        <v>84050</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>83900</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1135</v>
+        <v>0.1427</v>
       </c>
       <c r="G12" t="n">
-        <v>83900</v>
+        <v>84051.66666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>83900</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0568</v>
+        <v>0.1135</v>
       </c>
       <c r="G13" t="n">
-        <v>83900</v>
+        <v>84056.66666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83750</v>
+        <v>83900</v>
       </c>
       <c r="C14" t="n">
-        <v>83750</v>
+        <v>83900</v>
       </c>
       <c r="D14" t="n">
-        <v>83750</v>
+        <v>83900</v>
       </c>
       <c r="E14" t="n">
-        <v>83750</v>
+        <v>83900</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11940298</v>
+        <v>0.0568</v>
       </c>
       <c r="G14" t="n">
-        <v>83850</v>
+        <v>84061.66666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83600</v>
+        <v>83750</v>
       </c>
       <c r="C15" t="n">
-        <v>83600</v>
+        <v>83750</v>
       </c>
       <c r="D15" t="n">
-        <v>83600</v>
+        <v>83750</v>
       </c>
       <c r="E15" t="n">
-        <v>83600</v>
+        <v>83750</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0569</v>
+        <v>0.11940298</v>
       </c>
       <c r="G15" t="n">
-        <v>83750</v>
+        <v>84069.16666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83300</v>
+        <v>83600</v>
       </c>
       <c r="C16" t="n">
-        <v>83200</v>
+        <v>83600</v>
       </c>
       <c r="D16" t="n">
-        <v>83300</v>
+        <v>83600</v>
       </c>
       <c r="E16" t="n">
-        <v>83200</v>
+        <v>83600</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5154</v>
+        <v>0.0569</v>
       </c>
       <c r="G16" t="n">
-        <v>83516.66666666667</v>
+        <v>84074.16666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82900</v>
+        <v>83300</v>
       </c>
       <c r="C17" t="n">
-        <v>82900</v>
+        <v>83200</v>
       </c>
       <c r="D17" t="n">
-        <v>82900</v>
+        <v>83300</v>
       </c>
       <c r="E17" t="n">
-        <v>82900</v>
+        <v>83200</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7793</v>
+        <v>0.5154</v>
       </c>
       <c r="G17" t="n">
-        <v>83233.33333333333</v>
+        <v>84068.33333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="C18" t="n">
-        <v>82750</v>
+        <v>82900</v>
       </c>
       <c r="D18" t="n">
-        <v>82750</v>
+        <v>82900</v>
       </c>
       <c r="E18" t="n">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="F18" t="n">
-        <v>4.8099</v>
+        <v>1.7793</v>
       </c>
       <c r="G18" t="n">
-        <v>82950</v>
+        <v>84057.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,32 +1028,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>82700</v>
+      </c>
+      <c r="C19" t="n">
+        <v>82750</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82750</v>
+      </c>
+      <c r="E19" t="n">
+        <v>82700</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.8099</v>
+      </c>
+      <c r="G19" t="n">
+        <v>84044.16666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>82900</v>
       </c>
-      <c r="C19" t="n">
-        <v>82850</v>
-      </c>
-      <c r="D19" t="n">
-        <v>82900</v>
-      </c>
-      <c r="E19" t="n">
-        <v>82850</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.5708</v>
-      </c>
-      <c r="G19" t="n">
-        <v>82833.33333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1069,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="C20" t="n">
-        <v>82700</v>
+        <v>82850</v>
       </c>
       <c r="D20" t="n">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="E20" t="n">
-        <v>82700</v>
+        <v>82850</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6795</v>
+        <v>8.5708</v>
       </c>
       <c r="G20" t="n">
-        <v>82766.66666666667</v>
+        <v>84024.16666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1094,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1120,10 @@
         <v>82700</v>
       </c>
       <c r="F21" t="n">
-        <v>1.547</v>
+        <v>0.6795</v>
       </c>
       <c r="G21" t="n">
-        <v>82750</v>
+        <v>83997.5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1122,12 +1132,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>82700</v>
-      </c>
-      <c r="K21" t="n">
-        <v>82700</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+        <v>82850</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1149,26 +1161,22 @@
         <v>82700</v>
       </c>
       <c r="F22" t="n">
-        <v>5.1912</v>
+        <v>1.547</v>
       </c>
       <c r="G22" t="n">
-        <v>82700</v>
+        <v>83976.66666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>82700</v>
-      </c>
-      <c r="K22" t="n">
-        <v>82700</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1180,22 +1188,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82600</v>
+        <v>82700</v>
       </c>
       <c r="C23" t="n">
-        <v>82600</v>
+        <v>82700</v>
       </c>
       <c r="D23" t="n">
-        <v>82600</v>
+        <v>82700</v>
       </c>
       <c r="E23" t="n">
-        <v>82600</v>
+        <v>82700</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4619</v>
+        <v>5.1912</v>
       </c>
       <c r="G23" t="n">
-        <v>82666.66666666667</v>
+        <v>83955</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1206,12 +1214,10 @@
       <c r="J23" t="n">
         <v>82700</v>
       </c>
-      <c r="K23" t="n">
-        <v>82700</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1223,22 +1229,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82950</v>
+        <v>82600</v>
       </c>
       <c r="C24" t="n">
-        <v>82950</v>
+        <v>82600</v>
       </c>
       <c r="D24" t="n">
-        <v>82950</v>
+        <v>82600</v>
       </c>
       <c r="E24" t="n">
-        <v>82950</v>
+        <v>82600</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1405</v>
+        <v>0.4619</v>
       </c>
       <c r="G24" t="n">
-        <v>82750</v>
+        <v>83925.83333333333</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1247,12 +1253,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>82600</v>
-      </c>
-      <c r="K24" t="n">
-        <v>82600</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>82700</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,22 +1270,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83350</v>
+        <v>82950</v>
       </c>
       <c r="C25" t="n">
-        <v>83350</v>
+        <v>82950</v>
       </c>
       <c r="D25" t="n">
-        <v>83350</v>
+        <v>82950</v>
       </c>
       <c r="E25" t="n">
-        <v>83350</v>
+        <v>82950</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0107</v>
+        <v>0.1405</v>
       </c>
       <c r="G25" t="n">
-        <v>82966.66666666667</v>
+        <v>83883.33333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1286,12 +1294,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>82600</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1303,22 +1309,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83550</v>
+        <v>83350</v>
       </c>
       <c r="C26" t="n">
-        <v>83750</v>
+        <v>83350</v>
       </c>
       <c r="D26" t="n">
-        <v>83750</v>
+        <v>83350</v>
       </c>
       <c r="E26" t="n">
-        <v>83550</v>
+        <v>83350</v>
       </c>
       <c r="F26" t="n">
-        <v>3.58257946</v>
+        <v>0.0107</v>
       </c>
       <c r="G26" t="n">
-        <v>83350</v>
+        <v>83854.16666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,12 +1333,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>82600</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1344,22 +1348,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="C27" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="D27" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="E27" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="F27" t="n">
-        <v>18.0179</v>
+        <v>3.58257946</v>
       </c>
       <c r="G27" t="n">
-        <v>83633.33333333333</v>
+        <v>83839.16666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1369,7 +1373,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1391,10 +1399,10 @@
         <v>83800</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6575</v>
+        <v>18.0179</v>
       </c>
       <c r="G28" t="n">
-        <v>83783.33333333333</v>
+        <v>83826.66666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1404,7 +1412,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1426,10 +1438,10 @@
         <v>83800</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>0.6575</v>
       </c>
       <c r="G29" t="n">
-        <v>83800</v>
+        <v>83811.66666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1439,7 +1451,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1449,22 +1465,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83850</v>
+        <v>83800</v>
       </c>
       <c r="C30" t="n">
-        <v>83850</v>
+        <v>83800</v>
       </c>
       <c r="D30" t="n">
-        <v>83850</v>
+        <v>83800</v>
       </c>
       <c r="E30" t="n">
-        <v>83850</v>
+        <v>83800</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4658</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>83816.66666666667</v>
+        <v>83798.33333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1474,7 +1490,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1484,22 +1504,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="C31" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="D31" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="E31" t="n">
-        <v>83950</v>
+        <v>83850</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0053</v>
+        <v>0.4658</v>
       </c>
       <c r="G31" t="n">
-        <v>83866.66666666667</v>
+        <v>83780</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1509,7 +1529,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1531,10 +1555,10 @@
         <v>83950</v>
       </c>
       <c r="F32" t="n">
-        <v>0.193</v>
+        <v>1.0053</v>
       </c>
       <c r="G32" t="n">
-        <v>83916.66666666667</v>
+        <v>83763.33333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1544,7 +1568,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1582,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="C33" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="D33" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="E33" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="F33" t="n">
-        <v>7.9059</v>
+        <v>0.193</v>
       </c>
       <c r="G33" t="n">
-        <v>83933.33333333333</v>
+        <v>83747.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1607,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1601,10 +1633,10 @@
         <v>83900</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02</v>
+        <v>7.9059</v>
       </c>
       <c r="G34" t="n">
-        <v>83916.66666666667</v>
+        <v>83727.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,7 +1646,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1627,19 +1663,19 @@
         <v>83900</v>
       </c>
       <c r="C35" t="n">
-        <v>83850</v>
+        <v>83900</v>
       </c>
       <c r="D35" t="n">
         <v>83900</v>
       </c>
       <c r="E35" t="n">
-        <v>83850</v>
+        <v>83900</v>
       </c>
       <c r="F35" t="n">
-        <v>15.4439</v>
+        <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>83883.33333333333</v>
+        <v>83715</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1649,7 +1685,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1659,22 +1699,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83850</v>
+        <v>83900</v>
       </c>
       <c r="C36" t="n">
         <v>83850</v>
       </c>
       <c r="D36" t="n">
-        <v>83850</v>
+        <v>83900</v>
       </c>
       <c r="E36" t="n">
         <v>83850</v>
       </c>
       <c r="F36" t="n">
-        <v>9.7774</v>
+        <v>15.4439</v>
       </c>
       <c r="G36" t="n">
-        <v>83866.66666666667</v>
+        <v>83695.83333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1684,7 +1724,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84000</v>
+        <v>83850</v>
       </c>
       <c r="C37" t="n">
-        <v>84350</v>
+        <v>83850</v>
       </c>
       <c r="D37" t="n">
-        <v>84350</v>
+        <v>83850</v>
       </c>
       <c r="E37" t="n">
-        <v>84000</v>
+        <v>83850</v>
       </c>
       <c r="F37" t="n">
-        <v>2.37190278</v>
+        <v>9.7774</v>
       </c>
       <c r="G37" t="n">
-        <v>84016.66666666667</v>
+        <v>83673.33333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1719,7 +1763,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1729,22 +1777,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="C38" t="n">
-        <v>84800</v>
+        <v>84350</v>
       </c>
       <c r="D38" t="n">
-        <v>84800</v>
+        <v>84350</v>
       </c>
       <c r="E38" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="F38" t="n">
-        <v>0.216</v>
+        <v>2.37190278</v>
       </c>
       <c r="G38" t="n">
-        <v>84333.33333333333</v>
+        <v>83681.66666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1754,7 +1802,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1816,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="C39" t="n">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="D39" t="n">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="E39" t="n">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="F39" t="n">
-        <v>14.285</v>
+        <v>0.216</v>
       </c>
       <c r="G39" t="n">
-        <v>84716.66666666667</v>
+        <v>83692.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1789,7 +1841,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1799,22 +1855,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>85050</v>
+        <v>85000</v>
       </c>
       <c r="C40" t="n">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="D40" t="n">
-        <v>85050</v>
+        <v>85000</v>
       </c>
       <c r="E40" t="n">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="F40" t="n">
-        <v>8.9139</v>
+        <v>14.285</v>
       </c>
       <c r="G40" t="n">
-        <v>84833.33333333333</v>
+        <v>83707.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1824,7 +1880,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1834,22 +1894,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>85000</v>
+        <v>85050</v>
       </c>
       <c r="C41" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="D41" t="n">
-        <v>85000</v>
+        <v>85050</v>
       </c>
       <c r="E41" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02</v>
+        <v>8.9139</v>
       </c>
       <c r="G41" t="n">
-        <v>84900</v>
+        <v>83716.66666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1859,7 +1919,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1869,22 +1933,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>85300</v>
+        <v>85000</v>
       </c>
       <c r="C42" t="n">
-        <v>85200</v>
+        <v>85000</v>
       </c>
       <c r="D42" t="n">
-        <v>85300</v>
+        <v>85000</v>
       </c>
       <c r="E42" t="n">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="F42" t="n">
-        <v>11.3137</v>
+        <v>0.02</v>
       </c>
       <c r="G42" t="n">
-        <v>84966.66666666667</v>
+        <v>83729.16666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1894,7 +1958,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1904,22 +1972,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85150</v>
+        <v>85300</v>
       </c>
       <c r="C43" t="n">
         <v>85200</v>
       </c>
       <c r="D43" t="n">
-        <v>85200</v>
+        <v>85300</v>
       </c>
       <c r="E43" t="n">
-        <v>85150</v>
+        <v>84900</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7322</v>
+        <v>11.3137</v>
       </c>
       <c r="G43" t="n">
-        <v>85133.33333333333</v>
+        <v>83745</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1929,7 +1997,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1939,7 +2011,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85200</v>
+        <v>85150</v>
       </c>
       <c r="C44" t="n">
         <v>85200</v>
@@ -1948,48 +2020,50 @@
         <v>85200</v>
       </c>
       <c r="E44" t="n">
-        <v>85200</v>
+        <v>85150</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5378</v>
+        <v>1.7322</v>
       </c>
       <c r="G44" t="n">
-        <v>85200</v>
+        <v>83764.16666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84950</v>
+        <v>85200</v>
       </c>
       <c r="C45" t="n">
-        <v>84950</v>
+        <v>85200</v>
       </c>
       <c r="D45" t="n">
-        <v>84950</v>
+        <v>85200</v>
       </c>
       <c r="E45" t="n">
-        <v>84950</v>
+        <v>85200</v>
       </c>
       <c r="F45" t="n">
-        <v>2.6372</v>
+        <v>3.5378</v>
       </c>
       <c r="G45" t="n">
-        <v>85116.66666666667</v>
+        <v>83784.16666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2009,22 +2083,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>85100</v>
+        <v>84950</v>
       </c>
       <c r="C46" t="n">
-        <v>85100</v>
+        <v>84950</v>
       </c>
       <c r="D46" t="n">
-        <v>85100</v>
+        <v>84950</v>
       </c>
       <c r="E46" t="n">
-        <v>85100</v>
+        <v>84950</v>
       </c>
       <c r="F46" t="n">
-        <v>1.566</v>
+        <v>2.6372</v>
       </c>
       <c r="G46" t="n">
-        <v>85083.33333333333</v>
+        <v>83796.66666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2044,22 +2118,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85050</v>
+        <v>85100</v>
       </c>
       <c r="C47" t="n">
-        <v>85050</v>
+        <v>85100</v>
       </c>
       <c r="D47" t="n">
-        <v>85050</v>
+        <v>85100</v>
       </c>
       <c r="E47" t="n">
-        <v>85050</v>
+        <v>85100</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1297</v>
+        <v>1.566</v>
       </c>
       <c r="G47" t="n">
-        <v>85033.33333333333</v>
+        <v>83809.16666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2079,28 +2153,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>84950</v>
+        <v>85050</v>
       </c>
       <c r="C48" t="n">
-        <v>85000</v>
+        <v>85050</v>
       </c>
       <c r="D48" t="n">
-        <v>85000</v>
+        <v>85050</v>
       </c>
       <c r="E48" t="n">
-        <v>84950</v>
+        <v>85050</v>
       </c>
       <c r="F48" t="n">
-        <v>20.6859</v>
+        <v>0.1297</v>
       </c>
       <c r="G48" t="n">
-        <v>85050</v>
+        <v>83825</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2114,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="C49" t="n">
         <v>85000</v>
@@ -2123,13 +2197,13 @@
         <v>85000</v>
       </c>
       <c r="E49" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="F49" t="n">
-        <v>3.2021</v>
+        <v>20.6859</v>
       </c>
       <c r="G49" t="n">
-        <v>85016.66666666667</v>
+        <v>83845.83333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2161,10 +2235,10 @@
         <v>85000</v>
       </c>
       <c r="F50" t="n">
-        <v>59.6359</v>
+        <v>3.2021</v>
       </c>
       <c r="G50" t="n">
-        <v>85000</v>
+        <v>83870.83333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2193,13 +2267,13 @@
         <v>85000</v>
       </c>
       <c r="E51" t="n">
-        <v>84850</v>
+        <v>85000</v>
       </c>
       <c r="F51" t="n">
-        <v>33.3414</v>
+        <v>59.6359</v>
       </c>
       <c r="G51" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,7 +2293,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="C52" t="n">
         <v>85000</v>
@@ -2228,19 +2302,19 @@
         <v>85000</v>
       </c>
       <c r="E52" t="n">
-        <v>84900</v>
+        <v>84850</v>
       </c>
       <c r="F52" t="n">
-        <v>50.8041</v>
+        <v>33.3414</v>
       </c>
       <c r="G52" t="n">
-        <v>85000</v>
+        <v>83929.16666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2254,7 +2328,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>85000</v>
+        <v>84900</v>
       </c>
       <c r="C53" t="n">
         <v>85000</v>
@@ -2263,19 +2337,19 @@
         <v>85000</v>
       </c>
       <c r="E53" t="n">
-        <v>85000</v>
+        <v>84900</v>
       </c>
       <c r="F53" t="n">
-        <v>18.9303</v>
+        <v>50.8041</v>
       </c>
       <c r="G53" t="n">
-        <v>85000</v>
+        <v>83958.33333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2289,28 +2363,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>84950</v>
+        <v>85000</v>
       </c>
       <c r="C54" t="n">
-        <v>84950</v>
+        <v>85000</v>
       </c>
       <c r="D54" t="n">
-        <v>84950</v>
+        <v>85000</v>
       </c>
       <c r="E54" t="n">
-        <v>84950</v>
+        <v>85000</v>
       </c>
       <c r="F54" t="n">
-        <v>18.0179</v>
+        <v>18.9303</v>
       </c>
       <c r="G54" t="n">
-        <v>84983.33333333333</v>
+        <v>83987.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2336,16 +2410,16 @@
         <v>84950</v>
       </c>
       <c r="F55" t="n">
-        <v>39.0358</v>
+        <v>18.0179</v>
       </c>
       <c r="G55" t="n">
-        <v>84966.66666666667</v>
+        <v>84015.83333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2362,19 +2436,19 @@
         <v>84950</v>
       </c>
       <c r="C56" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="D56" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="E56" t="n">
         <v>84950</v>
       </c>
       <c r="F56" t="n">
-        <v>3.2041</v>
+        <v>39.0358</v>
       </c>
       <c r="G56" t="n">
-        <v>84966.66666666667</v>
+        <v>84044.16666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2394,7 +2468,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="C57" t="n">
         <v>85000</v>
@@ -2403,13 +2477,13 @@
         <v>85000</v>
       </c>
       <c r="E57" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="F57" t="n">
-        <v>17.0384</v>
+        <v>3.2041</v>
       </c>
       <c r="G57" t="n">
-        <v>84983.33333333333</v>
+        <v>84073.33333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2435,16 +2509,16 @@
         <v>85000</v>
       </c>
       <c r="D58" t="n">
-        <v>85250</v>
+        <v>85000</v>
       </c>
       <c r="E58" t="n">
         <v>85000</v>
       </c>
       <c r="F58" t="n">
-        <v>31.9121</v>
+        <v>17.0384</v>
       </c>
       <c r="G58" t="n">
-        <v>85000</v>
+        <v>84094.16666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2464,22 +2538,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>85600</v>
+        <v>85000</v>
       </c>
       <c r="C59" t="n">
-        <v>85600</v>
+        <v>85000</v>
       </c>
       <c r="D59" t="n">
-        <v>85600</v>
+        <v>85250</v>
       </c>
       <c r="E59" t="n">
-        <v>85600</v>
+        <v>85000</v>
       </c>
       <c r="F59" t="n">
-        <v>0.233</v>
+        <v>31.9121</v>
       </c>
       <c r="G59" t="n">
-        <v>85200</v>
+        <v>84115</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2499,22 +2573,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>85700</v>
+        <v>85600</v>
       </c>
       <c r="C60" t="n">
-        <v>85750</v>
+        <v>85600</v>
       </c>
       <c r="D60" t="n">
-        <v>85750</v>
+        <v>85600</v>
       </c>
       <c r="E60" t="n">
-        <v>85700</v>
+        <v>85600</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5689</v>
+        <v>0.233</v>
       </c>
       <c r="G60" t="n">
-        <v>85450</v>
+        <v>84146.66666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2534,22 +2608,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="C61" t="n">
-        <v>85800</v>
+        <v>85750</v>
       </c>
       <c r="D61" t="n">
-        <v>85800</v>
+        <v>85750</v>
       </c>
       <c r="E61" t="n">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2.5689</v>
       </c>
       <c r="G61" t="n">
-        <v>85716.66666666667</v>
+        <v>84180.83333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2569,22 +2643,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>85900</v>
+        <v>85800</v>
       </c>
       <c r="C62" t="n">
-        <v>85900</v>
+        <v>85800</v>
       </c>
       <c r="D62" t="n">
-        <v>85900</v>
+        <v>85800</v>
       </c>
       <c r="E62" t="n">
-        <v>85900</v>
+        <v>85800</v>
       </c>
       <c r="F62" t="n">
-        <v>11.6414</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>85816.66666666667</v>
+        <v>84215.83333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2604,22 +2678,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>85950</v>
+        <v>85900</v>
       </c>
       <c r="C63" t="n">
-        <v>85800</v>
+        <v>85900</v>
       </c>
       <c r="D63" t="n">
-        <v>85950</v>
+        <v>85900</v>
       </c>
       <c r="E63" t="n">
-        <v>85800</v>
+        <v>85900</v>
       </c>
       <c r="F63" t="n">
-        <v>7.5797</v>
+        <v>11.6414</v>
       </c>
       <c r="G63" t="n">
-        <v>85833.33333333333</v>
+        <v>84250.83333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2639,22 +2713,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>85900</v>
+        <v>85950</v>
       </c>
       <c r="C64" t="n">
         <v>85800</v>
       </c>
       <c r="D64" t="n">
-        <v>85900</v>
+        <v>85950</v>
       </c>
       <c r="E64" t="n">
         <v>85800</v>
       </c>
       <c r="F64" t="n">
-        <v>6.8198</v>
+        <v>7.5797</v>
       </c>
       <c r="G64" t="n">
-        <v>85833.33333333333</v>
+        <v>84285.83333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2674,22 +2748,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>85800</v>
+        <v>85900</v>
       </c>
       <c r="C65" t="n">
         <v>85800</v>
       </c>
       <c r="D65" t="n">
-        <v>85800</v>
+        <v>85900</v>
       </c>
       <c r="E65" t="n">
         <v>85800</v>
       </c>
       <c r="F65" t="n">
-        <v>2.3283</v>
+        <v>6.8198</v>
       </c>
       <c r="G65" t="n">
-        <v>85800</v>
+        <v>84316.66666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2709,22 +2783,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>86000</v>
+        <v>85800</v>
       </c>
       <c r="C66" t="n">
-        <v>86200</v>
+        <v>85800</v>
       </c>
       <c r="D66" t="n">
-        <v>86200</v>
+        <v>85800</v>
       </c>
       <c r="E66" t="n">
-        <v>85950</v>
+        <v>85800</v>
       </c>
       <c r="F66" t="n">
-        <v>14.2592</v>
+        <v>2.3283</v>
       </c>
       <c r="G66" t="n">
-        <v>85933.33333333333</v>
+        <v>84347.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2744,22 +2818,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>86300</v>
+        <v>86000</v>
       </c>
       <c r="C67" t="n">
-        <v>86300</v>
+        <v>86200</v>
       </c>
       <c r="D67" t="n">
-        <v>86300</v>
+        <v>86200</v>
       </c>
       <c r="E67" t="n">
-        <v>86300</v>
+        <v>85950</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5</v>
+        <v>14.2592</v>
       </c>
       <c r="G67" t="n">
-        <v>86100</v>
+        <v>84379.16666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2779,22 +2853,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>86350</v>
+        <v>86300</v>
       </c>
       <c r="C68" t="n">
-        <v>86800</v>
+        <v>86300</v>
       </c>
       <c r="D68" t="n">
-        <v>86800</v>
+        <v>86300</v>
       </c>
       <c r="E68" t="n">
-        <v>86350</v>
+        <v>86300</v>
       </c>
       <c r="F68" t="n">
-        <v>44.02</v>
+        <v>0.5</v>
       </c>
       <c r="G68" t="n">
-        <v>86433.33333333333</v>
+        <v>84412.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2814,22 +2888,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>86700</v>
+        <v>86350</v>
       </c>
       <c r="C69" t="n">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="D69" t="n">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="E69" t="n">
-        <v>86700</v>
+        <v>86350</v>
       </c>
       <c r="F69" t="n">
-        <v>10.6416</v>
+        <v>44.02</v>
       </c>
       <c r="G69" t="n">
-        <v>86700</v>
+        <v>84454.16666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2849,22 +2923,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C70" t="n">
         <v>87000</v>
       </c>
-      <c r="C70" t="n">
-        <v>87300</v>
-      </c>
       <c r="D70" t="n">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="E70" t="n">
-        <v>87000</v>
+        <v>86700</v>
       </c>
       <c r="F70" t="n">
-        <v>35.8276</v>
+        <v>10.6416</v>
       </c>
       <c r="G70" t="n">
-        <v>87033.33333333333</v>
+        <v>84504.16666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2884,7 +2958,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="C71" t="n">
         <v>87300</v>
@@ -2893,13 +2967,13 @@
         <v>87300</v>
       </c>
       <c r="E71" t="n">
-        <v>87300</v>
+        <v>87000</v>
       </c>
       <c r="F71" t="n">
-        <v>22.0417</v>
+        <v>35.8276</v>
       </c>
       <c r="G71" t="n">
-        <v>87200</v>
+        <v>84560.83333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2919,22 +2993,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87500</v>
+        <v>87300</v>
       </c>
       <c r="C72" t="n">
-        <v>87700</v>
+        <v>87300</v>
       </c>
       <c r="D72" t="n">
-        <v>87700</v>
+        <v>87300</v>
       </c>
       <c r="E72" t="n">
-        <v>87500</v>
+        <v>87300</v>
       </c>
       <c r="F72" t="n">
-        <v>12.5022</v>
+        <v>22.0417</v>
       </c>
       <c r="G72" t="n">
-        <v>87433.33333333333</v>
+        <v>84617.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2954,22 +3028,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87750</v>
+        <v>87500</v>
       </c>
       <c r="C73" t="n">
-        <v>87750</v>
+        <v>87700</v>
       </c>
       <c r="D73" t="n">
-        <v>87750</v>
+        <v>87700</v>
       </c>
       <c r="E73" t="n">
-        <v>87750</v>
+        <v>87500</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5236</v>
+        <v>12.5022</v>
       </c>
       <c r="G73" t="n">
-        <v>87583.33333333333</v>
+        <v>84680.83333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2989,22 +3063,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87700</v>
+        <v>87750</v>
       </c>
       <c r="C74" t="n">
-        <v>87700</v>
+        <v>87750</v>
       </c>
       <c r="D74" t="n">
-        <v>87700</v>
+        <v>87750</v>
       </c>
       <c r="E74" t="n">
-        <v>87700</v>
+        <v>87750</v>
       </c>
       <c r="F74" t="n">
-        <v>17.5711</v>
+        <v>0.5236</v>
       </c>
       <c r="G74" t="n">
-        <v>87716.66666666667</v>
+        <v>84745</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3024,22 +3098,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="C75" t="n">
-        <v>88050</v>
+        <v>87700</v>
       </c>
       <c r="D75" t="n">
-        <v>88050</v>
+        <v>87700</v>
       </c>
       <c r="E75" t="n">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="F75" t="n">
-        <v>28.3839</v>
+        <v>17.5711</v>
       </c>
       <c r="G75" t="n">
-        <v>87833.33333333333</v>
+        <v>84810.83333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3059,22 +3133,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>87900</v>
+      </c>
+      <c r="C76" t="n">
         <v>88050</v>
       </c>
-      <c r="C76" t="n">
-        <v>88100</v>
-      </c>
       <c r="D76" t="n">
-        <v>88100</v>
+        <v>88050</v>
       </c>
       <c r="E76" t="n">
-        <v>88050</v>
+        <v>87900</v>
       </c>
       <c r="F76" t="n">
-        <v>28.622</v>
+        <v>28.3839</v>
       </c>
       <c r="G76" t="n">
-        <v>87950</v>
+        <v>84885</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3094,7 +3168,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>88100</v>
+        <v>88050</v>
       </c>
       <c r="C77" t="n">
         <v>88100</v>
@@ -3103,13 +3177,13 @@
         <v>88100</v>
       </c>
       <c r="E77" t="n">
-        <v>88100</v>
+        <v>88050</v>
       </c>
       <c r="F77" t="n">
-        <v>22.2725</v>
+        <v>28.622</v>
       </c>
       <c r="G77" t="n">
-        <v>88083.33333333333</v>
+        <v>84966.66666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3129,22 +3203,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87850</v>
+        <v>88100</v>
       </c>
       <c r="C78" t="n">
-        <v>87750</v>
+        <v>88100</v>
       </c>
       <c r="D78" t="n">
-        <v>87850</v>
+        <v>88100</v>
       </c>
       <c r="E78" t="n">
-        <v>87550</v>
+        <v>88100</v>
       </c>
       <c r="F78" t="n">
-        <v>11.0046</v>
+        <v>22.2725</v>
       </c>
       <c r="G78" t="n">
-        <v>87983.33333333333</v>
+        <v>85053.33333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3164,22 +3238,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87750</v>
+        <v>87850</v>
       </c>
       <c r="C79" t="n">
         <v>87750</v>
       </c>
       <c r="D79" t="n">
-        <v>87750</v>
+        <v>87850</v>
       </c>
       <c r="E79" t="n">
-        <v>87750</v>
+        <v>87550</v>
       </c>
       <c r="F79" t="n">
-        <v>1.4286</v>
+        <v>11.0046</v>
       </c>
       <c r="G79" t="n">
-        <v>87866.66666666667</v>
+        <v>85136.66666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3199,22 +3273,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87800</v>
+        <v>87750</v>
       </c>
       <c r="C80" t="n">
-        <v>87800</v>
+        <v>87750</v>
       </c>
       <c r="D80" t="n">
-        <v>87800</v>
+        <v>87750</v>
       </c>
       <c r="E80" t="n">
-        <v>87800</v>
+        <v>87750</v>
       </c>
       <c r="F80" t="n">
-        <v>2.2719</v>
+        <v>1.4286</v>
       </c>
       <c r="G80" t="n">
-        <v>87766.66666666667</v>
+        <v>85218.33333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3234,22 +3308,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87850</v>
+        <v>87800</v>
       </c>
       <c r="C81" t="n">
-        <v>87850</v>
+        <v>87800</v>
       </c>
       <c r="D81" t="n">
-        <v>87850</v>
+        <v>87800</v>
       </c>
       <c r="E81" t="n">
-        <v>87850</v>
+        <v>87800</v>
       </c>
       <c r="F81" t="n">
-        <v>1.694</v>
+        <v>2.2719</v>
       </c>
       <c r="G81" t="n">
-        <v>87800</v>
+        <v>85303.33333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3269,22 +3343,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87950</v>
+        <v>87850</v>
       </c>
       <c r="C82" t="n">
-        <v>87750</v>
+        <v>87850</v>
       </c>
       <c r="D82" t="n">
-        <v>87950</v>
+        <v>87850</v>
       </c>
       <c r="E82" t="n">
-        <v>87750</v>
+        <v>87850</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04</v>
+        <v>1.694</v>
       </c>
       <c r="G82" t="n">
-        <v>87800</v>
+        <v>85389.16666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3304,22 +3378,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>87950</v>
+      </c>
+      <c r="C83" t="n">
         <v>87750</v>
       </c>
-      <c r="C83" t="n">
-        <v>87550</v>
-      </c>
       <c r="D83" t="n">
+        <v>87950</v>
+      </c>
+      <c r="E83" t="n">
         <v>87750</v>
       </c>
-      <c r="E83" t="n">
-        <v>87550</v>
-      </c>
       <c r="F83" t="n">
-        <v>28.3278</v>
+        <v>0.04</v>
       </c>
       <c r="G83" t="n">
-        <v>87716.66666666667</v>
+        <v>85473.33333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3339,22 +3413,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87600</v>
+        <v>87750</v>
       </c>
       <c r="C84" t="n">
-        <v>87400</v>
+        <v>87550</v>
       </c>
       <c r="D84" t="n">
-        <v>87600</v>
+        <v>87750</v>
       </c>
       <c r="E84" t="n">
-        <v>87400</v>
+        <v>87550</v>
       </c>
       <c r="F84" t="n">
-        <v>9.299899999999999</v>
+        <v>28.3278</v>
       </c>
       <c r="G84" t="n">
-        <v>87566.66666666667</v>
+        <v>85555.83333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3377,19 +3451,19 @@
         <v>87600</v>
       </c>
       <c r="C85" t="n">
-        <v>87600</v>
+        <v>87400</v>
       </c>
       <c r="D85" t="n">
         <v>87600</v>
       </c>
       <c r="E85" t="n">
-        <v>87600</v>
+        <v>87400</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0239726</v>
+        <v>9.299899999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>87516.66666666667</v>
+        <v>85630</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3409,22 +3483,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87450</v>
+        <v>87600</v>
       </c>
       <c r="C86" t="n">
-        <v>87450</v>
+        <v>87600</v>
       </c>
       <c r="D86" t="n">
-        <v>87450</v>
+        <v>87600</v>
       </c>
       <c r="E86" t="n">
-        <v>87450</v>
+        <v>87600</v>
       </c>
       <c r="F86" t="n">
-        <v>4.34</v>
+        <v>0.0239726</v>
       </c>
       <c r="G86" t="n">
-        <v>87483.33333333333</v>
+        <v>85700.83333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3456,10 +3530,10 @@
         <v>87450</v>
       </c>
       <c r="F87" t="n">
-        <v>10.1555</v>
+        <v>4.34</v>
       </c>
       <c r="G87" t="n">
-        <v>87500</v>
+        <v>85762.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3491,10 +3565,10 @@
         <v>87450</v>
       </c>
       <c r="F88" t="n">
-        <v>1.5676</v>
+        <v>10.1555</v>
       </c>
       <c r="G88" t="n">
-        <v>87450</v>
+        <v>85823.33333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3514,22 +3588,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87400</v>
+        <v>87450</v>
       </c>
       <c r="C89" t="n">
-        <v>87400</v>
+        <v>87450</v>
       </c>
       <c r="D89" t="n">
-        <v>87400</v>
+        <v>87450</v>
       </c>
       <c r="E89" t="n">
-        <v>87400</v>
+        <v>87450</v>
       </c>
       <c r="F89" t="n">
-        <v>6.2234</v>
+        <v>1.5676</v>
       </c>
       <c r="G89" t="n">
-        <v>87433.33333333333</v>
+        <v>85884.16666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3549,22 +3623,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86900</v>
+        <v>87400</v>
       </c>
       <c r="C90" t="n">
-        <v>86900</v>
+        <v>87400</v>
       </c>
       <c r="D90" t="n">
-        <v>86900</v>
+        <v>87400</v>
       </c>
       <c r="E90" t="n">
-        <v>86900</v>
+        <v>87400</v>
       </c>
       <c r="F90" t="n">
-        <v>9.3634</v>
+        <v>6.2234</v>
       </c>
       <c r="G90" t="n">
-        <v>87250</v>
+        <v>85944.16666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3584,22 +3658,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86750</v>
+        <v>86900</v>
       </c>
       <c r="C91" t="n">
-        <v>86750</v>
+        <v>86900</v>
       </c>
       <c r="D91" t="n">
-        <v>86750</v>
+        <v>86900</v>
       </c>
       <c r="E91" t="n">
-        <v>86750</v>
+        <v>86900</v>
       </c>
       <c r="F91" t="n">
-        <v>4.34</v>
+        <v>9.3634</v>
       </c>
       <c r="G91" t="n">
-        <v>87016.66666666667</v>
+        <v>85995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3619,22 +3693,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86800</v>
+        <v>86750</v>
       </c>
       <c r="C92" t="n">
-        <v>86800</v>
+        <v>86750</v>
       </c>
       <c r="D92" t="n">
-        <v>86800</v>
+        <v>86750</v>
       </c>
       <c r="E92" t="n">
-        <v>86800</v>
+        <v>86750</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>4.34</v>
       </c>
       <c r="G92" t="n">
-        <v>86816.66666666667</v>
+        <v>86041.66666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3654,22 +3728,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86550</v>
+        <v>86800</v>
       </c>
       <c r="C93" t="n">
-        <v>86550</v>
+        <v>86800</v>
       </c>
       <c r="D93" t="n">
-        <v>86550</v>
+        <v>86800</v>
       </c>
       <c r="E93" t="n">
-        <v>86550</v>
+        <v>86800</v>
       </c>
       <c r="F93" t="n">
-        <v>1.1546967</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>86700</v>
+        <v>86089.16666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3689,22 +3763,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86250</v>
+        <v>86550</v>
       </c>
       <c r="C94" t="n">
-        <v>86150</v>
+        <v>86550</v>
       </c>
       <c r="D94" t="n">
-        <v>86250</v>
+        <v>86550</v>
       </c>
       <c r="E94" t="n">
-        <v>86150</v>
+        <v>86550</v>
       </c>
       <c r="F94" t="n">
-        <v>0.24</v>
+        <v>1.1546967</v>
       </c>
       <c r="G94" t="n">
-        <v>86500</v>
+        <v>86133.33333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3724,22 +3798,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>86150</v>
+        <v>86250</v>
       </c>
       <c r="C95" t="n">
         <v>86150</v>
       </c>
       <c r="D95" t="n">
-        <v>86150</v>
+        <v>86250</v>
       </c>
       <c r="E95" t="n">
         <v>86150</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5543</v>
+        <v>0.24</v>
       </c>
       <c r="G95" t="n">
-        <v>86283.33333333333</v>
+        <v>86170.83333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3759,22 +3833,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86250</v>
+        <v>86150</v>
       </c>
       <c r="C96" t="n">
-        <v>86250</v>
+        <v>86150</v>
       </c>
       <c r="D96" t="n">
-        <v>86250</v>
+        <v>86150</v>
       </c>
       <c r="E96" t="n">
-        <v>86250</v>
+        <v>86150</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1</v>
+        <v>0.5543</v>
       </c>
       <c r="G96" t="n">
-        <v>86183.33333333333</v>
+        <v>86209.16666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3794,22 +3868,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>85950</v>
+        <v>86250</v>
       </c>
       <c r="C97" t="n">
-        <v>85950</v>
+        <v>86250</v>
       </c>
       <c r="D97" t="n">
-        <v>85950</v>
+        <v>86250</v>
       </c>
       <c r="E97" t="n">
-        <v>85950</v>
+        <v>86250</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>86116.66666666667</v>
+        <v>86249.16666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3829,22 +3903,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>85550</v>
+        <v>85950</v>
       </c>
       <c r="C98" t="n">
-        <v>85800</v>
+        <v>85950</v>
       </c>
       <c r="D98" t="n">
-        <v>85800</v>
+        <v>85950</v>
       </c>
       <c r="E98" t="n">
-        <v>85450</v>
+        <v>85950</v>
       </c>
       <c r="F98" t="n">
-        <v>50.1788</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>86000</v>
+        <v>86275.83333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3864,22 +3938,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>85650</v>
+        <v>85550</v>
       </c>
       <c r="C99" t="n">
-        <v>85650</v>
+        <v>85800</v>
       </c>
       <c r="D99" t="n">
-        <v>85650</v>
+        <v>85800</v>
       </c>
       <c r="E99" t="n">
-        <v>85650</v>
+        <v>85450</v>
       </c>
       <c r="F99" t="n">
-        <v>15.0475</v>
+        <v>50.1788</v>
       </c>
       <c r="G99" t="n">
-        <v>85800</v>
+        <v>86292.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3899,22 +3973,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>85750</v>
+        <v>85650</v>
       </c>
       <c r="C100" t="n">
-        <v>85800</v>
+        <v>85650</v>
       </c>
       <c r="D100" t="n">
-        <v>85800</v>
+        <v>85650</v>
       </c>
       <c r="E100" t="n">
-        <v>85750</v>
+        <v>85650</v>
       </c>
       <c r="F100" t="n">
-        <v>15.5115</v>
+        <v>15.0475</v>
       </c>
       <c r="G100" t="n">
-        <v>85750</v>
+        <v>86303.33333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3934,22 +4008,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>85700</v>
+        <v>85750</v>
       </c>
       <c r="C101" t="n">
-        <v>85350</v>
+        <v>85800</v>
       </c>
       <c r="D101" t="n">
-        <v>85700</v>
+        <v>85800</v>
       </c>
       <c r="E101" t="n">
-        <v>85350</v>
+        <v>85750</v>
       </c>
       <c r="F101" t="n">
-        <v>3.641</v>
+        <v>15.5115</v>
       </c>
       <c r="G101" t="n">
-        <v>85600</v>
+        <v>86321.66666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3969,22 +4043,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>85300</v>
+        <v>85700</v>
       </c>
       <c r="C102" t="n">
-        <v>85300</v>
+        <v>85350</v>
       </c>
       <c r="D102" t="n">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="E102" t="n">
-        <v>85300</v>
+        <v>85350</v>
       </c>
       <c r="F102" t="n">
-        <v>2.515</v>
+        <v>3.641</v>
       </c>
       <c r="G102" t="n">
-        <v>85483.33333333333</v>
+        <v>86327.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4004,22 +4078,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>85050</v>
+        <v>85300</v>
       </c>
       <c r="C103" t="n">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="D103" t="n">
-        <v>85050</v>
+        <v>85600</v>
       </c>
       <c r="E103" t="n">
-        <v>85000</v>
+        <v>85300</v>
       </c>
       <c r="F103" t="n">
-        <v>45.1426</v>
+        <v>2.515</v>
       </c>
       <c r="G103" t="n">
-        <v>85216.66666666667</v>
+        <v>86329.16666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4042,19 +4116,19 @@
         <v>85050</v>
       </c>
       <c r="C104" t="n">
-        <v>85300</v>
+        <v>85000</v>
       </c>
       <c r="D104" t="n">
-        <v>85300</v>
+        <v>85050</v>
       </c>
       <c r="E104" t="n">
         <v>85000</v>
       </c>
       <c r="F104" t="n">
-        <v>9.209199999999999</v>
+        <v>45.1426</v>
       </c>
       <c r="G104" t="n">
-        <v>85200</v>
+        <v>86325.83333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4074,22 +4148,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>85400</v>
+        <v>85050</v>
       </c>
       <c r="C105" t="n">
-        <v>85400</v>
+        <v>85300</v>
       </c>
       <c r="D105" t="n">
-        <v>85400</v>
+        <v>85300</v>
       </c>
       <c r="E105" t="n">
-        <v>85400</v>
+        <v>85000</v>
       </c>
       <c r="F105" t="n">
-        <v>2.7885</v>
+        <v>9.209199999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>85233.33333333333</v>
+        <v>86327.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4109,22 +4183,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="C106" t="n">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="D106" t="n">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="E106" t="n">
-        <v>85500</v>
+        <v>85400</v>
       </c>
       <c r="F106" t="n">
-        <v>1.7</v>
+        <v>2.7885</v>
       </c>
       <c r="G106" t="n">
-        <v>85400</v>
+        <v>86335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4147,19 +4221,19 @@
         <v>85500</v>
       </c>
       <c r="C107" t="n">
-        <v>85350</v>
+        <v>85500</v>
       </c>
       <c r="D107" t="n">
         <v>85500</v>
       </c>
       <c r="E107" t="n">
-        <v>85350</v>
+        <v>85500</v>
       </c>
       <c r="F107" t="n">
-        <v>3.0663</v>
+        <v>1.7</v>
       </c>
       <c r="G107" t="n">
-        <v>85416.66666666667</v>
+        <v>86341.66666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4179,22 +4253,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>85350</v>
+        <v>85500</v>
       </c>
       <c r="C108" t="n">
         <v>85350</v>
       </c>
       <c r="D108" t="n">
-        <v>85350</v>
+        <v>85500</v>
       </c>
       <c r="E108" t="n">
         <v>85350</v>
       </c>
       <c r="F108" t="n">
-        <v>11.5353</v>
+        <v>3.0663</v>
       </c>
       <c r="G108" t="n">
-        <v>85400</v>
+        <v>86346.66666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4214,22 +4288,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85400</v>
+        <v>85350</v>
       </c>
       <c r="C109" t="n">
-        <v>85450</v>
+        <v>85350</v>
       </c>
       <c r="D109" t="n">
-        <v>85450</v>
+        <v>85350</v>
       </c>
       <c r="E109" t="n">
-        <v>85400</v>
+        <v>85350</v>
       </c>
       <c r="F109" t="n">
-        <v>21</v>
+        <v>11.5353</v>
       </c>
       <c r="G109" t="n">
-        <v>85383.33333333333</v>
+        <v>86352.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4249,22 +4323,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>85700</v>
+        <v>85400</v>
       </c>
       <c r="C110" t="n">
-        <v>85900</v>
+        <v>85450</v>
       </c>
       <c r="D110" t="n">
-        <v>85900</v>
+        <v>85450</v>
       </c>
       <c r="E110" t="n">
-        <v>85700</v>
+        <v>85400</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455</v>
+        <v>21</v>
       </c>
       <c r="G110" t="n">
-        <v>85566.66666666667</v>
+        <v>86360</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4358,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>85950</v>
+        <v>85700</v>
       </c>
       <c r="C111" t="n">
-        <v>85950</v>
+        <v>85900</v>
       </c>
       <c r="D111" t="n">
-        <v>85950</v>
+        <v>85900</v>
       </c>
       <c r="E111" t="n">
-        <v>85950</v>
+        <v>85700</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8339</v>
+        <v>0.455</v>
       </c>
       <c r="G111" t="n">
-        <v>85766.66666666667</v>
+        <v>86375</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4322,19 +4396,19 @@
         <v>85950</v>
       </c>
       <c r="C112" t="n">
-        <v>86000</v>
+        <v>85950</v>
       </c>
       <c r="D112" t="n">
-        <v>86000</v>
+        <v>85950</v>
       </c>
       <c r="E112" t="n">
         <v>85950</v>
       </c>
       <c r="F112" t="n">
-        <v>25.4209</v>
+        <v>0.8339</v>
       </c>
       <c r="G112" t="n">
-        <v>85950</v>
+        <v>86390.83333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4354,7 +4428,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>86000</v>
+        <v>85950</v>
       </c>
       <c r="C113" t="n">
         <v>86000</v>
@@ -4363,13 +4437,13 @@
         <v>86000</v>
       </c>
       <c r="E113" t="n">
-        <v>86000</v>
+        <v>85950</v>
       </c>
       <c r="F113" t="n">
-        <v>2.2698</v>
+        <v>25.4209</v>
       </c>
       <c r="G113" t="n">
-        <v>85983.33333333333</v>
+        <v>86407.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4389,22 +4463,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>86150</v>
+        <v>86000</v>
       </c>
       <c r="C114" t="n">
-        <v>86150</v>
+        <v>86000</v>
       </c>
       <c r="D114" t="n">
-        <v>86150</v>
+        <v>86000</v>
       </c>
       <c r="E114" t="n">
-        <v>86150</v>
+        <v>86000</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5669</v>
+        <v>2.2698</v>
       </c>
       <c r="G114" t="n">
-        <v>86050</v>
+        <v>86424.16666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4424,22 +4498,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="C115" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="D115" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="E115" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="F115" t="n">
-        <v>20.8057</v>
+        <v>0.5669</v>
       </c>
       <c r="G115" t="n">
-        <v>86083.33333333333</v>
+        <v>86444.16666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4454,6 +4528,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C116" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D116" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E116" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20.8057</v>
+      </c>
+      <c r="G116" t="n">
+        <v>86463.33333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>11.14566396</v>
       </c>
       <c r="G2" t="n">
+        <v>83513.33333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>84073.33333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20.10333604</v>
       </c>
       <c r="G3" t="n">
+        <v>83493.33333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>84058.33333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2.7156</v>
       </c>
       <c r="G4" t="n">
+        <v>83490</v>
+      </c>
+      <c r="H4" t="n">
         <v>84044.16666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>13.1864</v>
       </c>
       <c r="G5" t="n">
+        <v>83520</v>
+      </c>
+      <c r="H5" t="n">
         <v>84039.16666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.8189</v>
       </c>
       <c r="G6" t="n">
+        <v>83566.66666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>84040</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>69.1673</v>
       </c>
       <c r="G7" t="n">
+        <v>83636.66666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>84045.83333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1.0053</v>
       </c>
       <c r="G8" t="n">
+        <v>83706.66666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>84047.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>0.383</v>
       </c>
       <c r="G9" t="n">
+        <v>83776.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>84048.33333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3.9244</v>
       </c>
       <c r="G10" t="n">
+        <v>83826.66666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>84048.33333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>0.704</v>
       </c>
       <c r="G11" t="n">
+        <v>83870</v>
+      </c>
+      <c r="H11" t="n">
         <v>84050</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>0.1427</v>
       </c>
       <c r="G12" t="n">
+        <v>83913.33333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>84051.66666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>0.1135</v>
       </c>
       <c r="G13" t="n">
+        <v>83923.33333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>84056.66666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>0.0568</v>
       </c>
       <c r="G14" t="n">
+        <v>83933.33333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>84061.66666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>0.11940298</v>
       </c>
       <c r="G15" t="n">
+        <v>83936.66666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>84069.16666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>0.0569</v>
       </c>
       <c r="G16" t="n">
+        <v>83930</v>
+      </c>
+      <c r="H16" t="n">
         <v>84074.16666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.5154</v>
       </c>
       <c r="G17" t="n">
+        <v>83896.66666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>84068.33333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1.7793</v>
       </c>
       <c r="G18" t="n">
+        <v>83836.66666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>84057.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,24 +1099,21 @@
         <v>4.8099</v>
       </c>
       <c r="G19" t="n">
+        <v>83773.33333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>84044.16666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>82900</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,22 +1137,25 @@
         <v>8.5708</v>
       </c>
       <c r="G20" t="n">
+        <v>83700</v>
+      </c>
+      <c r="H20" t="n">
         <v>84024.16666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>82750</v>
+      </c>
+      <c r="L20" t="n">
+        <v>82750</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,24 +1179,29 @@
         <v>0.6795</v>
       </c>
       <c r="G21" t="n">
+        <v>83616.66666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>83997.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>82850</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>82750</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,22 +1225,29 @@
         <v>1.547</v>
       </c>
       <c r="G22" t="n">
+        <v>83510</v>
+      </c>
+      <c r="H22" t="n">
         <v>83976.66666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>82700</v>
+      </c>
+      <c r="L22" t="n">
+        <v>82750</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,24 +1271,25 @@
         <v>5.1912</v>
       </c>
       <c r="G23" t="n">
+        <v>83403.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>83955</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>82700</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>82700</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,24 +1313,29 @@
         <v>0.4619</v>
       </c>
       <c r="G24" t="n">
+        <v>83290</v>
+      </c>
+      <c r="H24" t="n">
         <v>83925.83333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>82700</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>82700</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,22 +1359,29 @@
         <v>0.1405</v>
       </c>
       <c r="G25" t="n">
+        <v>83220</v>
+      </c>
+      <c r="H25" t="n">
         <v>83883.33333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>82600</v>
+      </c>
+      <c r="L25" t="n">
+        <v>82700</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,22 +1405,25 @@
         <v>0.0107</v>
       </c>
       <c r="G26" t="n">
+        <v>83183.33333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>83854.16666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>82950</v>
+      </c>
+      <c r="L26" t="n">
+        <v>82950</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,22 +1447,29 @@
         <v>3.58257946</v>
       </c>
       <c r="G27" t="n">
+        <v>83173.33333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>83839.16666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>83350</v>
+      </c>
+      <c r="L27" t="n">
+        <v>82950</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,22 +1493,29 @@
         <v>18.0179</v>
       </c>
       <c r="G28" t="n">
+        <v>83166.66666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>83826.66666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>83750</v>
+      </c>
+      <c r="L28" t="n">
+        <v>82950</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1441,22 +1539,21 @@
         <v>0.6575</v>
       </c>
       <c r="G29" t="n">
+        <v>83160</v>
+      </c>
+      <c r="H29" t="n">
         <v>83811.66666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,22 +1577,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>83163.33333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>83798.33333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1519,22 +1615,21 @@
         <v>0.4658</v>
       </c>
       <c r="G31" t="n">
+        <v>83180</v>
+      </c>
+      <c r="H31" t="n">
         <v>83780</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,22 +1653,21 @@
         <v>1.0053</v>
       </c>
       <c r="G32" t="n">
+        <v>83230</v>
+      </c>
+      <c r="H32" t="n">
         <v>83763.33333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1597,22 +1691,21 @@
         <v>0.193</v>
       </c>
       <c r="G33" t="n">
+        <v>83300</v>
+      </c>
+      <c r="H33" t="n">
         <v>83747.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1636,22 +1729,21 @@
         <v>7.9059</v>
       </c>
       <c r="G34" t="n">
+        <v>83376.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>83727.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,22 +1767,21 @@
         <v>0.02</v>
       </c>
       <c r="G35" t="n">
+        <v>83446.66666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>83715</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,22 +1805,21 @@
         <v>15.4439</v>
       </c>
       <c r="G36" t="n">
+        <v>83523.33333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>83695.83333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,22 +1843,21 @@
         <v>9.7774</v>
       </c>
       <c r="G37" t="n">
+        <v>83600</v>
+      </c>
+      <c r="H37" t="n">
         <v>83673.33333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,22 +1881,21 @@
         <v>2.37190278</v>
       </c>
       <c r="G38" t="n">
+        <v>83710</v>
+      </c>
+      <c r="H38" t="n">
         <v>83681.66666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,22 +1919,21 @@
         <v>0.216</v>
       </c>
       <c r="G39" t="n">
+        <v>83856.66666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>83692.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,22 +1957,21 @@
         <v>14.285</v>
       </c>
       <c r="G40" t="n">
+        <v>83993.33333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>83707.5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,22 +1995,21 @@
         <v>8.9139</v>
       </c>
       <c r="G41" t="n">
+        <v>84083.33333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>83716.66666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,22 +2033,21 @@
         <v>0.02</v>
       </c>
       <c r="G42" t="n">
+        <v>84166.66666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>83729.16666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1987,22 +2071,21 @@
         <v>11.3137</v>
       </c>
       <c r="G43" t="n">
+        <v>84260</v>
+      </c>
+      <c r="H43" t="n">
         <v>83745</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,22 +2109,23 @@
         <v>1.7322</v>
       </c>
       <c r="G44" t="n">
+        <v>84353.33333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>83764.16666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2063,18 +2147,21 @@
         <v>3.5378</v>
       </c>
       <c r="G45" t="n">
+        <v>84446.66666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>83784.16666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,18 +2185,21 @@
         <v>2.6372</v>
       </c>
       <c r="G46" t="n">
+        <v>84520</v>
+      </c>
+      <c r="H46" t="n">
         <v>83796.66666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,18 +2223,21 @@
         <v>1.566</v>
       </c>
       <c r="G47" t="n">
+        <v>84596.66666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>83809.16666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,18 +2261,21 @@
         <v>0.1297</v>
       </c>
       <c r="G48" t="n">
+        <v>84670</v>
+      </c>
+      <c r="H48" t="n">
         <v>83825</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2203,18 +2299,21 @@
         <v>20.6859</v>
       </c>
       <c r="G49" t="n">
+        <v>84743.33333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>83845.83333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2238,18 +2337,21 @@
         <v>3.2021</v>
       </c>
       <c r="G50" t="n">
+        <v>84816.66666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>83870.83333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2273,18 +2375,21 @@
         <v>59.6359</v>
       </c>
       <c r="G51" t="n">
+        <v>84893.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>83900</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,18 +2413,21 @@
         <v>33.3414</v>
       </c>
       <c r="G52" t="n">
+        <v>84970</v>
+      </c>
+      <c r="H52" t="n">
         <v>83929.16666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,18 +2451,21 @@
         <v>50.8041</v>
       </c>
       <c r="G53" t="n">
+        <v>85013.33333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>83958.33333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2378,18 +2489,21 @@
         <v>18.9303</v>
       </c>
       <c r="G54" t="n">
+        <v>85026.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>83987.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2413,18 +2527,21 @@
         <v>18.0179</v>
       </c>
       <c r="G55" t="n">
+        <v>85023.33333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>84015.83333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,18 +2565,21 @@
         <v>39.0358</v>
       </c>
       <c r="G56" t="n">
+        <v>85040</v>
+      </c>
+      <c r="H56" t="n">
         <v>84044.16666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,18 +2603,21 @@
         <v>3.2041</v>
       </c>
       <c r="G57" t="n">
+        <v>85040</v>
+      </c>
+      <c r="H57" t="n">
         <v>84073.33333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,18 +2641,21 @@
         <v>17.0384</v>
       </c>
       <c r="G58" t="n">
+        <v>85026.66666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>84094.16666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2553,18 +2679,21 @@
         <v>31.9121</v>
       </c>
       <c r="G59" t="n">
+        <v>85013.33333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>84115</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,18 +2717,21 @@
         <v>0.233</v>
       </c>
       <c r="G60" t="n">
+        <v>85040</v>
+      </c>
+      <c r="H60" t="n">
         <v>84146.66666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2623,18 +2755,21 @@
         <v>2.5689</v>
       </c>
       <c r="G61" t="n">
+        <v>85093.33333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>84180.83333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,18 +2793,21 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
+        <v>85140</v>
+      </c>
+      <c r="H62" t="n">
         <v>84215.83333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2693,18 +2831,21 @@
         <v>11.6414</v>
       </c>
       <c r="G63" t="n">
+        <v>85196.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>84250.83333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,18 +2869,21 @@
         <v>7.5797</v>
       </c>
       <c r="G64" t="n">
+        <v>85250</v>
+      </c>
+      <c r="H64" t="n">
         <v>84285.83333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,18 +2907,21 @@
         <v>6.8198</v>
       </c>
       <c r="G65" t="n">
+        <v>85303.33333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>84316.66666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,18 +2945,21 @@
         <v>2.3283</v>
       </c>
       <c r="G66" t="n">
+        <v>85356.66666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>84347.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2833,18 +2983,21 @@
         <v>14.2592</v>
       </c>
       <c r="G67" t="n">
+        <v>85436.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>84379.16666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,18 +3021,21 @@
         <v>0.5</v>
       </c>
       <c r="G68" t="n">
+        <v>85523.33333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>84412.5</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2903,18 +3059,21 @@
         <v>44.02</v>
       </c>
       <c r="G69" t="n">
+        <v>85643.33333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>84454.16666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,18 +3097,21 @@
         <v>10.6416</v>
       </c>
       <c r="G70" t="n">
+        <v>85780</v>
+      </c>
+      <c r="H70" t="n">
         <v>84504.16666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,18 +3135,21 @@
         <v>35.8276</v>
       </c>
       <c r="G71" t="n">
+        <v>85936.66666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>84560.83333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,18 +3173,21 @@
         <v>22.0417</v>
       </c>
       <c r="G72" t="n">
+        <v>86090</v>
+      </c>
+      <c r="H72" t="n">
         <v>84617.5</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,18 +3211,21 @@
         <v>12.5022</v>
       </c>
       <c r="G73" t="n">
+        <v>86270</v>
+      </c>
+      <c r="H73" t="n">
         <v>84680.83333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,18 +3249,21 @@
         <v>0.5236</v>
       </c>
       <c r="G74" t="n">
+        <v>86453.33333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>84745</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3113,18 +3287,21 @@
         <v>17.5711</v>
       </c>
       <c r="G75" t="n">
+        <v>86593.33333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>84810.83333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,18 +3325,21 @@
         <v>28.3839</v>
       </c>
       <c r="G76" t="n">
+        <v>86746.66666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>84885</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3183,18 +3363,21 @@
         <v>28.622</v>
       </c>
       <c r="G77" t="n">
+        <v>86900</v>
+      </c>
+      <c r="H77" t="n">
         <v>84966.66666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,18 +3401,21 @@
         <v>22.2725</v>
       </c>
       <c r="G78" t="n">
+        <v>87046.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>85053.33333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,18 +3439,21 @@
         <v>11.0046</v>
       </c>
       <c r="G79" t="n">
+        <v>87176.66666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>85136.66666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,18 +3477,21 @@
         <v>1.4286</v>
       </c>
       <c r="G80" t="n">
+        <v>87306.66666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>85218.33333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,18 +3515,21 @@
         <v>2.2719</v>
       </c>
       <c r="G81" t="n">
+        <v>87440</v>
+      </c>
+      <c r="H81" t="n">
         <v>85303.33333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,18 +3553,21 @@
         <v>1.694</v>
       </c>
       <c r="G82" t="n">
+        <v>87550</v>
+      </c>
+      <c r="H82" t="n">
         <v>85389.16666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3393,18 +3591,21 @@
         <v>0.04</v>
       </c>
       <c r="G83" t="n">
+        <v>87646.66666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>85473.33333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,18 +3629,21 @@
         <v>28.3278</v>
       </c>
       <c r="G84" t="n">
+        <v>87696.66666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>85555.83333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,18 +3667,21 @@
         <v>9.299899999999999</v>
       </c>
       <c r="G85" t="n">
+        <v>87723.33333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>85630</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,18 +3705,21 @@
         <v>0.0239726</v>
       </c>
       <c r="G86" t="n">
+        <v>87743.33333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>85700.83333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,18 +3743,21 @@
         <v>4.34</v>
       </c>
       <c r="G87" t="n">
+        <v>87753.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>85762.5</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,18 +3781,21 @@
         <v>10.1555</v>
       </c>
       <c r="G88" t="n">
+        <v>87736.66666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>85823.33333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,18 +3819,21 @@
         <v>1.5676</v>
       </c>
       <c r="G89" t="n">
+        <v>87716.66666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>85884.16666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,18 +3857,21 @@
         <v>6.2234</v>
       </c>
       <c r="G90" t="n">
+        <v>87696.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>85944.16666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,18 +3895,21 @@
         <v>9.3634</v>
       </c>
       <c r="G91" t="n">
+        <v>87620</v>
+      </c>
+      <c r="H91" t="n">
         <v>85995</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,18 +3933,21 @@
         <v>4.34</v>
       </c>
       <c r="G92" t="n">
+        <v>87530</v>
+      </c>
+      <c r="H92" t="n">
         <v>86041.66666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3743,18 +3971,21 @@
         <v>4</v>
       </c>
       <c r="G93" t="n">
+        <v>87443.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>86089.16666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,18 +4009,21 @@
         <v>1.1546967</v>
       </c>
       <c r="G94" t="n">
+        <v>87363.33333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>86133.33333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3813,18 +4047,21 @@
         <v>0.24</v>
       </c>
       <c r="G95" t="n">
+        <v>87256.66666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>86170.83333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,18 +4085,21 @@
         <v>0.5543</v>
       </c>
       <c r="G96" t="n">
+        <v>87146.66666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>86209.16666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,18 +4123,21 @@
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
+        <v>87040</v>
+      </c>
+      <c r="H97" t="n">
         <v>86249.16666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,18 +4161,21 @@
         <v>0.6104000000000001</v>
       </c>
       <c r="G98" t="n">
+        <v>86920</v>
+      </c>
+      <c r="H98" t="n">
         <v>86275.83333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,18 +4199,21 @@
         <v>50.1788</v>
       </c>
       <c r="G99" t="n">
+        <v>86803.33333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>86292.5</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,18 +4237,21 @@
         <v>15.0475</v>
       </c>
       <c r="G100" t="n">
+        <v>86686.66666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>86303.33333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4023,18 +4275,21 @@
         <v>15.5115</v>
       </c>
       <c r="G101" t="n">
+        <v>86566.66666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>86321.66666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,18 +4313,21 @@
         <v>3.641</v>
       </c>
       <c r="G102" t="n">
+        <v>86426.66666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>86327.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4093,18 +4351,21 @@
         <v>2.515</v>
       </c>
       <c r="G103" t="n">
+        <v>86283.33333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>86329.16666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,18 +4389,21 @@
         <v>45.1426</v>
       </c>
       <c r="G104" t="n">
+        <v>86120</v>
+      </c>
+      <c r="H104" t="n">
         <v>86325.83333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,18 +4427,21 @@
         <v>9.209199999999999</v>
       </c>
       <c r="G105" t="n">
+        <v>85980</v>
+      </c>
+      <c r="H105" t="n">
         <v>86327.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,18 +4465,21 @@
         <v>2.7885</v>
       </c>
       <c r="G106" t="n">
+        <v>85880</v>
+      </c>
+      <c r="H106" t="n">
         <v>86335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,18 +4503,21 @@
         <v>1.7</v>
       </c>
       <c r="G107" t="n">
+        <v>85796.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>86341.66666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,18 +4541,21 @@
         <v>3.0663</v>
       </c>
       <c r="G108" t="n">
+        <v>85700</v>
+      </c>
+      <c r="H108" t="n">
         <v>86346.66666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,18 +4579,21 @@
         <v>11.5353</v>
       </c>
       <c r="G109" t="n">
+        <v>85620</v>
+      </c>
+      <c r="H109" t="n">
         <v>86352.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,18 +4617,21 @@
         <v>21</v>
       </c>
       <c r="G110" t="n">
+        <v>85573.33333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>86360</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,18 +4655,21 @@
         <v>0.455</v>
       </c>
       <c r="G111" t="n">
+        <v>85556.66666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>86375</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,18 +4693,21 @@
         <v>0.8339</v>
       </c>
       <c r="G112" t="n">
+        <v>85536.66666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>86390.83333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4443,18 +4731,21 @@
         <v>25.4209</v>
       </c>
       <c r="G113" t="n">
+        <v>85540</v>
+      </c>
+      <c r="H113" t="n">
         <v>86407.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,18 +4769,21 @@
         <v>2.2698</v>
       </c>
       <c r="G114" t="n">
+        <v>85553.33333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>86424.16666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4513,18 +4807,21 @@
         <v>0.5669</v>
       </c>
       <c r="G115" t="n">
+        <v>85586.66666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>86444.16666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,18 +4845,401 @@
         <v>20.8057</v>
       </c>
       <c r="G116" t="n">
+        <v>85606.66666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>86463.33333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C117" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D117" t="n">
+        <v>86400</v>
+      </c>
+      <c r="E117" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.3654</v>
+      </c>
+      <c r="G117" t="n">
+        <v>85676.66666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>86486.66666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C118" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D118" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E118" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24.5001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>85733.33333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>86505.83333333333</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>86050</v>
+      </c>
+      <c r="C119" t="n">
+        <v>86050</v>
+      </c>
+      <c r="D119" t="n">
+        <v>86050</v>
+      </c>
+      <c r="E119" t="n">
+        <v>86050</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.1757</v>
+      </c>
+      <c r="G119" t="n">
+        <v>85803.33333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>86523.33333333333</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C120" t="n">
+        <v>86300</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86300</v>
+      </c>
+      <c r="E120" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8682</v>
+      </c>
+      <c r="G120" t="n">
+        <v>85870</v>
+      </c>
+      <c r="H120" t="n">
+        <v>86535</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C121" t="n">
+        <v>86700</v>
+      </c>
+      <c r="D121" t="n">
+        <v>86700</v>
+      </c>
+      <c r="E121" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.11534025</v>
+      </c>
+      <c r="G121" t="n">
+        <v>85956.66666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>86550.83333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C122" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36.6254</v>
+      </c>
+      <c r="G122" t="n">
+        <v>86056.66666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>86570.83333333333</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>87000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G123" t="n">
+        <v>86166.66666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>86589.16666666667</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>86750</v>
+      </c>
+      <c r="C124" t="n">
+        <v>86850</v>
+      </c>
+      <c r="D124" t="n">
+        <v>86850</v>
+      </c>
+      <c r="E124" t="n">
+        <v>86750</v>
+      </c>
+      <c r="F124" t="n">
+        <v>23.28195958</v>
+      </c>
+      <c r="G124" t="n">
+        <v>86266.66666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>86606.66666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C125" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G125" t="n">
+        <v>86310</v>
+      </c>
+      <c r="H125" t="n">
+        <v>86611.66666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>85800</v>
+      </c>
+      <c r="C126" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D126" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E126" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>86303.33333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>86611.66666666667</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83700</v>
+        <v>84900</v>
       </c>
       <c r="C2" t="n">
-        <v>83700</v>
+        <v>84900</v>
       </c>
       <c r="D2" t="n">
-        <v>83800</v>
+        <v>84900</v>
       </c>
       <c r="E2" t="n">
-        <v>83700</v>
+        <v>84900</v>
       </c>
       <c r="F2" t="n">
-        <v>11.14566396</v>
+        <v>12.5471</v>
       </c>
       <c r="G2" t="n">
-        <v>83513.33333333333</v>
+        <v>-24.60529679000004</v>
       </c>
       <c r="H2" t="n">
-        <v>84073.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83700</v>
+        <v>85100</v>
       </c>
       <c r="C3" t="n">
-        <v>83800</v>
+        <v>85100</v>
       </c>
       <c r="D3" t="n">
-        <v>83800</v>
+        <v>85100</v>
       </c>
       <c r="E3" t="n">
-        <v>83700</v>
+        <v>85100</v>
       </c>
       <c r="F3" t="n">
-        <v>20.10333604</v>
+        <v>0.1421</v>
       </c>
       <c r="G3" t="n">
-        <v>83493.33333333333</v>
+        <v>-24.46319679000004</v>
       </c>
       <c r="H3" t="n">
-        <v>84058.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83700</v>
+        <v>84650</v>
       </c>
       <c r="C4" t="n">
-        <v>83700</v>
+        <v>84650</v>
       </c>
       <c r="D4" t="n">
-        <v>83700</v>
+        <v>84650</v>
       </c>
       <c r="E4" t="n">
-        <v>83700</v>
+        <v>84650</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7156</v>
+        <v>0.5477</v>
       </c>
       <c r="G4" t="n">
-        <v>83490</v>
+        <v>-25.01089679000004</v>
       </c>
       <c r="H4" t="n">
-        <v>84044.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83850</v>
+        <v>85000</v>
       </c>
       <c r="C5" t="n">
-        <v>83950</v>
+        <v>85000</v>
       </c>
       <c r="D5" t="n">
-        <v>83950</v>
+        <v>85000</v>
       </c>
       <c r="E5" t="n">
-        <v>83850</v>
+        <v>85000</v>
       </c>
       <c r="F5" t="n">
-        <v>13.1864</v>
+        <v>0.51</v>
       </c>
       <c r="G5" t="n">
-        <v>83520</v>
+        <v>-24.50089679000004</v>
       </c>
       <c r="H5" t="n">
-        <v>84039.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83950</v>
+        <v>85200</v>
       </c>
       <c r="C6" t="n">
-        <v>83950</v>
+        <v>85200</v>
       </c>
       <c r="D6" t="n">
-        <v>83950</v>
+        <v>85200</v>
       </c>
       <c r="E6" t="n">
-        <v>83950</v>
+        <v>85200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8189</v>
+        <v>0.3366</v>
       </c>
       <c r="G6" t="n">
-        <v>83566.66666666667</v>
+        <v>-24.16429679000004</v>
       </c>
       <c r="H6" t="n">
-        <v>84040</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84300</v>
+        <v>84250</v>
       </c>
       <c r="C7" t="n">
-        <v>84300</v>
+        <v>83850</v>
       </c>
       <c r="D7" t="n">
-        <v>84300</v>
+        <v>84250</v>
       </c>
       <c r="E7" t="n">
-        <v>84300</v>
+        <v>83850</v>
       </c>
       <c r="F7" t="n">
-        <v>69.1673</v>
+        <v>21.7982</v>
       </c>
       <c r="G7" t="n">
-        <v>83636.66666666667</v>
+        <v>-45.96249679000004</v>
       </c>
       <c r="H7" t="n">
-        <v>84045.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84300</v>
+        <v>84150</v>
       </c>
       <c r="C8" t="n">
-        <v>84300</v>
+        <v>84150</v>
       </c>
       <c r="D8" t="n">
-        <v>84300</v>
+        <v>84150</v>
       </c>
       <c r="E8" t="n">
-        <v>84300</v>
+        <v>84150</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0053</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>83706.66666666667</v>
+        <v>-45.86249679000004</v>
       </c>
       <c r="H8" t="n">
-        <v>84047.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84300</v>
+        <v>84100</v>
       </c>
       <c r="C9" t="n">
-        <v>84300</v>
+        <v>84100</v>
       </c>
       <c r="D9" t="n">
-        <v>84300</v>
+        <v>84100</v>
       </c>
       <c r="E9" t="n">
-        <v>84300</v>
+        <v>84100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.383</v>
+        <v>20.6</v>
       </c>
       <c r="G9" t="n">
-        <v>83776.66666666667</v>
+        <v>-66.46249679000005</v>
       </c>
       <c r="H9" t="n">
-        <v>84048.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84000</v>
+        <v>84150</v>
       </c>
       <c r="C10" t="n">
-        <v>84000</v>
+        <v>84150</v>
       </c>
       <c r="D10" t="n">
-        <v>84000</v>
+        <v>84150</v>
       </c>
       <c r="E10" t="n">
-        <v>84000</v>
+        <v>84150</v>
       </c>
       <c r="F10" t="n">
-        <v>3.9244</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>83826.66666666667</v>
+        <v>-64.46249679000005</v>
       </c>
       <c r="H10" t="n">
-        <v>84048.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83950</v>
+        <v>84250</v>
       </c>
       <c r="C11" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="D11" t="n">
-        <v>83950</v>
+        <v>84250</v>
       </c>
       <c r="E11" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="F11" t="n">
-        <v>0.704</v>
+        <v>6.7637</v>
       </c>
       <c r="G11" t="n">
-        <v>83870</v>
+        <v>-57.69879679000005</v>
       </c>
       <c r="H11" t="n">
-        <v>84050</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="C12" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="D12" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="E12" t="n">
-        <v>83900</v>
+        <v>84250</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1427</v>
+        <v>0.7307</v>
       </c>
       <c r="G12" t="n">
-        <v>83913.33333333333</v>
+        <v>-57.69879679000005</v>
       </c>
       <c r="H12" t="n">
-        <v>84051.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="C13" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="D13" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="E13" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1135</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>83923.33333333333</v>
+        <v>-63.69879679000005</v>
       </c>
       <c r="H13" t="n">
-        <v>84056.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="C14" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="D14" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="E14" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0568</v>
+        <v>5.9646</v>
       </c>
       <c r="G14" t="n">
-        <v>83933.33333333333</v>
+        <v>-69.66339679000005</v>
       </c>
       <c r="H14" t="n">
-        <v>84061.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83750</v>
+        <v>84200</v>
       </c>
       <c r="C15" t="n">
-        <v>83750</v>
+        <v>84200</v>
       </c>
       <c r="D15" t="n">
-        <v>83750</v>
+        <v>84200</v>
       </c>
       <c r="E15" t="n">
-        <v>83750</v>
+        <v>84200</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11940298</v>
+        <v>0.02</v>
       </c>
       <c r="G15" t="n">
-        <v>83936.66666666667</v>
+        <v>-69.64339679000005</v>
       </c>
       <c r="H15" t="n">
-        <v>84069.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83600</v>
+        <v>84000</v>
       </c>
       <c r="C16" t="n">
-        <v>83600</v>
+        <v>84350</v>
       </c>
       <c r="D16" t="n">
-        <v>83600</v>
+        <v>84350</v>
       </c>
       <c r="E16" t="n">
-        <v>83600</v>
+        <v>84000</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0569</v>
+        <v>7.9836</v>
       </c>
       <c r="G16" t="n">
-        <v>83930</v>
+        <v>-61.65979679000005</v>
       </c>
       <c r="H16" t="n">
-        <v>84074.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83300</v>
+        <v>84100</v>
       </c>
       <c r="C17" t="n">
-        <v>83200</v>
+        <v>84100</v>
       </c>
       <c r="D17" t="n">
-        <v>83300</v>
+        <v>84100</v>
       </c>
       <c r="E17" t="n">
-        <v>83200</v>
+        <v>84100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5154</v>
+        <v>0.6021</v>
       </c>
       <c r="G17" t="n">
-        <v>83896.66666666667</v>
+        <v>-62.26189679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>84068.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="C18" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="D18" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="E18" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7793</v>
+        <v>0.1328</v>
       </c>
       <c r="G18" t="n">
-        <v>83836.66666666667</v>
+        <v>-62.39469679000005</v>
       </c>
       <c r="H18" t="n">
-        <v>84057.5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82700</v>
+        <v>83500</v>
       </c>
       <c r="C19" t="n">
-        <v>82750</v>
+        <v>83500</v>
       </c>
       <c r="D19" t="n">
-        <v>82750</v>
+        <v>83500</v>
       </c>
       <c r="E19" t="n">
-        <v>82700</v>
+        <v>83500</v>
       </c>
       <c r="F19" t="n">
-        <v>4.8099</v>
+        <v>0.7302</v>
       </c>
       <c r="G19" t="n">
-        <v>83773.33333333333</v>
+        <v>-63.12489679000005</v>
       </c>
       <c r="H19" t="n">
-        <v>84044.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,40 +1063,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82900</v>
+        <v>83300</v>
       </c>
       <c r="C20" t="n">
-        <v>82850</v>
+        <v>83250</v>
       </c>
       <c r="D20" t="n">
-        <v>82900</v>
+        <v>83300</v>
       </c>
       <c r="E20" t="n">
-        <v>82850</v>
+        <v>83250</v>
       </c>
       <c r="F20" t="n">
-        <v>8.5708</v>
+        <v>2.6735</v>
       </c>
       <c r="G20" t="n">
-        <v>83700</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H20" t="n">
-        <v>84024.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>82750</v>
-      </c>
-      <c r="L20" t="n">
-        <v>82750</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>83500</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,44 +1104,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="C21" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="D21" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="E21" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6795</v>
+        <v>15.2742</v>
       </c>
       <c r="G21" t="n">
-        <v>83616.66666666667</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H21" t="n">
-        <v>83997.5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>82850</v>
-      </c>
-      <c r="L21" t="n">
-        <v>82750</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,44 +1143,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="C22" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="D22" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="E22" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="F22" t="n">
-        <v>1.547</v>
+        <v>27.8011</v>
       </c>
       <c r="G22" t="n">
-        <v>83510</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H22" t="n">
-        <v>83976.66666666667</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>82700</v>
-      </c>
-      <c r="L22" t="n">
-        <v>82750</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,40 +1184,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="C23" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="D23" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="E23" t="n">
-        <v>82700</v>
+        <v>83250</v>
       </c>
       <c r="F23" t="n">
-        <v>5.1912</v>
+        <v>0.395</v>
       </c>
       <c r="G23" t="n">
-        <v>83403.33333333333</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H23" t="n">
-        <v>83955</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>82700</v>
-      </c>
-      <c r="L23" t="n">
-        <v>82700</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,44 +1225,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82600</v>
+        <v>83250</v>
       </c>
       <c r="C24" t="n">
-        <v>82600</v>
+        <v>83250</v>
       </c>
       <c r="D24" t="n">
-        <v>82600</v>
+        <v>83250</v>
       </c>
       <c r="E24" t="n">
-        <v>82600</v>
+        <v>83250</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4619</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>83290</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H24" t="n">
-        <v>83925.83333333333</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>82700</v>
-      </c>
-      <c r="L24" t="n">
-        <v>82700</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,44 +1266,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82950</v>
+        <v>83250</v>
       </c>
       <c r="C25" t="n">
-        <v>82950</v>
+        <v>83250</v>
       </c>
       <c r="D25" t="n">
-        <v>82950</v>
+        <v>83250</v>
       </c>
       <c r="E25" t="n">
-        <v>82950</v>
+        <v>83250</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1405</v>
+        <v>2.3265</v>
       </c>
       <c r="G25" t="n">
-        <v>83220</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H25" t="n">
-        <v>83883.33333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>82600</v>
-      </c>
-      <c r="L25" t="n">
-        <v>82700</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1390,40 +1307,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83350</v>
+        <v>83250</v>
       </c>
       <c r="C26" t="n">
-        <v>83350</v>
+        <v>83250</v>
       </c>
       <c r="D26" t="n">
         <v>83350</v>
       </c>
       <c r="E26" t="n">
-        <v>83350</v>
+        <v>83250</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0107</v>
+        <v>28.6821</v>
       </c>
       <c r="G26" t="n">
-        <v>83183.33333333333</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H26" t="n">
-        <v>83854.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>82950</v>
-      </c>
-      <c r="L26" t="n">
-        <v>82950</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,7 +1348,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83550</v>
+        <v>83750</v>
       </c>
       <c r="C27" t="n">
         <v>83750</v>
@@ -1441,35 +1357,30 @@
         <v>83750</v>
       </c>
       <c r="E27" t="n">
-        <v>83550</v>
+        <v>83750</v>
       </c>
       <c r="F27" t="n">
-        <v>3.58257946</v>
+        <v>1.5056</v>
       </c>
       <c r="G27" t="n">
-        <v>83173.33333333333</v>
+        <v>-64.29279679000005</v>
       </c>
       <c r="H27" t="n">
-        <v>83839.16666666667</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>83350</v>
-      </c>
-      <c r="L27" t="n">
-        <v>82950</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1478,44 +1389,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="C28" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="D28" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="E28" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="F28" t="n">
-        <v>18.0179</v>
+        <v>34.414</v>
       </c>
       <c r="G28" t="n">
-        <v>83166.66666666667</v>
+        <v>-64.29279679000005</v>
       </c>
       <c r="H28" t="n">
-        <v>83826.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>83750</v>
-      </c>
-      <c r="L28" t="n">
-        <v>82950</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1524,36 +1428,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="C29" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="D29" t="n">
-        <v>83800</v>
+        <v>83750</v>
       </c>
       <c r="E29" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6575</v>
+        <v>19.9117</v>
       </c>
       <c r="G29" t="n">
-        <v>83160</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H29" t="n">
-        <v>83811.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,36 +1467,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="C30" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="D30" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="E30" t="n">
-        <v>83800</v>
+        <v>83700</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>17.061</v>
       </c>
       <c r="G30" t="n">
-        <v>83163.33333333333</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H30" t="n">
-        <v>83798.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,36 +1506,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83850</v>
+        <v>83700</v>
       </c>
       <c r="C31" t="n">
-        <v>83850</v>
+        <v>83700</v>
       </c>
       <c r="D31" t="n">
-        <v>83850</v>
+        <v>83800</v>
       </c>
       <c r="E31" t="n">
-        <v>83850</v>
+        <v>83700</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4658</v>
+        <v>11.14566396</v>
       </c>
       <c r="G31" t="n">
-        <v>83180</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H31" t="n">
-        <v>83780</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,36 +1545,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="C32" t="n">
-        <v>83950</v>
+        <v>83800</v>
       </c>
       <c r="D32" t="n">
-        <v>83950</v>
+        <v>83800</v>
       </c>
       <c r="E32" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0053</v>
+        <v>20.10333604</v>
       </c>
       <c r="G32" t="n">
-        <v>83230</v>
+        <v>-64.10116075000005</v>
       </c>
       <c r="H32" t="n">
-        <v>83763.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,36 +1584,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="C33" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="D33" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="E33" t="n">
-        <v>83950</v>
+        <v>83700</v>
       </c>
       <c r="F33" t="n">
-        <v>0.193</v>
+        <v>2.7156</v>
       </c>
       <c r="G33" t="n">
-        <v>83300</v>
+        <v>-66.81676075000004</v>
       </c>
       <c r="H33" t="n">
-        <v>83747.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,36 +1623,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83900</v>
+        <v>83850</v>
       </c>
       <c r="C34" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="D34" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="E34" t="n">
-        <v>83900</v>
+        <v>83850</v>
       </c>
       <c r="F34" t="n">
-        <v>7.9059</v>
+        <v>13.1864</v>
       </c>
       <c r="G34" t="n">
-        <v>83376.66666666667</v>
+        <v>-53.63036075000004</v>
       </c>
       <c r="H34" t="n">
-        <v>83727.5</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,36 +1662,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="C35" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="D35" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="E35" t="n">
-        <v>83900</v>
+        <v>83950</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02</v>
+        <v>0.8189</v>
       </c>
       <c r="G35" t="n">
-        <v>83446.66666666667</v>
+        <v>-53.63036075000004</v>
       </c>
       <c r="H35" t="n">
-        <v>83715</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,36 +1701,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83900</v>
+        <v>84300</v>
       </c>
       <c r="C36" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="D36" t="n">
-        <v>83900</v>
+        <v>84300</v>
       </c>
       <c r="E36" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="F36" t="n">
-        <v>15.4439</v>
+        <v>69.1673</v>
       </c>
       <c r="G36" t="n">
-        <v>83523.33333333333</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H36" t="n">
-        <v>83695.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,36 +1740,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="C37" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="D37" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="E37" t="n">
-        <v>83850</v>
+        <v>84300</v>
       </c>
       <c r="F37" t="n">
-        <v>9.7774</v>
+        <v>1.0053</v>
       </c>
       <c r="G37" t="n">
-        <v>83600</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H37" t="n">
-        <v>83673.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,36 +1779,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="C38" t="n">
-        <v>84350</v>
+        <v>84300</v>
       </c>
       <c r="D38" t="n">
-        <v>84350</v>
+        <v>84300</v>
       </c>
       <c r="E38" t="n">
-        <v>84000</v>
+        <v>84300</v>
       </c>
       <c r="F38" t="n">
-        <v>2.37190278</v>
+        <v>0.383</v>
       </c>
       <c r="G38" t="n">
-        <v>83710</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H38" t="n">
-        <v>83681.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,36 +1818,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="C39" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="D39" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="E39" t="n">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="F39" t="n">
-        <v>0.216</v>
+        <v>3.9244</v>
       </c>
       <c r="G39" t="n">
-        <v>83856.66666666667</v>
+        <v>11.61253924999995</v>
       </c>
       <c r="H39" t="n">
-        <v>83692.5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,36 +1857,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>85000</v>
+        <v>83950</v>
       </c>
       <c r="C40" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="D40" t="n">
-        <v>85000</v>
+        <v>83950</v>
       </c>
       <c r="E40" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="F40" t="n">
-        <v>14.285</v>
+        <v>0.704</v>
       </c>
       <c r="G40" t="n">
-        <v>83993.33333333333</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H40" t="n">
-        <v>83707.5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,36 +1896,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>85050</v>
+        <v>83900</v>
       </c>
       <c r="C41" t="n">
-        <v>84700</v>
+        <v>83900</v>
       </c>
       <c r="D41" t="n">
-        <v>85050</v>
+        <v>83900</v>
       </c>
       <c r="E41" t="n">
-        <v>84700</v>
+        <v>83900</v>
       </c>
       <c r="F41" t="n">
-        <v>8.9139</v>
+        <v>0.1427</v>
       </c>
       <c r="G41" t="n">
-        <v>84083.33333333333</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H41" t="n">
-        <v>83716.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2018,36 +1935,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="C42" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="D42" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="E42" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02</v>
+        <v>0.1135</v>
       </c>
       <c r="G42" t="n">
-        <v>84166.66666666667</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H42" t="n">
-        <v>83729.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2056,36 +1974,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85300</v>
+        <v>83900</v>
       </c>
       <c r="C43" t="n">
-        <v>85200</v>
+        <v>83900</v>
       </c>
       <c r="D43" t="n">
-        <v>85300</v>
+        <v>83900</v>
       </c>
       <c r="E43" t="n">
-        <v>84900</v>
+        <v>83900</v>
       </c>
       <c r="F43" t="n">
-        <v>11.3137</v>
+        <v>0.0568</v>
       </c>
       <c r="G43" t="n">
-        <v>84260</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H43" t="n">
-        <v>83745</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,36 +2013,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85150</v>
+        <v>83750</v>
       </c>
       <c r="C44" t="n">
-        <v>85200</v>
+        <v>83750</v>
       </c>
       <c r="D44" t="n">
-        <v>85200</v>
+        <v>83750</v>
       </c>
       <c r="E44" t="n">
-        <v>85150</v>
+        <v>83750</v>
       </c>
       <c r="F44" t="n">
-        <v>1.7322</v>
+        <v>0.11940298</v>
       </c>
       <c r="G44" t="n">
-        <v>84353.33333333333</v>
+        <v>10.78913626999995</v>
       </c>
       <c r="H44" t="n">
-        <v>83764.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,36 +2052,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85200</v>
+        <v>83600</v>
       </c>
       <c r="C45" t="n">
-        <v>85200</v>
+        <v>83600</v>
       </c>
       <c r="D45" t="n">
-        <v>85200</v>
+        <v>83600</v>
       </c>
       <c r="E45" t="n">
-        <v>85200</v>
+        <v>83600</v>
       </c>
       <c r="F45" t="n">
-        <v>3.5378</v>
+        <v>0.0569</v>
       </c>
       <c r="G45" t="n">
-        <v>84446.66666666667</v>
+        <v>10.73223626999995</v>
       </c>
       <c r="H45" t="n">
-        <v>83784.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,36 +2091,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84950</v>
+        <v>83300</v>
       </c>
       <c r="C46" t="n">
-        <v>84950</v>
+        <v>83200</v>
       </c>
       <c r="D46" t="n">
-        <v>84950</v>
+        <v>83300</v>
       </c>
       <c r="E46" t="n">
-        <v>84950</v>
+        <v>83200</v>
       </c>
       <c r="F46" t="n">
-        <v>2.6372</v>
+        <v>0.5154</v>
       </c>
       <c r="G46" t="n">
-        <v>84520</v>
+        <v>10.21683626999995</v>
       </c>
       <c r="H46" t="n">
-        <v>83796.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,36 +2130,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85100</v>
+        <v>82900</v>
       </c>
       <c r="C47" t="n">
-        <v>85100</v>
+        <v>82900</v>
       </c>
       <c r="D47" t="n">
-        <v>85100</v>
+        <v>82900</v>
       </c>
       <c r="E47" t="n">
-        <v>85100</v>
+        <v>82900</v>
       </c>
       <c r="F47" t="n">
-        <v>1.566</v>
+        <v>1.7793</v>
       </c>
       <c r="G47" t="n">
-        <v>84596.66666666667</v>
+        <v>8.437536269999953</v>
       </c>
       <c r="H47" t="n">
-        <v>83809.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,36 +2169,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>85050</v>
+        <v>82700</v>
       </c>
       <c r="C48" t="n">
-        <v>85050</v>
+        <v>82750</v>
       </c>
       <c r="D48" t="n">
-        <v>85050</v>
+        <v>82750</v>
       </c>
       <c r="E48" t="n">
-        <v>85050</v>
+        <v>82700</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1297</v>
+        <v>4.8099</v>
       </c>
       <c r="G48" t="n">
-        <v>84670</v>
+        <v>3.627636269999953</v>
       </c>
       <c r="H48" t="n">
-        <v>83825</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,36 +2208,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84950</v>
+        <v>82900</v>
       </c>
       <c r="C49" t="n">
-        <v>85000</v>
+        <v>82850</v>
       </c>
       <c r="D49" t="n">
-        <v>85000</v>
+        <v>82900</v>
       </c>
       <c r="E49" t="n">
-        <v>84950</v>
+        <v>82850</v>
       </c>
       <c r="F49" t="n">
-        <v>20.6859</v>
+        <v>8.5708</v>
       </c>
       <c r="G49" t="n">
-        <v>84743.33333333333</v>
+        <v>12.19843626999995</v>
       </c>
       <c r="H49" t="n">
-        <v>83845.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,36 +2247,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="C50" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="D50" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="E50" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="F50" t="n">
-        <v>3.2021</v>
+        <v>0.6795</v>
       </c>
       <c r="G50" t="n">
-        <v>84816.66666666667</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H50" t="n">
-        <v>83870.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,36 +2286,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="C51" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="D51" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="E51" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="F51" t="n">
-        <v>59.6359</v>
+        <v>1.547</v>
       </c>
       <c r="G51" t="n">
-        <v>84893.33333333333</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H51" t="n">
-        <v>83900</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2398,36 +2325,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="C52" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="D52" t="n">
-        <v>85000</v>
+        <v>82700</v>
       </c>
       <c r="E52" t="n">
-        <v>84850</v>
+        <v>82700</v>
       </c>
       <c r="F52" t="n">
-        <v>33.3414</v>
+        <v>5.1912</v>
       </c>
       <c r="G52" t="n">
-        <v>84970</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H52" t="n">
-        <v>83929.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,36 +2364,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>84900</v>
+        <v>82600</v>
       </c>
       <c r="C53" t="n">
-        <v>85000</v>
+        <v>82600</v>
       </c>
       <c r="D53" t="n">
-        <v>85000</v>
+        <v>82600</v>
       </c>
       <c r="E53" t="n">
-        <v>84900</v>
+        <v>82600</v>
       </c>
       <c r="F53" t="n">
-        <v>50.8041</v>
+        <v>0.4619</v>
       </c>
       <c r="G53" t="n">
-        <v>85013.33333333333</v>
+        <v>11.05703626999995</v>
       </c>
       <c r="H53" t="n">
-        <v>83958.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,36 +2403,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>85000</v>
+        <v>82950</v>
       </c>
       <c r="C54" t="n">
-        <v>85000</v>
+        <v>82950</v>
       </c>
       <c r="D54" t="n">
-        <v>85000</v>
+        <v>82950</v>
       </c>
       <c r="E54" t="n">
-        <v>85000</v>
+        <v>82950</v>
       </c>
       <c r="F54" t="n">
-        <v>18.9303</v>
+        <v>0.1405</v>
       </c>
       <c r="G54" t="n">
-        <v>85026.66666666667</v>
+        <v>11.19753626999995</v>
       </c>
       <c r="H54" t="n">
-        <v>83987.5</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,36 +2442,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84950</v>
+        <v>83350</v>
       </c>
       <c r="C55" t="n">
-        <v>84950</v>
+        <v>83350</v>
       </c>
       <c r="D55" t="n">
-        <v>84950</v>
+        <v>83350</v>
       </c>
       <c r="E55" t="n">
-        <v>84950</v>
+        <v>83350</v>
       </c>
       <c r="F55" t="n">
-        <v>18.0179</v>
+        <v>0.0107</v>
       </c>
       <c r="G55" t="n">
-        <v>85023.33333333333</v>
+        <v>11.20823626999995</v>
       </c>
       <c r="H55" t="n">
-        <v>84015.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,36 +2481,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84950</v>
+        <v>83550</v>
       </c>
       <c r="C56" t="n">
-        <v>84950</v>
+        <v>83750</v>
       </c>
       <c r="D56" t="n">
-        <v>84950</v>
+        <v>83750</v>
       </c>
       <c r="E56" t="n">
-        <v>84950</v>
+        <v>83550</v>
       </c>
       <c r="F56" t="n">
-        <v>39.0358</v>
+        <v>3.58257946</v>
       </c>
       <c r="G56" t="n">
-        <v>85040</v>
+        <v>14.79081572999995</v>
       </c>
       <c r="H56" t="n">
-        <v>84044.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,36 +2520,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>84950</v>
+        <v>83800</v>
       </c>
       <c r="C57" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="D57" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="E57" t="n">
-        <v>84950</v>
+        <v>83800</v>
       </c>
       <c r="F57" t="n">
-        <v>3.2041</v>
+        <v>18.0179</v>
       </c>
       <c r="G57" t="n">
-        <v>85040</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H57" t="n">
-        <v>84073.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,36 +2559,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="C58" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="D58" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="E58" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="F58" t="n">
-        <v>17.0384</v>
+        <v>0.6575</v>
       </c>
       <c r="G58" t="n">
-        <v>85026.66666666667</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H58" t="n">
-        <v>84094.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,36 +2598,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="C59" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="D59" t="n">
-        <v>85250</v>
+        <v>83800</v>
       </c>
       <c r="E59" t="n">
-        <v>85000</v>
+        <v>83800</v>
       </c>
       <c r="F59" t="n">
-        <v>31.9121</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>85013.33333333333</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H59" t="n">
-        <v>84115</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,36 +2637,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>85600</v>
+        <v>83850</v>
       </c>
       <c r="C60" t="n">
-        <v>85600</v>
+        <v>83850</v>
       </c>
       <c r="D60" t="n">
-        <v>85600</v>
+        <v>83850</v>
       </c>
       <c r="E60" t="n">
-        <v>85600</v>
+        <v>83850</v>
       </c>
       <c r="F60" t="n">
-        <v>0.233</v>
+        <v>0.4658</v>
       </c>
       <c r="G60" t="n">
-        <v>85040</v>
+        <v>33.27451572999995</v>
       </c>
       <c r="H60" t="n">
-        <v>84146.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,36 +2676,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>85700</v>
+        <v>83950</v>
       </c>
       <c r="C61" t="n">
-        <v>85750</v>
+        <v>83950</v>
       </c>
       <c r="D61" t="n">
-        <v>85750</v>
+        <v>83950</v>
       </c>
       <c r="E61" t="n">
-        <v>85700</v>
+        <v>83950</v>
       </c>
       <c r="F61" t="n">
-        <v>2.5689</v>
+        <v>1.0053</v>
       </c>
       <c r="G61" t="n">
-        <v>85093.33333333333</v>
+        <v>34.27981572999995</v>
       </c>
       <c r="H61" t="n">
-        <v>84180.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,36 +2715,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>85800</v>
+        <v>83950</v>
       </c>
       <c r="C62" t="n">
-        <v>85800</v>
+        <v>83950</v>
       </c>
       <c r="D62" t="n">
-        <v>85800</v>
+        <v>83950</v>
       </c>
       <c r="E62" t="n">
-        <v>85800</v>
+        <v>83950</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.193</v>
       </c>
       <c r="G62" t="n">
-        <v>85140</v>
+        <v>34.27981572999995</v>
       </c>
       <c r="H62" t="n">
-        <v>84215.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,36 +2754,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="C63" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="D63" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="E63" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="F63" t="n">
-        <v>11.6414</v>
+        <v>7.9059</v>
       </c>
       <c r="G63" t="n">
-        <v>85196.66666666667</v>
+        <v>26.37391572999995</v>
       </c>
       <c r="H63" t="n">
-        <v>84250.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,36 +2793,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>85950</v>
+        <v>83900</v>
       </c>
       <c r="C64" t="n">
-        <v>85800</v>
+        <v>83900</v>
       </c>
       <c r="D64" t="n">
-        <v>85950</v>
+        <v>83900</v>
       </c>
       <c r="E64" t="n">
-        <v>85800</v>
+        <v>83900</v>
       </c>
       <c r="F64" t="n">
-        <v>7.5797</v>
+        <v>0.02</v>
       </c>
       <c r="G64" t="n">
-        <v>85250</v>
+        <v>26.37391572999995</v>
       </c>
       <c r="H64" t="n">
-        <v>84285.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,36 +2832,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="C65" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="D65" t="n">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="E65" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="F65" t="n">
-        <v>6.8198</v>
+        <v>15.4439</v>
       </c>
       <c r="G65" t="n">
-        <v>85303.33333333333</v>
+        <v>10.93001572999995</v>
       </c>
       <c r="H65" t="n">
-        <v>84316.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,36 +2871,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="C66" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="D66" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="E66" t="n">
-        <v>85800</v>
+        <v>83850</v>
       </c>
       <c r="F66" t="n">
-        <v>2.3283</v>
+        <v>9.7774</v>
       </c>
       <c r="G66" t="n">
-        <v>85356.66666666667</v>
+        <v>10.93001572999995</v>
       </c>
       <c r="H66" t="n">
-        <v>84347.5</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,36 +2910,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>86000</v>
+        <v>84000</v>
       </c>
       <c r="C67" t="n">
-        <v>86200</v>
+        <v>84350</v>
       </c>
       <c r="D67" t="n">
-        <v>86200</v>
+        <v>84350</v>
       </c>
       <c r="E67" t="n">
-        <v>85950</v>
+        <v>84000</v>
       </c>
       <c r="F67" t="n">
-        <v>14.2592</v>
+        <v>2.37190278</v>
       </c>
       <c r="G67" t="n">
-        <v>85436.66666666667</v>
+        <v>13.30191850999995</v>
       </c>
       <c r="H67" t="n">
-        <v>84379.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,36 +2949,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>86300</v>
+        <v>84800</v>
       </c>
       <c r="C68" t="n">
-        <v>86300</v>
+        <v>84800</v>
       </c>
       <c r="D68" t="n">
-        <v>86300</v>
+        <v>84800</v>
       </c>
       <c r="E68" t="n">
-        <v>86300</v>
+        <v>84800</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5</v>
+        <v>0.216</v>
       </c>
       <c r="G68" t="n">
-        <v>85523.33333333333</v>
+        <v>13.51791850999995</v>
       </c>
       <c r="H68" t="n">
-        <v>84412.5</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,36 +2988,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>86350</v>
+        <v>85000</v>
       </c>
       <c r="C69" t="n">
-        <v>86800</v>
+        <v>85000</v>
       </c>
       <c r="D69" t="n">
-        <v>86800</v>
+        <v>85000</v>
       </c>
       <c r="E69" t="n">
-        <v>86350</v>
+        <v>85000</v>
       </c>
       <c r="F69" t="n">
-        <v>44.02</v>
+        <v>14.285</v>
       </c>
       <c r="G69" t="n">
-        <v>85643.33333333333</v>
+        <v>27.80291850999996</v>
       </c>
       <c r="H69" t="n">
-        <v>84454.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,36 +3027,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>86700</v>
+        <v>85050</v>
       </c>
       <c r="C70" t="n">
-        <v>87000</v>
+        <v>84700</v>
       </c>
       <c r="D70" t="n">
-        <v>87000</v>
+        <v>85050</v>
       </c>
       <c r="E70" t="n">
-        <v>86700</v>
+        <v>84700</v>
       </c>
       <c r="F70" t="n">
-        <v>10.6416</v>
+        <v>8.9139</v>
       </c>
       <c r="G70" t="n">
-        <v>85780</v>
+        <v>18.88901850999996</v>
       </c>
       <c r="H70" t="n">
-        <v>84504.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,36 +3066,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="C71" t="n">
-        <v>87300</v>
+        <v>85000</v>
       </c>
       <c r="D71" t="n">
-        <v>87300</v>
+        <v>85000</v>
       </c>
       <c r="E71" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="F71" t="n">
-        <v>35.8276</v>
+        <v>0.02</v>
       </c>
       <c r="G71" t="n">
-        <v>85936.66666666667</v>
+        <v>18.90901850999996</v>
       </c>
       <c r="H71" t="n">
-        <v>84560.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,36 +3105,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87300</v>
+        <v>85300</v>
       </c>
       <c r="C72" t="n">
-        <v>87300</v>
+        <v>85200</v>
       </c>
       <c r="D72" t="n">
-        <v>87300</v>
+        <v>85300</v>
       </c>
       <c r="E72" t="n">
-        <v>87300</v>
+        <v>84900</v>
       </c>
       <c r="F72" t="n">
-        <v>22.0417</v>
+        <v>11.3137</v>
       </c>
       <c r="G72" t="n">
-        <v>86090</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H72" t="n">
-        <v>84617.5</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,36 +3144,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87500</v>
+        <v>85150</v>
       </c>
       <c r="C73" t="n">
-        <v>87700</v>
+        <v>85200</v>
       </c>
       <c r="D73" t="n">
-        <v>87700</v>
+        <v>85200</v>
       </c>
       <c r="E73" t="n">
-        <v>87500</v>
+        <v>85150</v>
       </c>
       <c r="F73" t="n">
-        <v>12.5022</v>
+        <v>1.7322</v>
       </c>
       <c r="G73" t="n">
-        <v>86270</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H73" t="n">
-        <v>84680.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,36 +3183,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87750</v>
+        <v>85200</v>
       </c>
       <c r="C74" t="n">
-        <v>87750</v>
+        <v>85200</v>
       </c>
       <c r="D74" t="n">
-        <v>87750</v>
+        <v>85200</v>
       </c>
       <c r="E74" t="n">
-        <v>87750</v>
+        <v>85200</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5236</v>
+        <v>3.5378</v>
       </c>
       <c r="G74" t="n">
-        <v>86453.33333333333</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H74" t="n">
-        <v>84745</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,36 +3222,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87700</v>
+        <v>84950</v>
       </c>
       <c r="C75" t="n">
-        <v>87700</v>
+        <v>84950</v>
       </c>
       <c r="D75" t="n">
-        <v>87700</v>
+        <v>84950</v>
       </c>
       <c r="E75" t="n">
-        <v>87700</v>
+        <v>84950</v>
       </c>
       <c r="F75" t="n">
-        <v>17.5711</v>
+        <v>2.6372</v>
       </c>
       <c r="G75" t="n">
-        <v>86593.33333333333</v>
+        <v>27.58551850999996</v>
       </c>
       <c r="H75" t="n">
-        <v>84810.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,36 +3261,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87900</v>
+        <v>85100</v>
       </c>
       <c r="C76" t="n">
-        <v>88050</v>
+        <v>85100</v>
       </c>
       <c r="D76" t="n">
-        <v>88050</v>
+        <v>85100</v>
       </c>
       <c r="E76" t="n">
-        <v>87900</v>
+        <v>85100</v>
       </c>
       <c r="F76" t="n">
-        <v>28.3839</v>
+        <v>1.566</v>
       </c>
       <c r="G76" t="n">
-        <v>86746.66666666667</v>
+        <v>29.15151850999996</v>
       </c>
       <c r="H76" t="n">
-        <v>84885</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,36 +3300,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>88050</v>
+        <v>85050</v>
       </c>
       <c r="C77" t="n">
-        <v>88100</v>
+        <v>85050</v>
       </c>
       <c r="D77" t="n">
-        <v>88100</v>
+        <v>85050</v>
       </c>
       <c r="E77" t="n">
-        <v>88050</v>
+        <v>85050</v>
       </c>
       <c r="F77" t="n">
-        <v>28.622</v>
+        <v>0.1297</v>
       </c>
       <c r="G77" t="n">
-        <v>86900</v>
+        <v>29.02181850999996</v>
       </c>
       <c r="H77" t="n">
-        <v>84966.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,36 +3339,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>88100</v>
+        <v>84950</v>
       </c>
       <c r="C78" t="n">
-        <v>88100</v>
+        <v>85000</v>
       </c>
       <c r="D78" t="n">
-        <v>88100</v>
+        <v>85000</v>
       </c>
       <c r="E78" t="n">
-        <v>88100</v>
+        <v>84950</v>
       </c>
       <c r="F78" t="n">
-        <v>22.2725</v>
+        <v>20.6859</v>
       </c>
       <c r="G78" t="n">
-        <v>87046.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H78" t="n">
-        <v>85053.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,36 +3378,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87850</v>
+        <v>85000</v>
       </c>
       <c r="C79" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="D79" t="n">
-        <v>87850</v>
+        <v>85000</v>
       </c>
       <c r="E79" t="n">
-        <v>87550</v>
+        <v>85000</v>
       </c>
       <c r="F79" t="n">
-        <v>11.0046</v>
+        <v>3.2021</v>
       </c>
       <c r="G79" t="n">
-        <v>87176.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H79" t="n">
-        <v>85136.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,36 +3417,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="C80" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="D80" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="E80" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="F80" t="n">
-        <v>1.4286</v>
+        <v>59.6359</v>
       </c>
       <c r="G80" t="n">
-        <v>87306.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H80" t="n">
-        <v>85218.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,36 +3456,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87800</v>
+        <v>85000</v>
       </c>
       <c r="C81" t="n">
-        <v>87800</v>
+        <v>85000</v>
       </c>
       <c r="D81" t="n">
-        <v>87800</v>
+        <v>85000</v>
       </c>
       <c r="E81" t="n">
-        <v>87800</v>
+        <v>84850</v>
       </c>
       <c r="F81" t="n">
-        <v>2.2719</v>
+        <v>33.3414</v>
       </c>
       <c r="G81" t="n">
-        <v>87440</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H81" t="n">
-        <v>85303.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,36 +3495,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87850</v>
+        <v>84900</v>
       </c>
       <c r="C82" t="n">
-        <v>87850</v>
+        <v>85000</v>
       </c>
       <c r="D82" t="n">
-        <v>87850</v>
+        <v>85000</v>
       </c>
       <c r="E82" t="n">
-        <v>87850</v>
+        <v>84900</v>
       </c>
       <c r="F82" t="n">
-        <v>1.694</v>
+        <v>50.8041</v>
       </c>
       <c r="G82" t="n">
-        <v>87550</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H82" t="n">
-        <v>85389.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,36 +3534,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>87950</v>
+        <v>85000</v>
       </c>
       <c r="C83" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="D83" t="n">
-        <v>87950</v>
+        <v>85000</v>
       </c>
       <c r="E83" t="n">
-        <v>87750</v>
+        <v>85000</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04</v>
+        <v>18.9303</v>
       </c>
       <c r="G83" t="n">
-        <v>87646.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H83" t="n">
-        <v>85473.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,36 +3573,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>87750</v>
+        <v>84950</v>
       </c>
       <c r="C84" t="n">
-        <v>87550</v>
+        <v>84950</v>
       </c>
       <c r="D84" t="n">
-        <v>87750</v>
+        <v>84950</v>
       </c>
       <c r="E84" t="n">
-        <v>87550</v>
+        <v>84950</v>
       </c>
       <c r="F84" t="n">
-        <v>28.3278</v>
+        <v>18.0179</v>
       </c>
       <c r="G84" t="n">
-        <v>87696.66666666667</v>
+        <v>-9.681981490000044</v>
       </c>
       <c r="H84" t="n">
-        <v>85555.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,36 +3612,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>87600</v>
+        <v>84950</v>
       </c>
       <c r="C85" t="n">
-        <v>87400</v>
+        <v>84950</v>
       </c>
       <c r="D85" t="n">
-        <v>87600</v>
+        <v>84950</v>
       </c>
       <c r="E85" t="n">
-        <v>87400</v>
+        <v>84950</v>
       </c>
       <c r="F85" t="n">
-        <v>9.299899999999999</v>
+        <v>39.0358</v>
       </c>
       <c r="G85" t="n">
-        <v>87723.33333333333</v>
+        <v>-9.681981490000044</v>
       </c>
       <c r="H85" t="n">
-        <v>85630</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,36 +3651,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87600</v>
+        <v>84950</v>
       </c>
       <c r="C86" t="n">
-        <v>87600</v>
+        <v>85000</v>
       </c>
       <c r="D86" t="n">
-        <v>87600</v>
+        <v>85000</v>
       </c>
       <c r="E86" t="n">
-        <v>87600</v>
+        <v>84950</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0239726</v>
+        <v>3.2041</v>
       </c>
       <c r="G86" t="n">
-        <v>87743.33333333333</v>
+        <v>-6.477881490000044</v>
       </c>
       <c r="H86" t="n">
-        <v>85700.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,36 +3690,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="C87" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="D87" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="E87" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="F87" t="n">
-        <v>4.34</v>
+        <v>17.0384</v>
       </c>
       <c r="G87" t="n">
-        <v>87753.33333333333</v>
+        <v>-6.477881490000044</v>
       </c>
       <c r="H87" t="n">
-        <v>85762.5</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,36 +3729,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="C88" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="D88" t="n">
-        <v>87450</v>
+        <v>85250</v>
       </c>
       <c r="E88" t="n">
-        <v>87450</v>
+        <v>85000</v>
       </c>
       <c r="F88" t="n">
-        <v>10.1555</v>
+        <v>31.9121</v>
       </c>
       <c r="G88" t="n">
-        <v>87736.66666666667</v>
+        <v>-6.477881490000044</v>
       </c>
       <c r="H88" t="n">
-        <v>85823.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,36 +3768,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87450</v>
+        <v>85600</v>
       </c>
       <c r="C89" t="n">
-        <v>87450</v>
+        <v>85600</v>
       </c>
       <c r="D89" t="n">
-        <v>87450</v>
+        <v>85600</v>
       </c>
       <c r="E89" t="n">
-        <v>87450</v>
+        <v>85600</v>
       </c>
       <c r="F89" t="n">
-        <v>1.5676</v>
+        <v>0.233</v>
       </c>
       <c r="G89" t="n">
-        <v>87716.66666666667</v>
+        <v>-6.244881490000044</v>
       </c>
       <c r="H89" t="n">
-        <v>85884.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,36 +3807,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>87400</v>
+        <v>85700</v>
       </c>
       <c r="C90" t="n">
-        <v>87400</v>
+        <v>85750</v>
       </c>
       <c r="D90" t="n">
-        <v>87400</v>
+        <v>85750</v>
       </c>
       <c r="E90" t="n">
-        <v>87400</v>
+        <v>85700</v>
       </c>
       <c r="F90" t="n">
-        <v>6.2234</v>
+        <v>2.5689</v>
       </c>
       <c r="G90" t="n">
-        <v>87696.66666666667</v>
+        <v>-3.675981490000044</v>
       </c>
       <c r="H90" t="n">
-        <v>85944.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,36 +3846,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86900</v>
+        <v>85800</v>
       </c>
       <c r="C91" t="n">
-        <v>86900</v>
+        <v>85800</v>
       </c>
       <c r="D91" t="n">
-        <v>86900</v>
+        <v>85800</v>
       </c>
       <c r="E91" t="n">
-        <v>86900</v>
+        <v>85800</v>
       </c>
       <c r="F91" t="n">
-        <v>9.3634</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>87620</v>
+        <v>-2.675981490000044</v>
       </c>
       <c r="H91" t="n">
-        <v>85995</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,36 +3885,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86750</v>
+        <v>85900</v>
       </c>
       <c r="C92" t="n">
-        <v>86750</v>
+        <v>85900</v>
       </c>
       <c r="D92" t="n">
-        <v>86750</v>
+        <v>85900</v>
       </c>
       <c r="E92" t="n">
-        <v>86750</v>
+        <v>85900</v>
       </c>
       <c r="F92" t="n">
-        <v>4.34</v>
+        <v>11.6414</v>
       </c>
       <c r="G92" t="n">
-        <v>87530</v>
+        <v>8.965418509999957</v>
       </c>
       <c r="H92" t="n">
-        <v>86041.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,36 +3924,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86800</v>
+        <v>85950</v>
       </c>
       <c r="C93" t="n">
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="D93" t="n">
-        <v>86800</v>
+        <v>85950</v>
       </c>
       <c r="E93" t="n">
-        <v>86800</v>
+        <v>85800</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>7.5797</v>
       </c>
       <c r="G93" t="n">
-        <v>87443.33333333333</v>
+        <v>1.385718509999957</v>
       </c>
       <c r="H93" t="n">
-        <v>86089.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,36 +3963,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>86550</v>
+        <v>85900</v>
       </c>
       <c r="C94" t="n">
-        <v>86550</v>
+        <v>85800</v>
       </c>
       <c r="D94" t="n">
-        <v>86550</v>
+        <v>85900</v>
       </c>
       <c r="E94" t="n">
-        <v>86550</v>
+        <v>85800</v>
       </c>
       <c r="F94" t="n">
-        <v>1.1546967</v>
+        <v>6.8198</v>
       </c>
       <c r="G94" t="n">
-        <v>87363.33333333333</v>
+        <v>1.385718509999957</v>
       </c>
       <c r="H94" t="n">
-        <v>86133.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,36 +4002,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>86250</v>
+        <v>85800</v>
       </c>
       <c r="C95" t="n">
-        <v>86150</v>
+        <v>85800</v>
       </c>
       <c r="D95" t="n">
-        <v>86250</v>
+        <v>85800</v>
       </c>
       <c r="E95" t="n">
-        <v>86150</v>
+        <v>85800</v>
       </c>
       <c r="F95" t="n">
-        <v>0.24</v>
+        <v>2.3283</v>
       </c>
       <c r="G95" t="n">
-        <v>87256.66666666667</v>
+        <v>1.385718509999957</v>
       </c>
       <c r="H95" t="n">
-        <v>86170.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,36 +4041,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86150</v>
+        <v>86000</v>
       </c>
       <c r="C96" t="n">
-        <v>86150</v>
+        <v>86200</v>
       </c>
       <c r="D96" t="n">
-        <v>86150</v>
+        <v>86200</v>
       </c>
       <c r="E96" t="n">
-        <v>86150</v>
+        <v>85950</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5543</v>
+        <v>14.2592</v>
       </c>
       <c r="G96" t="n">
-        <v>87146.66666666667</v>
+        <v>15.64491850999996</v>
       </c>
       <c r="H96" t="n">
-        <v>86209.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,36 +4080,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86250</v>
+        <v>86300</v>
       </c>
       <c r="C97" t="n">
-        <v>86250</v>
+        <v>86300</v>
       </c>
       <c r="D97" t="n">
-        <v>86250</v>
+        <v>86300</v>
       </c>
       <c r="E97" t="n">
-        <v>86250</v>
+        <v>86300</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G97" t="n">
-        <v>87040</v>
+        <v>16.14491850999996</v>
       </c>
       <c r="H97" t="n">
-        <v>86249.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,36 +4119,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>85950</v>
+        <v>86350</v>
       </c>
       <c r="C98" t="n">
-        <v>85950</v>
+        <v>86800</v>
       </c>
       <c r="D98" t="n">
-        <v>85950</v>
+        <v>86800</v>
       </c>
       <c r="E98" t="n">
-        <v>85950</v>
+        <v>86350</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6104000000000001</v>
+        <v>44.02</v>
       </c>
       <c r="G98" t="n">
-        <v>86920</v>
+        <v>60.16491850999996</v>
       </c>
       <c r="H98" t="n">
-        <v>86275.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,36 +4158,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>85550</v>
+        <v>86700</v>
       </c>
       <c r="C99" t="n">
-        <v>85800</v>
+        <v>87000</v>
       </c>
       <c r="D99" t="n">
-        <v>85800</v>
+        <v>87000</v>
       </c>
       <c r="E99" t="n">
-        <v>85450</v>
+        <v>86700</v>
       </c>
       <c r="F99" t="n">
-        <v>50.1788</v>
+        <v>10.6416</v>
       </c>
       <c r="G99" t="n">
-        <v>86803.33333333333</v>
+        <v>70.80651850999996</v>
       </c>
       <c r="H99" t="n">
-        <v>86292.5</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,36 +4197,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>85650</v>
+        <v>87000</v>
       </c>
       <c r="C100" t="n">
-        <v>85650</v>
+        <v>87300</v>
       </c>
       <c r="D100" t="n">
-        <v>85650</v>
+        <v>87300</v>
       </c>
       <c r="E100" t="n">
-        <v>85650</v>
+        <v>87000</v>
       </c>
       <c r="F100" t="n">
-        <v>15.0475</v>
+        <v>35.8276</v>
       </c>
       <c r="G100" t="n">
-        <v>86686.66666666667</v>
+        <v>106.63411851</v>
       </c>
       <c r="H100" t="n">
-        <v>86303.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,36 +4236,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>85750</v>
+        <v>87300</v>
       </c>
       <c r="C101" t="n">
-        <v>85800</v>
+        <v>87300</v>
       </c>
       <c r="D101" t="n">
-        <v>85800</v>
+        <v>87300</v>
       </c>
       <c r="E101" t="n">
-        <v>85750</v>
+        <v>87300</v>
       </c>
       <c r="F101" t="n">
-        <v>15.5115</v>
+        <v>22.0417</v>
       </c>
       <c r="G101" t="n">
-        <v>86566.66666666667</v>
+        <v>106.63411851</v>
       </c>
       <c r="H101" t="n">
-        <v>86321.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,36 +4275,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>85700</v>
+        <v>87500</v>
       </c>
       <c r="C102" t="n">
-        <v>85350</v>
+        <v>87700</v>
       </c>
       <c r="D102" t="n">
-        <v>85700</v>
+        <v>87700</v>
       </c>
       <c r="E102" t="n">
-        <v>85350</v>
+        <v>87500</v>
       </c>
       <c r="F102" t="n">
-        <v>3.641</v>
+        <v>12.5022</v>
       </c>
       <c r="G102" t="n">
-        <v>86426.66666666667</v>
+        <v>119.13631851</v>
       </c>
       <c r="H102" t="n">
-        <v>86327.5</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,36 +4314,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>85300</v>
+        <v>87750</v>
       </c>
       <c r="C103" t="n">
-        <v>85300</v>
+        <v>87750</v>
       </c>
       <c r="D103" t="n">
-        <v>85600</v>
+        <v>87750</v>
       </c>
       <c r="E103" t="n">
-        <v>85300</v>
+        <v>87750</v>
       </c>
       <c r="F103" t="n">
-        <v>2.515</v>
+        <v>0.5236</v>
       </c>
       <c r="G103" t="n">
-        <v>86283.33333333333</v>
+        <v>119.65991851</v>
       </c>
       <c r="H103" t="n">
-        <v>86329.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,36 +4353,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>85050</v>
+        <v>87700</v>
       </c>
       <c r="C104" t="n">
-        <v>85000</v>
+        <v>87700</v>
       </c>
       <c r="D104" t="n">
-        <v>85050</v>
+        <v>87700</v>
       </c>
       <c r="E104" t="n">
-        <v>85000</v>
+        <v>87700</v>
       </c>
       <c r="F104" t="n">
-        <v>45.1426</v>
+        <v>17.5711</v>
       </c>
       <c r="G104" t="n">
-        <v>86120</v>
+        <v>102.08881851</v>
       </c>
       <c r="H104" t="n">
-        <v>86325.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,36 +4392,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>85050</v>
+        <v>87900</v>
       </c>
       <c r="C105" t="n">
-        <v>85300</v>
+        <v>88050</v>
       </c>
       <c r="D105" t="n">
-        <v>85300</v>
+        <v>88050</v>
       </c>
       <c r="E105" t="n">
-        <v>85000</v>
+        <v>87900</v>
       </c>
       <c r="F105" t="n">
-        <v>9.209199999999999</v>
+        <v>28.3839</v>
       </c>
       <c r="G105" t="n">
-        <v>85980</v>
+        <v>130.47271851</v>
       </c>
       <c r="H105" t="n">
-        <v>86327.5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,74 +4431,70 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>85400</v>
+        <v>88050</v>
       </c>
       <c r="C106" t="n">
-        <v>85400</v>
+        <v>88100</v>
       </c>
       <c r="D106" t="n">
-        <v>85400</v>
+        <v>88100</v>
       </c>
       <c r="E106" t="n">
-        <v>85400</v>
+        <v>88050</v>
       </c>
       <c r="F106" t="n">
-        <v>2.7885</v>
+        <v>28.622</v>
       </c>
       <c r="G106" t="n">
-        <v>85880</v>
+        <v>159.09471851</v>
       </c>
       <c r="H106" t="n">
-        <v>86335</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>85500</v>
+        <v>88100</v>
       </c>
       <c r="C107" t="n">
-        <v>85500</v>
+        <v>88100</v>
       </c>
       <c r="D107" t="n">
-        <v>85500</v>
+        <v>88100</v>
       </c>
       <c r="E107" t="n">
-        <v>85500</v>
+        <v>88100</v>
       </c>
       <c r="F107" t="n">
-        <v>1.7</v>
+        <v>22.2725</v>
       </c>
       <c r="G107" t="n">
-        <v>85796.66666666667</v>
+        <v>159.09471851</v>
       </c>
       <c r="H107" t="n">
-        <v>86341.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,36 +4503,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>85500</v>
+        <v>87850</v>
       </c>
       <c r="C108" t="n">
-        <v>85350</v>
+        <v>87750</v>
       </c>
       <c r="D108" t="n">
-        <v>85500</v>
+        <v>87850</v>
       </c>
       <c r="E108" t="n">
-        <v>85350</v>
+        <v>87550</v>
       </c>
       <c r="F108" t="n">
-        <v>3.0663</v>
+        <v>11.0046</v>
       </c>
       <c r="G108" t="n">
-        <v>85700</v>
+        <v>148.0901185099999</v>
       </c>
       <c r="H108" t="n">
-        <v>86346.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,36 +4538,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>85350</v>
+        <v>87750</v>
       </c>
       <c r="C109" t="n">
-        <v>85350</v>
+        <v>87750</v>
       </c>
       <c r="D109" t="n">
-        <v>85350</v>
+        <v>87750</v>
       </c>
       <c r="E109" t="n">
-        <v>85350</v>
+        <v>87750</v>
       </c>
       <c r="F109" t="n">
-        <v>11.5353</v>
+        <v>1.4286</v>
       </c>
       <c r="G109" t="n">
-        <v>85620</v>
+        <v>148.0901185099999</v>
       </c>
       <c r="H109" t="n">
-        <v>86352.5</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,36 +4573,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>85400</v>
+        <v>87800</v>
       </c>
       <c r="C110" t="n">
-        <v>85450</v>
+        <v>87800</v>
       </c>
       <c r="D110" t="n">
-        <v>85450</v>
+        <v>87800</v>
       </c>
       <c r="E110" t="n">
-        <v>85400</v>
+        <v>87800</v>
       </c>
       <c r="F110" t="n">
-        <v>21</v>
+        <v>2.2719</v>
       </c>
       <c r="G110" t="n">
-        <v>85573.33333333333</v>
+        <v>150.3620185099999</v>
       </c>
       <c r="H110" t="n">
-        <v>86360</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,36 +4608,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>85700</v>
+        <v>87850</v>
       </c>
       <c r="C111" t="n">
-        <v>85900</v>
+        <v>87850</v>
       </c>
       <c r="D111" t="n">
-        <v>85900</v>
+        <v>87850</v>
       </c>
       <c r="E111" t="n">
-        <v>85700</v>
+        <v>87850</v>
       </c>
       <c r="F111" t="n">
-        <v>0.455</v>
+        <v>1.694</v>
       </c>
       <c r="G111" t="n">
-        <v>85556.66666666667</v>
+        <v>152.0560185099999</v>
       </c>
       <c r="H111" t="n">
-        <v>86375</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,36 +4643,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85950</v>
+        <v>87950</v>
       </c>
       <c r="C112" t="n">
-        <v>85950</v>
+        <v>87750</v>
       </c>
       <c r="D112" t="n">
-        <v>85950</v>
+        <v>87950</v>
       </c>
       <c r="E112" t="n">
-        <v>85950</v>
+        <v>87750</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8339</v>
+        <v>0.04</v>
       </c>
       <c r="G112" t="n">
-        <v>85536.66666666667</v>
+        <v>152.0160185099999</v>
       </c>
       <c r="H112" t="n">
-        <v>86390.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,36 +4678,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85950</v>
+        <v>87750</v>
       </c>
       <c r="C113" t="n">
-        <v>86000</v>
+        <v>87550</v>
       </c>
       <c r="D113" t="n">
-        <v>86000</v>
+        <v>87750</v>
       </c>
       <c r="E113" t="n">
-        <v>85950</v>
+        <v>87550</v>
       </c>
       <c r="F113" t="n">
-        <v>25.4209</v>
+        <v>28.3278</v>
       </c>
       <c r="G113" t="n">
-        <v>85540</v>
+        <v>123.6882185099999</v>
       </c>
       <c r="H113" t="n">
-        <v>86407.5</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,36 +4713,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>86000</v>
+        <v>87600</v>
       </c>
       <c r="C114" t="n">
-        <v>86000</v>
+        <v>87400</v>
       </c>
       <c r="D114" t="n">
-        <v>86000</v>
+        <v>87600</v>
       </c>
       <c r="E114" t="n">
-        <v>86000</v>
+        <v>87400</v>
       </c>
       <c r="F114" t="n">
-        <v>2.2698</v>
+        <v>9.299899999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>85553.33333333333</v>
+        <v>114.3883185099999</v>
       </c>
       <c r="H114" t="n">
-        <v>86424.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,36 +4748,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>86150</v>
+        <v>87600</v>
       </c>
       <c r="C115" t="n">
-        <v>86150</v>
+        <v>87600</v>
       </c>
       <c r="D115" t="n">
-        <v>86150</v>
+        <v>87600</v>
       </c>
       <c r="E115" t="n">
-        <v>86150</v>
+        <v>87600</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5669</v>
+        <v>0.0239726</v>
       </c>
       <c r="G115" t="n">
-        <v>85586.66666666667</v>
+        <v>114.4122911099999</v>
       </c>
       <c r="H115" t="n">
-        <v>86444.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,36 +4783,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>86100</v>
+        <v>87450</v>
       </c>
       <c r="C116" t="n">
-        <v>86100</v>
+        <v>87450</v>
       </c>
       <c r="D116" t="n">
-        <v>86100</v>
+        <v>87450</v>
       </c>
       <c r="E116" t="n">
-        <v>86100</v>
+        <v>87450</v>
       </c>
       <c r="F116" t="n">
-        <v>20.8057</v>
+        <v>4.34</v>
       </c>
       <c r="G116" t="n">
-        <v>85606.66666666667</v>
+        <v>110.0722911099999</v>
       </c>
       <c r="H116" t="n">
-        <v>86463.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,36 +4818,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>86150</v>
+        <v>87450</v>
       </c>
       <c r="C117" t="n">
-        <v>86400</v>
+        <v>87450</v>
       </c>
       <c r="D117" t="n">
-        <v>86400</v>
+        <v>87450</v>
       </c>
       <c r="E117" t="n">
-        <v>86150</v>
+        <v>87450</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3654</v>
+        <v>10.1555</v>
       </c>
       <c r="G117" t="n">
-        <v>85676.66666666667</v>
+        <v>110.0722911099999</v>
       </c>
       <c r="H117" t="n">
-        <v>86486.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,36 +4853,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>86000</v>
+        <v>87450</v>
       </c>
       <c r="C118" t="n">
-        <v>86150</v>
+        <v>87450</v>
       </c>
       <c r="D118" t="n">
-        <v>86150</v>
+        <v>87450</v>
       </c>
       <c r="E118" t="n">
-        <v>86000</v>
+        <v>87450</v>
       </c>
       <c r="F118" t="n">
-        <v>24.5001</v>
+        <v>1.5676</v>
       </c>
       <c r="G118" t="n">
-        <v>85733.33333333333</v>
+        <v>110.0722911099999</v>
       </c>
       <c r="H118" t="n">
-        <v>86505.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,36 +4888,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>86050</v>
+        <v>87400</v>
       </c>
       <c r="C119" t="n">
-        <v>86050</v>
+        <v>87400</v>
       </c>
       <c r="D119" t="n">
-        <v>86050</v>
+        <v>87400</v>
       </c>
       <c r="E119" t="n">
-        <v>86050</v>
+        <v>87400</v>
       </c>
       <c r="F119" t="n">
-        <v>1.1757</v>
+        <v>6.2234</v>
       </c>
       <c r="G119" t="n">
-        <v>85803.33333333333</v>
+        <v>103.8488911099999</v>
       </c>
       <c r="H119" t="n">
-        <v>86523.33333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,36 +4923,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>86150</v>
+        <v>86900</v>
       </c>
       <c r="C120" t="n">
-        <v>86300</v>
+        <v>86900</v>
       </c>
       <c r="D120" t="n">
-        <v>86300</v>
+        <v>86900</v>
       </c>
       <c r="E120" t="n">
-        <v>86150</v>
+        <v>86900</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8682</v>
+        <v>9.3634</v>
       </c>
       <c r="G120" t="n">
-        <v>85870</v>
+        <v>94.48549110999993</v>
       </c>
       <c r="H120" t="n">
-        <v>86535</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5020,36 +4958,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>86700</v>
+        <v>86750</v>
       </c>
       <c r="C121" t="n">
-        <v>86700</v>
+        <v>86750</v>
       </c>
       <c r="D121" t="n">
-        <v>86700</v>
+        <v>86750</v>
       </c>
       <c r="E121" t="n">
-        <v>86700</v>
+        <v>86750</v>
       </c>
       <c r="F121" t="n">
-        <v>0.11534025</v>
+        <v>4.34</v>
       </c>
       <c r="G121" t="n">
-        <v>85956.66666666667</v>
+        <v>90.14549110999992</v>
       </c>
       <c r="H121" t="n">
-        <v>86550.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,36 +4993,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="C122" t="n">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="D122" t="n">
-        <v>87000</v>
+        <v>86800</v>
       </c>
       <c r="E122" t="n">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="F122" t="n">
-        <v>36.6254</v>
+        <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>86056.66666666667</v>
+        <v>94.14549110999992</v>
       </c>
       <c r="H122" t="n">
-        <v>86570.83333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,36 +5028,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>87000</v>
+        <v>86550</v>
       </c>
       <c r="C123" t="n">
-        <v>87000</v>
+        <v>86550</v>
       </c>
       <c r="D123" t="n">
-        <v>87000</v>
+        <v>86550</v>
       </c>
       <c r="E123" t="n">
-        <v>87000</v>
+        <v>86550</v>
       </c>
       <c r="F123" t="n">
-        <v>0.05</v>
+        <v>1.1546967</v>
       </c>
       <c r="G123" t="n">
-        <v>86166.66666666667</v>
+        <v>92.99079440999992</v>
       </c>
       <c r="H123" t="n">
-        <v>86589.16666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,36 +5063,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>86750</v>
+        <v>86250</v>
       </c>
       <c r="C124" t="n">
-        <v>86850</v>
+        <v>86150</v>
       </c>
       <c r="D124" t="n">
-        <v>86850</v>
+        <v>86250</v>
       </c>
       <c r="E124" t="n">
-        <v>86750</v>
+        <v>86150</v>
       </c>
       <c r="F124" t="n">
-        <v>23.28195958</v>
+        <v>0.24</v>
       </c>
       <c r="G124" t="n">
-        <v>86266.66666666667</v>
+        <v>92.75079440999993</v>
       </c>
       <c r="H124" t="n">
-        <v>86606.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,36 +5098,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="C125" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="D125" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="E125" t="n">
-        <v>86100</v>
+        <v>86150</v>
       </c>
       <c r="F125" t="n">
-        <v>0.669</v>
+        <v>0.5543</v>
       </c>
       <c r="G125" t="n">
-        <v>86310</v>
+        <v>92.75079440999993</v>
       </c>
       <c r="H125" t="n">
-        <v>86611.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,36 +5133,1048 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>85800</v>
+        <v>86250</v>
       </c>
       <c r="C126" t="n">
-        <v>85800</v>
+        <v>86250</v>
       </c>
       <c r="D126" t="n">
-        <v>85800</v>
+        <v>86250</v>
       </c>
       <c r="E126" t="n">
-        <v>85800</v>
+        <v>86250</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G126" t="n">
-        <v>86303.33333333333</v>
+        <v>92.85079440999992</v>
       </c>
       <c r="H126" t="n">
-        <v>86611.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C127" t="n">
+        <v>85950</v>
+      </c>
+      <c r="D127" t="n">
+        <v>85950</v>
+      </c>
+      <c r="E127" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>92.24039440999992</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>85550</v>
+      </c>
+      <c r="C128" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D128" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E128" t="n">
+        <v>85450</v>
+      </c>
+      <c r="F128" t="n">
+        <v>50.1788</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42.06159440999992</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>85650</v>
+      </c>
+      <c r="C129" t="n">
+        <v>85650</v>
+      </c>
+      <c r="D129" t="n">
+        <v>85650</v>
+      </c>
+      <c r="E129" t="n">
+        <v>85650</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15.0475</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27.01409440999992</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>85750</v>
+      </c>
+      <c r="C130" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D130" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E130" t="n">
+        <v>85750</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15.5115</v>
+      </c>
+      <c r="G130" t="n">
+        <v>42.52559440999992</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D131" t="n">
+        <v>85700</v>
+      </c>
+      <c r="E131" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="G131" t="n">
+        <v>38.88459440999992</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>85300</v>
+      </c>
+      <c r="C132" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D132" t="n">
+        <v>85600</v>
+      </c>
+      <c r="E132" t="n">
+        <v>85300</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="G132" t="n">
+        <v>36.36959440999992</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>85050</v>
+      </c>
+      <c r="C133" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>85050</v>
+      </c>
+      <c r="E133" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>45.1426</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-8.773005590000082</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>85050</v>
+      </c>
+      <c r="C134" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D134" t="n">
+        <v>85300</v>
+      </c>
+      <c r="E134" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.209199999999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4361944099999171</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C135" t="n">
+        <v>85400</v>
+      </c>
+      <c r="D135" t="n">
+        <v>85400</v>
+      </c>
+      <c r="E135" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.7885</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3.224694409999917</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C136" t="n">
+        <v>85500</v>
+      </c>
+      <c r="D136" t="n">
+        <v>85500</v>
+      </c>
+      <c r="E136" t="n">
+        <v>85500</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.924694409999917</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C137" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D137" t="n">
+        <v>85500</v>
+      </c>
+      <c r="E137" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.0663</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.858394409999917</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>85350</v>
+      </c>
+      <c r="C138" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85350</v>
+      </c>
+      <c r="E138" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11.5353</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.858394409999917</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C139" t="n">
+        <v>85450</v>
+      </c>
+      <c r="D139" t="n">
+        <v>85450</v>
+      </c>
+      <c r="E139" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21</v>
+      </c>
+      <c r="G139" t="n">
+        <v>22.85839440999992</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C140" t="n">
+        <v>85900</v>
+      </c>
+      <c r="D140" t="n">
+        <v>85900</v>
+      </c>
+      <c r="E140" t="n">
+        <v>85700</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G140" t="n">
+        <v>23.31339440999992</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C141" t="n">
+        <v>85950</v>
+      </c>
+      <c r="D141" t="n">
+        <v>85950</v>
+      </c>
+      <c r="E141" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8339</v>
+      </c>
+      <c r="G141" t="n">
+        <v>24.14729440999992</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C142" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25.4209</v>
+      </c>
+      <c r="G142" t="n">
+        <v>49.56819440999992</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E143" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.2698</v>
+      </c>
+      <c r="G143" t="n">
+        <v>49.56819440999992</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C144" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D144" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E144" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="G144" t="n">
+        <v>50.13509440999992</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C145" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D145" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20.8057</v>
+      </c>
+      <c r="G145" t="n">
+        <v>29.32939440999991</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C146" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D146" t="n">
+        <v>86400</v>
+      </c>
+      <c r="E146" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.3654</v>
+      </c>
+      <c r="G146" t="n">
+        <v>31.69479440999991</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D147" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E147" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>24.5001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7.194694409999915</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>86050</v>
+      </c>
+      <c r="C148" t="n">
+        <v>86050</v>
+      </c>
+      <c r="D148" t="n">
+        <v>86050</v>
+      </c>
+      <c r="E148" t="n">
+        <v>86050</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.1757</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6.018994409999915</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86300</v>
+      </c>
+      <c r="D149" t="n">
+        <v>86300</v>
+      </c>
+      <c r="E149" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.8682</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.887194409999915</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C150" t="n">
+        <v>86700</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86700</v>
+      </c>
+      <c r="E150" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.11534025</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7.002534659999915</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C151" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36.6254</v>
+      </c>
+      <c r="G151" t="n">
+        <v>43.62793465999992</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>87000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G152" t="n">
+        <v>43.62793465999992</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>86750</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86850</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86850</v>
+      </c>
+      <c r="E153" t="n">
+        <v>86750</v>
+      </c>
+      <c r="F153" t="n">
+        <v>23.28195958</v>
+      </c>
+      <c r="G153" t="n">
+        <v>20.34597507999992</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G154" t="n">
+        <v>19.67697507999992</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>85800</v>
+      </c>
+      <c r="C155" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D155" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E155" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G155" t="n">
+        <v>18.87697507999992</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>84900</v>
+        <v>83750</v>
       </c>
       <c r="C2" t="n">
-        <v>84900</v>
+        <v>83750</v>
       </c>
       <c r="D2" t="n">
-        <v>84900</v>
+        <v>83750</v>
       </c>
       <c r="E2" t="n">
-        <v>84900</v>
+        <v>83750</v>
       </c>
       <c r="F2" t="n">
-        <v>12.5471</v>
+        <v>0.11940298</v>
       </c>
       <c r="G2" t="n">
-        <v>-24.60529679000004</v>
+        <v>83850</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="C3" t="n">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="D3" t="n">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="E3" t="n">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1421</v>
+        <v>0.0569</v>
       </c>
       <c r="G3" t="n">
-        <v>-24.46319679000004</v>
+        <v>83750</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>84650</v>
+        <v>83300</v>
       </c>
       <c r="C4" t="n">
-        <v>84650</v>
+        <v>83200</v>
       </c>
       <c r="D4" t="n">
-        <v>84650</v>
+        <v>83300</v>
       </c>
       <c r="E4" t="n">
-        <v>84650</v>
+        <v>83200</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5477</v>
+        <v>0.5154</v>
       </c>
       <c r="G4" t="n">
-        <v>-25.01089679000004</v>
+        <v>83516.66666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85000</v>
+        <v>82900</v>
       </c>
       <c r="C5" t="n">
-        <v>85000</v>
+        <v>82900</v>
       </c>
       <c r="D5" t="n">
-        <v>85000</v>
+        <v>82900</v>
       </c>
       <c r="E5" t="n">
-        <v>85000</v>
+        <v>82900</v>
       </c>
       <c r="F5" t="n">
-        <v>0.51</v>
+        <v>1.7793</v>
       </c>
       <c r="G5" t="n">
-        <v>-24.50089679000004</v>
+        <v>83233.33333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,448 +575,533 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85200</v>
+        <v>82700</v>
       </c>
       <c r="C6" t="n">
-        <v>85200</v>
+        <v>82750</v>
       </c>
       <c r="D6" t="n">
-        <v>85200</v>
+        <v>82750</v>
       </c>
       <c r="E6" t="n">
-        <v>85200</v>
+        <v>82700</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3366</v>
+        <v>4.8099</v>
       </c>
       <c r="G6" t="n">
-        <v>-24.16429679000004</v>
+        <v>82950</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>82900</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84250</v>
+        <v>82900</v>
       </c>
       <c r="C7" t="n">
-        <v>83850</v>
+        <v>82850</v>
       </c>
       <c r="D7" t="n">
-        <v>84250</v>
+        <v>82900</v>
       </c>
       <c r="E7" t="n">
-        <v>83850</v>
+        <v>82850</v>
       </c>
       <c r="F7" t="n">
-        <v>21.7982</v>
+        <v>8.5708</v>
       </c>
       <c r="G7" t="n">
-        <v>-45.96249679000004</v>
+        <v>82833.33333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>82750</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="C8" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="D8" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="E8" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.6795</v>
       </c>
       <c r="G8" t="n">
-        <v>-45.86249679000004</v>
+        <v>82766.66666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>82850</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="C9" t="n">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="D9" t="n">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="E9" t="n">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="F9" t="n">
-        <v>20.6</v>
+        <v>1.547</v>
       </c>
       <c r="G9" t="n">
-        <v>-66.46249679000005</v>
+        <v>82750</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>82700</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="C10" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="D10" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="E10" t="n">
-        <v>84150</v>
+        <v>82700</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5.1912</v>
       </c>
       <c r="G10" t="n">
-        <v>-64.46249679000005</v>
+        <v>82700</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>82700</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84250</v>
+        <v>82600</v>
       </c>
       <c r="C11" t="n">
-        <v>84250</v>
+        <v>82600</v>
       </c>
       <c r="D11" t="n">
-        <v>84250</v>
+        <v>82600</v>
       </c>
       <c r="E11" t="n">
-        <v>84250</v>
+        <v>82600</v>
       </c>
       <c r="F11" t="n">
-        <v>6.7637</v>
+        <v>0.4619</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.69879679000005</v>
+        <v>82666.66666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>82700</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84250</v>
+        <v>82950</v>
       </c>
       <c r="C12" t="n">
-        <v>84250</v>
+        <v>82950</v>
       </c>
       <c r="D12" t="n">
-        <v>84250</v>
+        <v>82950</v>
       </c>
       <c r="E12" t="n">
-        <v>84250</v>
+        <v>82950</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7307</v>
+        <v>0.1405</v>
       </c>
       <c r="G12" t="n">
-        <v>-57.69879679000005</v>
+        <v>82750</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>82600</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84050</v>
+        <v>83350</v>
       </c>
       <c r="C13" t="n">
-        <v>84050</v>
+        <v>83350</v>
       </c>
       <c r="D13" t="n">
-        <v>84050</v>
+        <v>83350</v>
       </c>
       <c r="E13" t="n">
-        <v>84050</v>
+        <v>83350</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>0.0107</v>
       </c>
       <c r="G13" t="n">
-        <v>-63.69879679000005</v>
+        <v>82966.66666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>82950</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84000</v>
+        <v>83550</v>
       </c>
       <c r="C14" t="n">
-        <v>84000</v>
+        <v>83750</v>
       </c>
       <c r="D14" t="n">
-        <v>84000</v>
+        <v>83750</v>
       </c>
       <c r="E14" t="n">
-        <v>84000</v>
+        <v>83550</v>
       </c>
       <c r="F14" t="n">
-        <v>5.9646</v>
+        <v>3.58257946</v>
       </c>
       <c r="G14" t="n">
-        <v>-69.66339679000005</v>
+        <v>83350</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>83350</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84200</v>
+        <v>83800</v>
       </c>
       <c r="C15" t="n">
-        <v>84200</v>
+        <v>83800</v>
       </c>
       <c r="D15" t="n">
-        <v>84200</v>
+        <v>83800</v>
       </c>
       <c r="E15" t="n">
-        <v>84200</v>
+        <v>83800</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02</v>
+        <v>18.0179</v>
       </c>
       <c r="G15" t="n">
-        <v>-69.64339679000005</v>
+        <v>83633.33333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>83750</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84000</v>
+        <v>83800</v>
       </c>
       <c r="C16" t="n">
-        <v>84350</v>
+        <v>83800</v>
       </c>
       <c r="D16" t="n">
-        <v>84350</v>
+        <v>83800</v>
       </c>
       <c r="E16" t="n">
-        <v>84000</v>
+        <v>83800</v>
       </c>
       <c r="F16" t="n">
-        <v>7.9836</v>
+        <v>0.6575</v>
       </c>
       <c r="G16" t="n">
-        <v>-61.65979679000005</v>
+        <v>83783.33333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>83800</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>84100</v>
+        <v>83800</v>
       </c>
       <c r="C17" t="n">
-        <v>84100</v>
+        <v>83800</v>
       </c>
       <c r="D17" t="n">
-        <v>84100</v>
+        <v>83800</v>
       </c>
       <c r="E17" t="n">
-        <v>84100</v>
+        <v>83800</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6021</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-62.26189679000005</v>
+        <v>83800</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>83800</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83750</v>
+        <v>83850</v>
       </c>
       <c r="C18" t="n">
-        <v>83750</v>
+        <v>83850</v>
       </c>
       <c r="D18" t="n">
-        <v>83750</v>
+        <v>83850</v>
       </c>
       <c r="E18" t="n">
-        <v>83750</v>
+        <v>83850</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1328</v>
+        <v>0.4658</v>
       </c>
       <c r="G18" t="n">
-        <v>-62.39469679000005</v>
+        <v>83816.66666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,67 +1111,79 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83500</v>
+        <v>83950</v>
       </c>
       <c r="C19" t="n">
-        <v>83500</v>
+        <v>83950</v>
       </c>
       <c r="D19" t="n">
-        <v>83500</v>
+        <v>83950</v>
       </c>
       <c r="E19" t="n">
-        <v>83500</v>
+        <v>83950</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7302</v>
+        <v>1.0053</v>
       </c>
       <c r="G19" t="n">
-        <v>-63.12489679000005</v>
+        <v>83866.66666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>83850</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83300</v>
+        <v>83950</v>
       </c>
       <c r="C20" t="n">
-        <v>83250</v>
+        <v>83950</v>
       </c>
       <c r="D20" t="n">
-        <v>83300</v>
+        <v>83950</v>
       </c>
       <c r="E20" t="n">
-        <v>83250</v>
+        <v>83950</v>
       </c>
       <c r="F20" t="n">
-        <v>2.6735</v>
+        <v>0.193</v>
       </c>
       <c r="G20" t="n">
-        <v>-65.79839679000006</v>
+        <v>83916.66666666667</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1087,39 +1192,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>83500</v>
+        <v>83950</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="C21" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="D21" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="E21" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="F21" t="n">
-        <v>15.2742</v>
+        <v>7.9059</v>
       </c>
       <c r="G21" t="n">
-        <v>-65.79839679000006</v>
+        <v>83933.33333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1137,28 +1243,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="C22" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="D22" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="E22" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="F22" t="n">
-        <v>27.8011</v>
+        <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>-65.79839679000006</v>
+        <v>83916.66666666667</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1167,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
@@ -1178,38 +1285,37 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="C23" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="D23" t="n">
-        <v>83250</v>
+        <v>83900</v>
       </c>
       <c r="E23" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="F23" t="n">
-        <v>0.395</v>
+        <v>15.4439</v>
       </c>
       <c r="G23" t="n">
-        <v>-65.79839679000006</v>
+        <v>83883.33333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>83250</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1219,38 +1325,37 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="C24" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="D24" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="E24" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>9.7774</v>
       </c>
       <c r="G24" t="n">
-        <v>-65.79839679000006</v>
+        <v>83866.66666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>83250</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1260,28 +1365,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83250</v>
+        <v>84000</v>
       </c>
       <c r="C25" t="n">
-        <v>83250</v>
+        <v>84350</v>
       </c>
       <c r="D25" t="n">
-        <v>83250</v>
+        <v>84350</v>
       </c>
       <c r="E25" t="n">
-        <v>83250</v>
+        <v>84000</v>
       </c>
       <c r="F25" t="n">
-        <v>2.3265</v>
+        <v>2.37190278</v>
       </c>
       <c r="G25" t="n">
-        <v>-65.79839679000006</v>
+        <v>84016.66666666667</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1290,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>83250</v>
+        <v>83850</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
@@ -1301,38 +1407,37 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83250</v>
+        <v>84800</v>
       </c>
       <c r="C26" t="n">
-        <v>83250</v>
+        <v>84800</v>
       </c>
       <c r="D26" t="n">
-        <v>83350</v>
+        <v>84800</v>
       </c>
       <c r="E26" t="n">
-        <v>83250</v>
+        <v>84800</v>
       </c>
       <c r="F26" t="n">
-        <v>28.6821</v>
+        <v>0.216</v>
       </c>
       <c r="G26" t="n">
-        <v>-65.79839679000006</v>
+        <v>84333.33333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>83250</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1342,38 +1447,37 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="C27" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="D27" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="E27" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5056</v>
+        <v>14.285</v>
       </c>
       <c r="G27" t="n">
-        <v>-64.29279679000005</v>
+        <v>84716.66666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>83250</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1383,28 +1487,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83700</v>
+        <v>85050</v>
       </c>
       <c r="C28" t="n">
-        <v>83750</v>
+        <v>84700</v>
       </c>
       <c r="D28" t="n">
-        <v>83750</v>
+        <v>85050</v>
       </c>
       <c r="E28" t="n">
-        <v>83700</v>
+        <v>84700</v>
       </c>
       <c r="F28" t="n">
-        <v>34.414</v>
+        <v>8.9139</v>
       </c>
       <c r="G28" t="n">
-        <v>-64.29279679000005</v>
+        <v>84833.33333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1422,28 +1527,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="C29" t="n">
-        <v>83700</v>
+        <v>85000</v>
       </c>
       <c r="D29" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="E29" t="n">
-        <v>83700</v>
+        <v>85000</v>
       </c>
       <c r="F29" t="n">
-        <v>19.9117</v>
+        <v>0.02</v>
       </c>
       <c r="G29" t="n">
-        <v>-84.20449679000005</v>
+        <v>84900</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1461,28 +1567,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83700</v>
+        <v>85300</v>
       </c>
       <c r="C30" t="n">
-        <v>83700</v>
+        <v>85200</v>
       </c>
       <c r="D30" t="n">
-        <v>83700</v>
+        <v>85300</v>
       </c>
       <c r="E30" t="n">
-        <v>83700</v>
+        <v>84900</v>
       </c>
       <c r="F30" t="n">
-        <v>17.061</v>
+        <v>11.3137</v>
       </c>
       <c r="G30" t="n">
-        <v>-84.20449679000005</v>
+        <v>84966.66666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,28 +1607,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83700</v>
+        <v>85150</v>
       </c>
       <c r="C31" t="n">
-        <v>83700</v>
+        <v>85200</v>
       </c>
       <c r="D31" t="n">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="E31" t="n">
-        <v>83700</v>
+        <v>85150</v>
       </c>
       <c r="F31" t="n">
-        <v>11.14566396</v>
+        <v>1.7322</v>
       </c>
       <c r="G31" t="n">
-        <v>-84.20449679000005</v>
+        <v>85133.33333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1539,28 +1647,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83700</v>
+        <v>85200</v>
       </c>
       <c r="C32" t="n">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="D32" t="n">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="E32" t="n">
-        <v>83700</v>
+        <v>85200</v>
       </c>
       <c r="F32" t="n">
-        <v>20.10333604</v>
+        <v>3.5378</v>
       </c>
       <c r="G32" t="n">
-        <v>-64.10116075000005</v>
+        <v>85200</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1578,28 +1687,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83700</v>
+        <v>84950</v>
       </c>
       <c r="C33" t="n">
-        <v>83700</v>
+        <v>84950</v>
       </c>
       <c r="D33" t="n">
-        <v>83700</v>
+        <v>84950</v>
       </c>
       <c r="E33" t="n">
-        <v>83700</v>
+        <v>84950</v>
       </c>
       <c r="F33" t="n">
-        <v>2.7156</v>
+        <v>2.6372</v>
       </c>
       <c r="G33" t="n">
-        <v>-66.81676075000004</v>
+        <v>85116.66666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1617,28 +1727,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83850</v>
+        <v>85100</v>
       </c>
       <c r="C34" t="n">
-        <v>83950</v>
+        <v>85100</v>
       </c>
       <c r="D34" t="n">
-        <v>83950</v>
+        <v>85100</v>
       </c>
       <c r="E34" t="n">
-        <v>83850</v>
+        <v>85100</v>
       </c>
       <c r="F34" t="n">
-        <v>13.1864</v>
+        <v>1.566</v>
       </c>
       <c r="G34" t="n">
-        <v>-53.63036075000004</v>
+        <v>85083.33333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1656,28 +1767,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83950</v>
+        <v>85050</v>
       </c>
       <c r="C35" t="n">
-        <v>83950</v>
+        <v>85050</v>
       </c>
       <c r="D35" t="n">
-        <v>83950</v>
+        <v>85050</v>
       </c>
       <c r="E35" t="n">
-        <v>83950</v>
+        <v>85050</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8189</v>
+        <v>0.1297</v>
       </c>
       <c r="G35" t="n">
-        <v>-53.63036075000004</v>
+        <v>85033.33333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1695,28 +1807,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84300</v>
+        <v>84950</v>
       </c>
       <c r="C36" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="D36" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="E36" t="n">
-        <v>84300</v>
+        <v>84950</v>
       </c>
       <c r="F36" t="n">
-        <v>69.1673</v>
+        <v>20.6859</v>
       </c>
       <c r="G36" t="n">
-        <v>15.53693924999995</v>
+        <v>85050</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1734,28 +1847,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="C37" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="D37" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="E37" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0053</v>
+        <v>3.2021</v>
       </c>
       <c r="G37" t="n">
-        <v>15.53693924999995</v>
+        <v>85016.66666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1773,28 +1887,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="C38" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="D38" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="E38" t="n">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="F38" t="n">
-        <v>0.383</v>
+        <v>59.6359</v>
       </c>
       <c r="G38" t="n">
-        <v>15.53693924999995</v>
+        <v>85000</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1812,28 +1927,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84000</v>
+        <v>85000</v>
       </c>
       <c r="C39" t="n">
-        <v>84000</v>
+        <v>85000</v>
       </c>
       <c r="D39" t="n">
-        <v>84000</v>
+        <v>85000</v>
       </c>
       <c r="E39" t="n">
-        <v>84000</v>
+        <v>84850</v>
       </c>
       <c r="F39" t="n">
-        <v>3.9244</v>
+        <v>33.3414</v>
       </c>
       <c r="G39" t="n">
-        <v>11.61253924999995</v>
+        <v>85000</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1851,28 +1967,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83950</v>
+        <v>84900</v>
       </c>
       <c r="C40" t="n">
-        <v>83900</v>
+        <v>85000</v>
       </c>
       <c r="D40" t="n">
-        <v>83950</v>
+        <v>85000</v>
       </c>
       <c r="E40" t="n">
-        <v>83900</v>
+        <v>84900</v>
       </c>
       <c r="F40" t="n">
-        <v>0.704</v>
+        <v>50.8041</v>
       </c>
       <c r="G40" t="n">
-        <v>10.90853924999995</v>
+        <v>85000</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1890,28 +2007,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83900</v>
+        <v>85000</v>
       </c>
       <c r="C41" t="n">
-        <v>83900</v>
+        <v>85000</v>
       </c>
       <c r="D41" t="n">
-        <v>83900</v>
+        <v>85000</v>
       </c>
       <c r="E41" t="n">
-        <v>83900</v>
+        <v>85000</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1427</v>
+        <v>18.9303</v>
       </c>
       <c r="G41" t="n">
-        <v>10.90853924999995</v>
+        <v>85000</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1929,28 +2047,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="C42" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="D42" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="E42" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1135</v>
+        <v>18.0179</v>
       </c>
       <c r="G42" t="n">
-        <v>10.90853924999995</v>
+        <v>84983.33333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1968,28 +2087,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="C43" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="D43" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="E43" t="n">
-        <v>83900</v>
+        <v>84950</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0568</v>
+        <v>39.0358</v>
       </c>
       <c r="G43" t="n">
-        <v>10.90853924999995</v>
+        <v>84966.66666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2007,28 +2127,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83750</v>
+        <v>84950</v>
       </c>
       <c r="C44" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="D44" t="n">
-        <v>83750</v>
+        <v>85000</v>
       </c>
       <c r="E44" t="n">
-        <v>83750</v>
+        <v>84950</v>
       </c>
       <c r="F44" t="n">
-        <v>0.11940298</v>
+        <v>3.2041</v>
       </c>
       <c r="G44" t="n">
-        <v>10.78913626999995</v>
+        <v>84966.66666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2046,28 +2167,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="C45" t="n">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="D45" t="n">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="E45" t="n">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0569</v>
+        <v>17.0384</v>
       </c>
       <c r="G45" t="n">
-        <v>10.73223626999995</v>
+        <v>84983.33333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2085,28 +2207,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83300</v>
+        <v>85000</v>
       </c>
       <c r="C46" t="n">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="D46" t="n">
-        <v>83300</v>
+        <v>85250</v>
       </c>
       <c r="E46" t="n">
-        <v>83200</v>
+        <v>85000</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5154</v>
+        <v>31.9121</v>
       </c>
       <c r="G46" t="n">
-        <v>10.21683626999995</v>
+        <v>85000</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2124,28 +2247,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82900</v>
+        <v>85600</v>
       </c>
       <c r="C47" t="n">
-        <v>82900</v>
+        <v>85600</v>
       </c>
       <c r="D47" t="n">
-        <v>82900</v>
+        <v>85600</v>
       </c>
       <c r="E47" t="n">
-        <v>82900</v>
+        <v>85600</v>
       </c>
       <c r="F47" t="n">
-        <v>1.7793</v>
+        <v>0.233</v>
       </c>
       <c r="G47" t="n">
-        <v>8.437536269999953</v>
+        <v>85200</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2163,28 +2287,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82700</v>
+        <v>85700</v>
       </c>
       <c r="C48" t="n">
-        <v>82750</v>
+        <v>85750</v>
       </c>
       <c r="D48" t="n">
-        <v>82750</v>
+        <v>85750</v>
       </c>
       <c r="E48" t="n">
-        <v>82700</v>
+        <v>85700</v>
       </c>
       <c r="F48" t="n">
-        <v>4.8099</v>
+        <v>2.5689</v>
       </c>
       <c r="G48" t="n">
-        <v>3.627636269999953</v>
+        <v>85450</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2202,28 +2327,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>82900</v>
+        <v>85800</v>
       </c>
       <c r="C49" t="n">
-        <v>82850</v>
+        <v>85800</v>
       </c>
       <c r="D49" t="n">
-        <v>82900</v>
+        <v>85800</v>
       </c>
       <c r="E49" t="n">
-        <v>82850</v>
+        <v>85800</v>
       </c>
       <c r="F49" t="n">
-        <v>8.5708</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>12.19843626999995</v>
+        <v>85716.66666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2241,28 +2367,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="C50" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="D50" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="E50" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6795</v>
+        <v>11.6414</v>
       </c>
       <c r="G50" t="n">
-        <v>11.51893626999995</v>
+        <v>85816.66666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2280,28 +2407,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82700</v>
+        <v>85950</v>
       </c>
       <c r="C51" t="n">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="D51" t="n">
-        <v>82700</v>
+        <v>85950</v>
       </c>
       <c r="E51" t="n">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="F51" t="n">
-        <v>1.547</v>
+        <v>7.5797</v>
       </c>
       <c r="G51" t="n">
-        <v>11.51893626999995</v>
+        <v>85833.33333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2319,28 +2447,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="C52" t="n">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="D52" t="n">
-        <v>82700</v>
+        <v>85900</v>
       </c>
       <c r="E52" t="n">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="F52" t="n">
-        <v>5.1912</v>
+        <v>6.8198</v>
       </c>
       <c r="G52" t="n">
-        <v>11.51893626999995</v>
+        <v>85833.33333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2358,28 +2487,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82600</v>
+        <v>85800</v>
       </c>
       <c r="C53" t="n">
-        <v>82600</v>
+        <v>85800</v>
       </c>
       <c r="D53" t="n">
-        <v>82600</v>
+        <v>85800</v>
       </c>
       <c r="E53" t="n">
-        <v>82600</v>
+        <v>85800</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4619</v>
+        <v>2.3283</v>
       </c>
       <c r="G53" t="n">
-        <v>11.05703626999995</v>
+        <v>85800</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2397,28 +2527,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82950</v>
+        <v>86000</v>
       </c>
       <c r="C54" t="n">
-        <v>82950</v>
+        <v>86200</v>
       </c>
       <c r="D54" t="n">
-        <v>82950</v>
+        <v>86200</v>
       </c>
       <c r="E54" t="n">
-        <v>82950</v>
+        <v>85950</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1405</v>
+        <v>14.2592</v>
       </c>
       <c r="G54" t="n">
-        <v>11.19753626999995</v>
+        <v>85933.33333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2436,28 +2567,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83350</v>
+        <v>86300</v>
       </c>
       <c r="C55" t="n">
-        <v>83350</v>
+        <v>86300</v>
       </c>
       <c r="D55" t="n">
-        <v>83350</v>
+        <v>86300</v>
       </c>
       <c r="E55" t="n">
-        <v>83350</v>
+        <v>86300</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0107</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="n">
-        <v>11.20823626999995</v>
+        <v>86100</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2475,28 +2607,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83550</v>
+        <v>86350</v>
       </c>
       <c r="C56" t="n">
-        <v>83750</v>
+        <v>86800</v>
       </c>
       <c r="D56" t="n">
-        <v>83750</v>
+        <v>86800</v>
       </c>
       <c r="E56" t="n">
-        <v>83550</v>
+        <v>86350</v>
       </c>
       <c r="F56" t="n">
-        <v>3.58257946</v>
+        <v>44.02</v>
       </c>
       <c r="G56" t="n">
-        <v>14.79081572999995</v>
+        <v>86433.33333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2514,28 +2647,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83800</v>
+        <v>86700</v>
       </c>
       <c r="C57" t="n">
-        <v>83800</v>
+        <v>87000</v>
       </c>
       <c r="D57" t="n">
-        <v>83800</v>
+        <v>87000</v>
       </c>
       <c r="E57" t="n">
-        <v>83800</v>
+        <v>86700</v>
       </c>
       <c r="F57" t="n">
-        <v>18.0179</v>
+        <v>10.6416</v>
       </c>
       <c r="G57" t="n">
-        <v>32.80871572999995</v>
+        <v>86700</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2553,28 +2687,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83800</v>
+        <v>87000</v>
       </c>
       <c r="C58" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="D58" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="E58" t="n">
-        <v>83800</v>
+        <v>87000</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6575</v>
+        <v>35.8276</v>
       </c>
       <c r="G58" t="n">
-        <v>32.80871572999995</v>
+        <v>87033.33333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2592,28 +2727,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="C59" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="D59" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="E59" t="n">
-        <v>83800</v>
+        <v>87300</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>22.0417</v>
       </c>
       <c r="G59" t="n">
-        <v>32.80871572999995</v>
+        <v>87200</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2631,28 +2767,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83850</v>
+        <v>87500</v>
       </c>
       <c r="C60" t="n">
-        <v>83850</v>
+        <v>87700</v>
       </c>
       <c r="D60" t="n">
-        <v>83850</v>
+        <v>87700</v>
       </c>
       <c r="E60" t="n">
-        <v>83850</v>
+        <v>87500</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4658</v>
+        <v>12.5022</v>
       </c>
       <c r="G60" t="n">
-        <v>33.27451572999995</v>
+        <v>87433.33333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2670,28 +2807,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83950</v>
+        <v>87750</v>
       </c>
       <c r="C61" t="n">
-        <v>83950</v>
+        <v>87750</v>
       </c>
       <c r="D61" t="n">
-        <v>83950</v>
+        <v>87750</v>
       </c>
       <c r="E61" t="n">
-        <v>83950</v>
+        <v>87750</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0053</v>
+        <v>0.5236</v>
       </c>
       <c r="G61" t="n">
-        <v>34.27981572999995</v>
+        <v>87583.33333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2709,28 +2847,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83950</v>
+        <v>87700</v>
       </c>
       <c r="C62" t="n">
-        <v>83950</v>
+        <v>87700</v>
       </c>
       <c r="D62" t="n">
-        <v>83950</v>
+        <v>87700</v>
       </c>
       <c r="E62" t="n">
-        <v>83950</v>
+        <v>87700</v>
       </c>
       <c r="F62" t="n">
-        <v>0.193</v>
+        <v>17.5711</v>
       </c>
       <c r="G62" t="n">
-        <v>34.27981572999995</v>
+        <v>87716.66666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2748,28 +2887,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>83900</v>
+        <v>87900</v>
       </c>
       <c r="C63" t="n">
-        <v>83900</v>
+        <v>88050</v>
       </c>
       <c r="D63" t="n">
-        <v>83900</v>
+        <v>88050</v>
       </c>
       <c r="E63" t="n">
-        <v>83900</v>
+        <v>87900</v>
       </c>
       <c r="F63" t="n">
-        <v>7.9059</v>
+        <v>28.3839</v>
       </c>
       <c r="G63" t="n">
-        <v>26.37391572999995</v>
+        <v>87833.33333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2787,1003 +2927,931 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83900</v>
+        <v>88050</v>
       </c>
       <c r="C64" t="n">
-        <v>83900</v>
+        <v>88100</v>
       </c>
       <c r="D64" t="n">
-        <v>83900</v>
+        <v>88100</v>
       </c>
       <c r="E64" t="n">
-        <v>83900</v>
+        <v>88050</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02</v>
+        <v>28.622</v>
       </c>
       <c r="G64" t="n">
-        <v>26.37391572999995</v>
+        <v>87950</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83900</v>
+        <v>88100</v>
       </c>
       <c r="C65" t="n">
-        <v>83850</v>
+        <v>88100</v>
       </c>
       <c r="D65" t="n">
-        <v>83900</v>
+        <v>88100</v>
       </c>
       <c r="E65" t="n">
-        <v>83850</v>
+        <v>88100</v>
       </c>
       <c r="F65" t="n">
-        <v>15.4439</v>
+        <v>22.2725</v>
       </c>
       <c r="G65" t="n">
-        <v>10.93001572999995</v>
+        <v>88083.33333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83850</v>
+        <v>87850</v>
       </c>
       <c r="C66" t="n">
-        <v>83850</v>
+        <v>87750</v>
       </c>
       <c r="D66" t="n">
-        <v>83850</v>
+        <v>87850</v>
       </c>
       <c r="E66" t="n">
-        <v>83850</v>
+        <v>87550</v>
       </c>
       <c r="F66" t="n">
-        <v>9.7774</v>
+        <v>11.0046</v>
       </c>
       <c r="G66" t="n">
-        <v>10.93001572999995</v>
+        <v>87983.33333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84000</v>
+        <v>87750</v>
       </c>
       <c r="C67" t="n">
-        <v>84350</v>
+        <v>87750</v>
       </c>
       <c r="D67" t="n">
-        <v>84350</v>
+        <v>87750</v>
       </c>
       <c r="E67" t="n">
-        <v>84000</v>
+        <v>87750</v>
       </c>
       <c r="F67" t="n">
-        <v>2.37190278</v>
+        <v>1.4286</v>
       </c>
       <c r="G67" t="n">
-        <v>13.30191850999995</v>
+        <v>87866.66666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>84800</v>
+        <v>87800</v>
       </c>
       <c r="C68" t="n">
-        <v>84800</v>
+        <v>87800</v>
       </c>
       <c r="D68" t="n">
-        <v>84800</v>
+        <v>87800</v>
       </c>
       <c r="E68" t="n">
-        <v>84800</v>
+        <v>87800</v>
       </c>
       <c r="F68" t="n">
-        <v>0.216</v>
+        <v>2.2719</v>
       </c>
       <c r="G68" t="n">
-        <v>13.51791850999995</v>
+        <v>87766.66666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>85000</v>
+        <v>87850</v>
       </c>
       <c r="C69" t="n">
-        <v>85000</v>
+        <v>87850</v>
       </c>
       <c r="D69" t="n">
-        <v>85000</v>
+        <v>87850</v>
       </c>
       <c r="E69" t="n">
-        <v>85000</v>
+        <v>87850</v>
       </c>
       <c r="F69" t="n">
-        <v>14.285</v>
+        <v>1.694</v>
       </c>
       <c r="G69" t="n">
-        <v>27.80291850999996</v>
+        <v>87800</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>85050</v>
+        <v>87950</v>
       </c>
       <c r="C70" t="n">
-        <v>84700</v>
+        <v>87750</v>
       </c>
       <c r="D70" t="n">
-        <v>85050</v>
+        <v>87950</v>
       </c>
       <c r="E70" t="n">
-        <v>84700</v>
+        <v>87750</v>
       </c>
       <c r="F70" t="n">
-        <v>8.9139</v>
+        <v>0.04</v>
       </c>
       <c r="G70" t="n">
-        <v>18.88901850999996</v>
+        <v>87800</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>85000</v>
+        <v>87750</v>
       </c>
       <c r="C71" t="n">
-        <v>85000</v>
+        <v>87550</v>
       </c>
       <c r="D71" t="n">
-        <v>85000</v>
+        <v>87750</v>
       </c>
       <c r="E71" t="n">
-        <v>85000</v>
+        <v>87550</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02</v>
+        <v>28.3278</v>
       </c>
       <c r="G71" t="n">
-        <v>18.90901850999996</v>
+        <v>87716.66666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>85300</v>
+        <v>87600</v>
       </c>
       <c r="C72" t="n">
-        <v>85200</v>
+        <v>87400</v>
       </c>
       <c r="D72" t="n">
-        <v>85300</v>
+        <v>87600</v>
       </c>
       <c r="E72" t="n">
-        <v>84900</v>
+        <v>87400</v>
       </c>
       <c r="F72" t="n">
-        <v>11.3137</v>
+        <v>9.299899999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>30.22271850999996</v>
+        <v>87566.66666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>85150</v>
+        <v>87600</v>
       </c>
       <c r="C73" t="n">
-        <v>85200</v>
+        <v>87600</v>
       </c>
       <c r="D73" t="n">
-        <v>85200</v>
+        <v>87600</v>
       </c>
       <c r="E73" t="n">
-        <v>85150</v>
+        <v>87600</v>
       </c>
       <c r="F73" t="n">
-        <v>1.7322</v>
+        <v>0.0239726</v>
       </c>
       <c r="G73" t="n">
-        <v>30.22271850999996</v>
+        <v>87516.66666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>85200</v>
+        <v>87450</v>
       </c>
       <c r="C74" t="n">
-        <v>85200</v>
+        <v>87450</v>
       </c>
       <c r="D74" t="n">
-        <v>85200</v>
+        <v>87450</v>
       </c>
       <c r="E74" t="n">
-        <v>85200</v>
+        <v>87450</v>
       </c>
       <c r="F74" t="n">
-        <v>3.5378</v>
+        <v>4.34</v>
       </c>
       <c r="G74" t="n">
-        <v>30.22271850999996</v>
+        <v>87483.33333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>84950</v>
+        <v>87450</v>
       </c>
       <c r="C75" t="n">
-        <v>84950</v>
+        <v>87450</v>
       </c>
       <c r="D75" t="n">
-        <v>84950</v>
+        <v>87450</v>
       </c>
       <c r="E75" t="n">
-        <v>84950</v>
+        <v>87450</v>
       </c>
       <c r="F75" t="n">
-        <v>2.6372</v>
+        <v>10.1555</v>
       </c>
       <c r="G75" t="n">
-        <v>27.58551850999996</v>
+        <v>87500</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>85100</v>
+        <v>87450</v>
       </c>
       <c r="C76" t="n">
-        <v>85100</v>
+        <v>87450</v>
       </c>
       <c r="D76" t="n">
-        <v>85100</v>
+        <v>87450</v>
       </c>
       <c r="E76" t="n">
-        <v>85100</v>
+        <v>87450</v>
       </c>
       <c r="F76" t="n">
-        <v>1.566</v>
+        <v>1.5676</v>
       </c>
       <c r="G76" t="n">
-        <v>29.15151850999996</v>
+        <v>87450</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>85050</v>
+        <v>87400</v>
       </c>
       <c r="C77" t="n">
-        <v>85050</v>
+        <v>87400</v>
       </c>
       <c r="D77" t="n">
-        <v>85050</v>
+        <v>87400</v>
       </c>
       <c r="E77" t="n">
-        <v>85050</v>
+        <v>87400</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1297</v>
+        <v>6.2234</v>
       </c>
       <c r="G77" t="n">
-        <v>29.02181850999996</v>
+        <v>87433.33333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>84950</v>
+        <v>86900</v>
       </c>
       <c r="C78" t="n">
-        <v>85000</v>
+        <v>86900</v>
       </c>
       <c r="D78" t="n">
-        <v>85000</v>
+        <v>86900</v>
       </c>
       <c r="E78" t="n">
-        <v>84950</v>
+        <v>86900</v>
       </c>
       <c r="F78" t="n">
-        <v>20.6859</v>
+        <v>9.3634</v>
       </c>
       <c r="G78" t="n">
-        <v>8.335918509999956</v>
+        <v>87250</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>85000</v>
+        <v>86750</v>
       </c>
       <c r="C79" t="n">
-        <v>85000</v>
+        <v>86750</v>
       </c>
       <c r="D79" t="n">
-        <v>85000</v>
+        <v>86750</v>
       </c>
       <c r="E79" t="n">
-        <v>85000</v>
+        <v>86750</v>
       </c>
       <c r="F79" t="n">
-        <v>3.2021</v>
+        <v>4.34</v>
       </c>
       <c r="G79" t="n">
-        <v>8.335918509999956</v>
+        <v>87016.66666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="C80" t="n">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="D80" t="n">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="E80" t="n">
-        <v>85000</v>
+        <v>86800</v>
       </c>
       <c r="F80" t="n">
-        <v>59.6359</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>8.335918509999956</v>
+        <v>86816.66666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>85000</v>
+        <v>86550</v>
       </c>
       <c r="C81" t="n">
-        <v>85000</v>
+        <v>86550</v>
       </c>
       <c r="D81" t="n">
-        <v>85000</v>
+        <v>86550</v>
       </c>
       <c r="E81" t="n">
-        <v>84850</v>
+        <v>86550</v>
       </c>
       <c r="F81" t="n">
-        <v>33.3414</v>
+        <v>1.1546967</v>
       </c>
       <c r="G81" t="n">
-        <v>8.335918509999956</v>
+        <v>86700</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>84900</v>
+        <v>86250</v>
       </c>
       <c r="C82" t="n">
-        <v>85000</v>
+        <v>86150</v>
       </c>
       <c r="D82" t="n">
-        <v>85000</v>
+        <v>86250</v>
       </c>
       <c r="E82" t="n">
-        <v>84900</v>
+        <v>86150</v>
       </c>
       <c r="F82" t="n">
-        <v>50.8041</v>
+        <v>0.24</v>
       </c>
       <c r="G82" t="n">
-        <v>8.335918509999956</v>
+        <v>86500</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>85000</v>
+        <v>86150</v>
       </c>
       <c r="C83" t="n">
-        <v>85000</v>
+        <v>86150</v>
       </c>
       <c r="D83" t="n">
-        <v>85000</v>
+        <v>86150</v>
       </c>
       <c r="E83" t="n">
-        <v>85000</v>
+        <v>86150</v>
       </c>
       <c r="F83" t="n">
-        <v>18.9303</v>
+        <v>0.5543</v>
       </c>
       <c r="G83" t="n">
-        <v>8.335918509999956</v>
+        <v>86283.33333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84950</v>
+        <v>86250</v>
       </c>
       <c r="C84" t="n">
-        <v>84950</v>
+        <v>86250</v>
       </c>
       <c r="D84" t="n">
-        <v>84950</v>
+        <v>86250</v>
       </c>
       <c r="E84" t="n">
-        <v>84950</v>
+        <v>86250</v>
       </c>
       <c r="F84" t="n">
-        <v>18.0179</v>
+        <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>-9.681981490000044</v>
+        <v>86183.33333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>84950</v>
+        <v>85950</v>
       </c>
       <c r="C85" t="n">
-        <v>84950</v>
+        <v>85950</v>
       </c>
       <c r="D85" t="n">
-        <v>84950</v>
+        <v>85950</v>
       </c>
       <c r="E85" t="n">
-        <v>84950</v>
+        <v>85950</v>
       </c>
       <c r="F85" t="n">
-        <v>39.0358</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-9.681981490000044</v>
+        <v>86116.66666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84950</v>
+        <v>85550</v>
       </c>
       <c r="C86" t="n">
-        <v>85000</v>
+        <v>85800</v>
       </c>
       <c r="D86" t="n">
-        <v>85000</v>
+        <v>85800</v>
       </c>
       <c r="E86" t="n">
-        <v>84950</v>
+        <v>85450</v>
       </c>
       <c r="F86" t="n">
-        <v>3.2041</v>
+        <v>50.1788</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.477881490000044</v>
+        <v>86000</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85000</v>
+        <v>85650</v>
       </c>
       <c r="C87" t="n">
-        <v>85000</v>
+        <v>85650</v>
       </c>
       <c r="D87" t="n">
-        <v>85000</v>
+        <v>85650</v>
       </c>
       <c r="E87" t="n">
-        <v>85000</v>
+        <v>85650</v>
       </c>
       <c r="F87" t="n">
-        <v>17.0384</v>
+        <v>15.0475</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.477881490000044</v>
+        <v>85800</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>85000</v>
+        <v>85750</v>
       </c>
       <c r="C88" t="n">
-        <v>85000</v>
+        <v>85800</v>
       </c>
       <c r="D88" t="n">
-        <v>85250</v>
+        <v>85800</v>
       </c>
       <c r="E88" t="n">
-        <v>85000</v>
+        <v>85750</v>
       </c>
       <c r="F88" t="n">
-        <v>31.9121</v>
+        <v>15.5115</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.477881490000044</v>
+        <v>85750</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C89" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D89" t="n">
+        <v>85700</v>
+      </c>
+      <c r="E89" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="G89" t="n">
         <v>85600</v>
-      </c>
-      <c r="C89" t="n">
-        <v>85600</v>
-      </c>
-      <c r="D89" t="n">
-        <v>85600</v>
-      </c>
-      <c r="E89" t="n">
-        <v>85600</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-6.244881490000044</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3793,36 +3861,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>85700</v>
+        <v>85300</v>
       </c>
       <c r="C90" t="n">
-        <v>85750</v>
+        <v>85300</v>
       </c>
       <c r="D90" t="n">
-        <v>85750</v>
+        <v>85600</v>
       </c>
       <c r="E90" t="n">
-        <v>85700</v>
+        <v>85300</v>
       </c>
       <c r="F90" t="n">
-        <v>2.5689</v>
+        <v>2.515</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.675981490000044</v>
+        <v>85483.33333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3832,36 +3897,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85800</v>
+        <v>85050</v>
       </c>
       <c r="C91" t="n">
-        <v>85800</v>
+        <v>85000</v>
       </c>
       <c r="D91" t="n">
-        <v>85800</v>
+        <v>85050</v>
       </c>
       <c r="E91" t="n">
-        <v>85800</v>
+        <v>85000</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>45.1426</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.675981490000044</v>
+        <v>85216.66666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3871,36 +3933,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>85900</v>
+        <v>85050</v>
       </c>
       <c r="C92" t="n">
-        <v>85900</v>
+        <v>85300</v>
       </c>
       <c r="D92" t="n">
-        <v>85900</v>
+        <v>85300</v>
       </c>
       <c r="E92" t="n">
-        <v>85900</v>
+        <v>85000</v>
       </c>
       <c r="F92" t="n">
-        <v>11.6414</v>
+        <v>9.209199999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>8.965418509999957</v>
+        <v>85200</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3910,36 +3969,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>85950</v>
+        <v>85400</v>
       </c>
       <c r="C93" t="n">
-        <v>85800</v>
+        <v>85400</v>
       </c>
       <c r="D93" t="n">
-        <v>85950</v>
+        <v>85400</v>
       </c>
       <c r="E93" t="n">
-        <v>85800</v>
+        <v>85400</v>
       </c>
       <c r="F93" t="n">
-        <v>7.5797</v>
+        <v>2.7885</v>
       </c>
       <c r="G93" t="n">
-        <v>1.385718509999957</v>
+        <v>85233.33333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3949,36 +4005,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>85900</v>
+        <v>85500</v>
       </c>
       <c r="C94" t="n">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="D94" t="n">
-        <v>85900</v>
+        <v>85500</v>
       </c>
       <c r="E94" t="n">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="F94" t="n">
-        <v>6.8198</v>
+        <v>1.7</v>
       </c>
       <c r="G94" t="n">
-        <v>1.385718509999957</v>
+        <v>85400</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3988,36 +4041,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="C95" t="n">
-        <v>85800</v>
+        <v>85350</v>
       </c>
       <c r="D95" t="n">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="E95" t="n">
-        <v>85800</v>
+        <v>85350</v>
       </c>
       <c r="F95" t="n">
-        <v>2.3283</v>
+        <v>3.0663</v>
       </c>
       <c r="G95" t="n">
-        <v>1.385718509999957</v>
+        <v>85416.66666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4027,36 +4077,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86000</v>
+        <v>85350</v>
       </c>
       <c r="C96" t="n">
-        <v>86200</v>
+        <v>85350</v>
       </c>
       <c r="D96" t="n">
-        <v>86200</v>
+        <v>85350</v>
       </c>
       <c r="E96" t="n">
-        <v>85950</v>
+        <v>85350</v>
       </c>
       <c r="F96" t="n">
-        <v>14.2592</v>
+        <v>11.5353</v>
       </c>
       <c r="G96" t="n">
-        <v>15.64491850999996</v>
+        <v>85400</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4066,36 +4113,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="C97" t="n">
-        <v>86300</v>
+        <v>85450</v>
       </c>
       <c r="D97" t="n">
-        <v>86300</v>
+        <v>85450</v>
       </c>
       <c r="E97" t="n">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5</v>
+        <v>21</v>
       </c>
       <c r="G97" t="n">
-        <v>16.14491850999996</v>
+        <v>85383.33333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4105,36 +4149,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>86350</v>
+        <v>85700</v>
       </c>
       <c r="C98" t="n">
-        <v>86800</v>
+        <v>85900</v>
       </c>
       <c r="D98" t="n">
-        <v>86800</v>
+        <v>85900</v>
       </c>
       <c r="E98" t="n">
-        <v>86350</v>
+        <v>85700</v>
       </c>
       <c r="F98" t="n">
-        <v>44.02</v>
+        <v>0.455</v>
       </c>
       <c r="G98" t="n">
-        <v>60.16491850999996</v>
+        <v>85566.66666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4144,36 +4185,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>86700</v>
+        <v>85950</v>
       </c>
       <c r="C99" t="n">
-        <v>87000</v>
+        <v>85950</v>
       </c>
       <c r="D99" t="n">
-        <v>87000</v>
+        <v>85950</v>
       </c>
       <c r="E99" t="n">
-        <v>86700</v>
+        <v>85950</v>
       </c>
       <c r="F99" t="n">
-        <v>10.6416</v>
+        <v>0.8339</v>
       </c>
       <c r="G99" t="n">
-        <v>70.80651850999996</v>
+        <v>85766.66666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4183,36 +4221,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>87000</v>
+        <v>85950</v>
       </c>
       <c r="C100" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="D100" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="E100" t="n">
-        <v>87000</v>
+        <v>85950</v>
       </c>
       <c r="F100" t="n">
-        <v>35.8276</v>
+        <v>25.4209</v>
       </c>
       <c r="G100" t="n">
-        <v>106.63411851</v>
+        <v>85950</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4222,36 +4257,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="C101" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="D101" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="E101" t="n">
-        <v>87300</v>
+        <v>86000</v>
       </c>
       <c r="F101" t="n">
-        <v>22.0417</v>
+        <v>2.2698</v>
       </c>
       <c r="G101" t="n">
-        <v>106.63411851</v>
+        <v>85983.33333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4261,36 +4293,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>87500</v>
+        <v>86150</v>
       </c>
       <c r="C102" t="n">
-        <v>87700</v>
+        <v>86150</v>
       </c>
       <c r="D102" t="n">
-        <v>87700</v>
+        <v>86150</v>
       </c>
       <c r="E102" t="n">
-        <v>87500</v>
+        <v>86150</v>
       </c>
       <c r="F102" t="n">
-        <v>12.5022</v>
+        <v>0.5669</v>
       </c>
       <c r="G102" t="n">
-        <v>119.13631851</v>
+        <v>86050</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4300,36 +4329,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="C103" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="D103" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="E103" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5236</v>
+        <v>20.8057</v>
       </c>
       <c r="G103" t="n">
-        <v>119.65991851</v>
+        <v>86083.33333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4339,36 +4365,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>87700</v>
+        <v>86150</v>
       </c>
       <c r="C104" t="n">
-        <v>87700</v>
+        <v>86400</v>
       </c>
       <c r="D104" t="n">
-        <v>87700</v>
+        <v>86400</v>
       </c>
       <c r="E104" t="n">
-        <v>87700</v>
+        <v>86150</v>
       </c>
       <c r="F104" t="n">
-        <v>17.5711</v>
+        <v>2.3654</v>
       </c>
       <c r="G104" t="n">
-        <v>102.08881851</v>
+        <v>86216.66666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4378,36 +4401,33 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>87900</v>
+        <v>86000</v>
       </c>
       <c r="C105" t="n">
-        <v>88050</v>
+        <v>86150</v>
       </c>
       <c r="D105" t="n">
-        <v>88050</v>
+        <v>86150</v>
       </c>
       <c r="E105" t="n">
-        <v>87900</v>
+        <v>86000</v>
       </c>
       <c r="F105" t="n">
-        <v>28.3839</v>
+        <v>24.5001</v>
       </c>
       <c r="G105" t="n">
-        <v>130.47271851</v>
+        <v>86216.66666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4417,79 +4437,75 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>88050</v>
+        <v>86050</v>
       </c>
       <c r="C106" t="n">
-        <v>88100</v>
+        <v>86050</v>
       </c>
       <c r="D106" t="n">
-        <v>88100</v>
+        <v>86050</v>
       </c>
       <c r="E106" t="n">
-        <v>88050</v>
+        <v>86050</v>
       </c>
       <c r="F106" t="n">
-        <v>28.622</v>
+        <v>1.1757</v>
       </c>
       <c r="G106" t="n">
-        <v>159.09471851</v>
+        <v>86200</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>88100</v>
+        <v>86150</v>
       </c>
       <c r="C107" t="n">
-        <v>88100</v>
+        <v>86300</v>
       </c>
       <c r="D107" t="n">
-        <v>88100</v>
+        <v>86300</v>
       </c>
       <c r="E107" t="n">
-        <v>88100</v>
+        <v>86150</v>
       </c>
       <c r="F107" t="n">
-        <v>22.2725</v>
+        <v>0.8682</v>
       </c>
       <c r="G107" t="n">
-        <v>159.09471851</v>
+        <v>86166.66666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4497,34 +4513,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>87850</v>
+        <v>86700</v>
       </c>
       <c r="C108" t="n">
-        <v>87750</v>
+        <v>86700</v>
       </c>
       <c r="D108" t="n">
-        <v>87850</v>
+        <v>86700</v>
       </c>
       <c r="E108" t="n">
-        <v>87550</v>
+        <v>86700</v>
       </c>
       <c r="F108" t="n">
-        <v>11.0046</v>
+        <v>0.11534025</v>
       </c>
       <c r="G108" t="n">
-        <v>148.0901185099999</v>
+        <v>86350</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4532,34 +4549,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>87750</v>
+        <v>86700</v>
       </c>
       <c r="C109" t="n">
-        <v>87750</v>
+        <v>87000</v>
       </c>
       <c r="D109" t="n">
-        <v>87750</v>
+        <v>87000</v>
       </c>
       <c r="E109" t="n">
-        <v>87750</v>
+        <v>86700</v>
       </c>
       <c r="F109" t="n">
-        <v>1.4286</v>
+        <v>36.6254</v>
       </c>
       <c r="G109" t="n">
-        <v>148.0901185099999</v>
+        <v>86666.66666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4567,34 +4585,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="C110" t="n">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="D110" t="n">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="E110" t="n">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="F110" t="n">
-        <v>2.2719</v>
+        <v>0.05</v>
       </c>
       <c r="G110" t="n">
-        <v>150.3620185099999</v>
+        <v>86900</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4602,34 +4621,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>87850</v>
+        <v>86750</v>
       </c>
       <c r="C111" t="n">
-        <v>87850</v>
+        <v>86850</v>
       </c>
       <c r="D111" t="n">
-        <v>87850</v>
+        <v>86850</v>
       </c>
       <c r="E111" t="n">
-        <v>87850</v>
+        <v>86750</v>
       </c>
       <c r="F111" t="n">
-        <v>1.694</v>
+        <v>23.28195958</v>
       </c>
       <c r="G111" t="n">
-        <v>152.0560185099999</v>
+        <v>86950</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4637,34 +4657,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>87950</v>
+        <v>86100</v>
       </c>
       <c r="C112" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="D112" t="n">
-        <v>87950</v>
+        <v>86100</v>
       </c>
       <c r="E112" t="n">
-        <v>87750</v>
+        <v>86100</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04</v>
+        <v>0.669</v>
       </c>
       <c r="G112" t="n">
-        <v>152.0160185099999</v>
+        <v>86650</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4672,34 +4693,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>87750</v>
+        <v>85800</v>
       </c>
       <c r="C113" t="n">
-        <v>87550</v>
+        <v>85800</v>
       </c>
       <c r="D113" t="n">
-        <v>87750</v>
+        <v>85800</v>
       </c>
       <c r="E113" t="n">
-        <v>87550</v>
+        <v>85800</v>
       </c>
       <c r="F113" t="n">
-        <v>28.3278</v>
+        <v>0.8</v>
       </c>
       <c r="G113" t="n">
-        <v>123.6882185099999</v>
+        <v>86250</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4707,1476 +4729,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>87600</v>
-      </c>
-      <c r="C114" t="n">
-        <v>87400</v>
-      </c>
-      <c r="D114" t="n">
-        <v>87600</v>
-      </c>
-      <c r="E114" t="n">
-        <v>87400</v>
-      </c>
-      <c r="F114" t="n">
-        <v>9.299899999999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>114.3883185099999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>87600</v>
-      </c>
-      <c r="C115" t="n">
-        <v>87600</v>
-      </c>
-      <c r="D115" t="n">
-        <v>87600</v>
-      </c>
-      <c r="E115" t="n">
-        <v>87600</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0239726</v>
-      </c>
-      <c r="G115" t="n">
-        <v>114.4122911099999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>87450</v>
-      </c>
-      <c r="C116" t="n">
-        <v>87450</v>
-      </c>
-      <c r="D116" t="n">
-        <v>87450</v>
-      </c>
-      <c r="E116" t="n">
-        <v>87450</v>
-      </c>
-      <c r="F116" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G116" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>87450</v>
-      </c>
-      <c r="C117" t="n">
-        <v>87450</v>
-      </c>
-      <c r="D117" t="n">
-        <v>87450</v>
-      </c>
-      <c r="E117" t="n">
-        <v>87450</v>
-      </c>
-      <c r="F117" t="n">
-        <v>10.1555</v>
-      </c>
-      <c r="G117" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>87450</v>
-      </c>
-      <c r="C118" t="n">
-        <v>87450</v>
-      </c>
-      <c r="D118" t="n">
-        <v>87450</v>
-      </c>
-      <c r="E118" t="n">
-        <v>87450</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.5676</v>
-      </c>
-      <c r="G118" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>87400</v>
-      </c>
-      <c r="C119" t="n">
-        <v>87400</v>
-      </c>
-      <c r="D119" t="n">
-        <v>87400</v>
-      </c>
-      <c r="E119" t="n">
-        <v>87400</v>
-      </c>
-      <c r="F119" t="n">
-        <v>6.2234</v>
-      </c>
-      <c r="G119" t="n">
-        <v>103.8488911099999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>86900</v>
-      </c>
-      <c r="C120" t="n">
-        <v>86900</v>
-      </c>
-      <c r="D120" t="n">
-        <v>86900</v>
-      </c>
-      <c r="E120" t="n">
-        <v>86900</v>
-      </c>
-      <c r="F120" t="n">
-        <v>9.3634</v>
-      </c>
-      <c r="G120" t="n">
-        <v>94.48549110999993</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>86750</v>
-      </c>
-      <c r="C121" t="n">
-        <v>86750</v>
-      </c>
-      <c r="D121" t="n">
-        <v>86750</v>
-      </c>
-      <c r="E121" t="n">
-        <v>86750</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G121" t="n">
-        <v>90.14549110999992</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>86800</v>
-      </c>
-      <c r="C122" t="n">
-        <v>86800</v>
-      </c>
-      <c r="D122" t="n">
-        <v>86800</v>
-      </c>
-      <c r="E122" t="n">
-        <v>86800</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4</v>
-      </c>
-      <c r="G122" t="n">
-        <v>94.14549110999992</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>86550</v>
-      </c>
-      <c r="C123" t="n">
-        <v>86550</v>
-      </c>
-      <c r="D123" t="n">
-        <v>86550</v>
-      </c>
-      <c r="E123" t="n">
-        <v>86550</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.1546967</v>
-      </c>
-      <c r="G123" t="n">
-        <v>92.99079440999992</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>86250</v>
-      </c>
-      <c r="C124" t="n">
-        <v>86150</v>
-      </c>
-      <c r="D124" t="n">
-        <v>86250</v>
-      </c>
-      <c r="E124" t="n">
-        <v>86150</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G124" t="n">
-        <v>92.75079440999993</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>86150</v>
-      </c>
-      <c r="C125" t="n">
-        <v>86150</v>
-      </c>
-      <c r="D125" t="n">
-        <v>86150</v>
-      </c>
-      <c r="E125" t="n">
-        <v>86150</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.5543</v>
-      </c>
-      <c r="G125" t="n">
-        <v>92.75079440999993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>86250</v>
-      </c>
-      <c r="C126" t="n">
-        <v>86250</v>
-      </c>
-      <c r="D126" t="n">
-        <v>86250</v>
-      </c>
-      <c r="E126" t="n">
-        <v>86250</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>92.85079440999992</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>85950</v>
-      </c>
-      <c r="C127" t="n">
-        <v>85950</v>
-      </c>
-      <c r="D127" t="n">
-        <v>85950</v>
-      </c>
-      <c r="E127" t="n">
-        <v>85950</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.6104000000000001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>92.24039440999992</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>85550</v>
-      </c>
-      <c r="C128" t="n">
-        <v>85800</v>
-      </c>
-      <c r="D128" t="n">
-        <v>85800</v>
-      </c>
-      <c r="E128" t="n">
-        <v>85450</v>
-      </c>
-      <c r="F128" t="n">
-        <v>50.1788</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42.06159440999992</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>85650</v>
-      </c>
-      <c r="C129" t="n">
-        <v>85650</v>
-      </c>
-      <c r="D129" t="n">
-        <v>85650</v>
-      </c>
-      <c r="E129" t="n">
-        <v>85650</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15.0475</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27.01409440999992</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>85750</v>
-      </c>
-      <c r="C130" t="n">
-        <v>85800</v>
-      </c>
-      <c r="D130" t="n">
-        <v>85800</v>
-      </c>
-      <c r="E130" t="n">
-        <v>85750</v>
-      </c>
-      <c r="F130" t="n">
-        <v>15.5115</v>
-      </c>
-      <c r="G130" t="n">
-        <v>42.52559440999992</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>85700</v>
-      </c>
-      <c r="C131" t="n">
-        <v>85350</v>
-      </c>
-      <c r="D131" t="n">
-        <v>85700</v>
-      </c>
-      <c r="E131" t="n">
-        <v>85350</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3.641</v>
-      </c>
-      <c r="G131" t="n">
-        <v>38.88459440999992</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>85300</v>
-      </c>
-      <c r="C132" t="n">
-        <v>85300</v>
-      </c>
-      <c r="D132" t="n">
-        <v>85600</v>
-      </c>
-      <c r="E132" t="n">
-        <v>85300</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2.515</v>
-      </c>
-      <c r="G132" t="n">
-        <v>36.36959440999992</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>85050</v>
-      </c>
-      <c r="C133" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D133" t="n">
-        <v>85050</v>
-      </c>
-      <c r="E133" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F133" t="n">
-        <v>45.1426</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-8.773005590000082</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>85050</v>
-      </c>
-      <c r="C134" t="n">
-        <v>85300</v>
-      </c>
-      <c r="D134" t="n">
-        <v>85300</v>
-      </c>
-      <c r="E134" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F134" t="n">
-        <v>9.209199999999999</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.4361944099999171</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>85400</v>
-      </c>
-      <c r="C135" t="n">
-        <v>85400</v>
-      </c>
-      <c r="D135" t="n">
-        <v>85400</v>
-      </c>
-      <c r="E135" t="n">
-        <v>85400</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2.7885</v>
-      </c>
-      <c r="G135" t="n">
-        <v>3.224694409999917</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>85500</v>
-      </c>
-      <c r="C136" t="n">
-        <v>85500</v>
-      </c>
-      <c r="D136" t="n">
-        <v>85500</v>
-      </c>
-      <c r="E136" t="n">
-        <v>85500</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G136" t="n">
-        <v>4.924694409999917</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>85500</v>
-      </c>
-      <c r="C137" t="n">
-        <v>85350</v>
-      </c>
-      <c r="D137" t="n">
-        <v>85500</v>
-      </c>
-      <c r="E137" t="n">
-        <v>85350</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3.0663</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.858394409999917</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>85350</v>
-      </c>
-      <c r="C138" t="n">
-        <v>85350</v>
-      </c>
-      <c r="D138" t="n">
-        <v>85350</v>
-      </c>
-      <c r="E138" t="n">
-        <v>85350</v>
-      </c>
-      <c r="F138" t="n">
-        <v>11.5353</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1.858394409999917</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>85400</v>
-      </c>
-      <c r="C139" t="n">
-        <v>85450</v>
-      </c>
-      <c r="D139" t="n">
-        <v>85450</v>
-      </c>
-      <c r="E139" t="n">
-        <v>85400</v>
-      </c>
-      <c r="F139" t="n">
-        <v>21</v>
-      </c>
-      <c r="G139" t="n">
-        <v>22.85839440999992</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>85700</v>
-      </c>
-      <c r="C140" t="n">
-        <v>85900</v>
-      </c>
-      <c r="D140" t="n">
-        <v>85900</v>
-      </c>
-      <c r="E140" t="n">
-        <v>85700</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="G140" t="n">
-        <v>23.31339440999992</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>85950</v>
-      </c>
-      <c r="C141" t="n">
-        <v>85950</v>
-      </c>
-      <c r="D141" t="n">
-        <v>85950</v>
-      </c>
-      <c r="E141" t="n">
-        <v>85950</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.8339</v>
-      </c>
-      <c r="G141" t="n">
-        <v>24.14729440999992</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>85950</v>
-      </c>
-      <c r="C142" t="n">
-        <v>86000</v>
-      </c>
-      <c r="D142" t="n">
-        <v>86000</v>
-      </c>
-      <c r="E142" t="n">
-        <v>85950</v>
-      </c>
-      <c r="F142" t="n">
-        <v>25.4209</v>
-      </c>
-      <c r="G142" t="n">
-        <v>49.56819440999992</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>86000</v>
-      </c>
-      <c r="C143" t="n">
-        <v>86000</v>
-      </c>
-      <c r="D143" t="n">
-        <v>86000</v>
-      </c>
-      <c r="E143" t="n">
-        <v>86000</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.2698</v>
-      </c>
-      <c r="G143" t="n">
-        <v>49.56819440999992</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>86150</v>
-      </c>
-      <c r="C144" t="n">
-        <v>86150</v>
-      </c>
-      <c r="D144" t="n">
-        <v>86150</v>
-      </c>
-      <c r="E144" t="n">
-        <v>86150</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="G144" t="n">
-        <v>50.13509440999992</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>86100</v>
-      </c>
-      <c r="C145" t="n">
-        <v>86100</v>
-      </c>
-      <c r="D145" t="n">
-        <v>86100</v>
-      </c>
-      <c r="E145" t="n">
-        <v>86100</v>
-      </c>
-      <c r="F145" t="n">
-        <v>20.8057</v>
-      </c>
-      <c r="G145" t="n">
-        <v>29.32939440999991</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>86150</v>
-      </c>
-      <c r="C146" t="n">
-        <v>86400</v>
-      </c>
-      <c r="D146" t="n">
-        <v>86400</v>
-      </c>
-      <c r="E146" t="n">
-        <v>86150</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.3654</v>
-      </c>
-      <c r="G146" t="n">
-        <v>31.69479440999991</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>86000</v>
-      </c>
-      <c r="C147" t="n">
-        <v>86150</v>
-      </c>
-      <c r="D147" t="n">
-        <v>86150</v>
-      </c>
-      <c r="E147" t="n">
-        <v>86000</v>
-      </c>
-      <c r="F147" t="n">
-        <v>24.5001</v>
-      </c>
-      <c r="G147" t="n">
-        <v>7.194694409999915</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>86050</v>
-      </c>
-      <c r="C148" t="n">
-        <v>86050</v>
-      </c>
-      <c r="D148" t="n">
-        <v>86050</v>
-      </c>
-      <c r="E148" t="n">
-        <v>86050</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1.1757</v>
-      </c>
-      <c r="G148" t="n">
-        <v>6.018994409999915</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>86150</v>
-      </c>
-      <c r="C149" t="n">
-        <v>86300</v>
-      </c>
-      <c r="D149" t="n">
-        <v>86300</v>
-      </c>
-      <c r="E149" t="n">
-        <v>86150</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.8682</v>
-      </c>
-      <c r="G149" t="n">
-        <v>6.887194409999915</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>86700</v>
-      </c>
-      <c r="C150" t="n">
-        <v>86700</v>
-      </c>
-      <c r="D150" t="n">
-        <v>86700</v>
-      </c>
-      <c r="E150" t="n">
-        <v>86700</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.11534025</v>
-      </c>
-      <c r="G150" t="n">
-        <v>7.002534659999915</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>86700</v>
-      </c>
-      <c r="C151" t="n">
-        <v>87000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>87000</v>
-      </c>
-      <c r="E151" t="n">
-        <v>86700</v>
-      </c>
-      <c r="F151" t="n">
-        <v>36.6254</v>
-      </c>
-      <c r="G151" t="n">
-        <v>43.62793465999992</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>87000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>87000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>87000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>87000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G152" t="n">
-        <v>43.62793465999992</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>86750</v>
-      </c>
-      <c r="C153" t="n">
-        <v>86850</v>
-      </c>
-      <c r="D153" t="n">
-        <v>86850</v>
-      </c>
-      <c r="E153" t="n">
-        <v>86750</v>
-      </c>
-      <c r="F153" t="n">
-        <v>23.28195958</v>
-      </c>
-      <c r="G153" t="n">
-        <v>20.34597507999992</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>86100</v>
-      </c>
-      <c r="C154" t="n">
-        <v>86100</v>
-      </c>
-      <c r="D154" t="n">
-        <v>86100</v>
-      </c>
-      <c r="E154" t="n">
-        <v>86100</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="G154" t="n">
-        <v>19.67697507999992</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>85800</v>
-      </c>
-      <c r="C155" t="n">
-        <v>85800</v>
-      </c>
-      <c r="D155" t="n">
-        <v>85800</v>
-      </c>
-      <c r="E155" t="n">
-        <v>85800</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G155" t="n">
-        <v>18.87697507999992</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83750</v>
+        <v>84600</v>
       </c>
       <c r="C2" t="n">
-        <v>83750</v>
+        <v>84550</v>
       </c>
       <c r="D2" t="n">
-        <v>83750</v>
+        <v>84600</v>
       </c>
       <c r="E2" t="n">
-        <v>83750</v>
+        <v>84550</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11940298</v>
+        <v>1.3206</v>
       </c>
       <c r="G2" t="n">
-        <v>83850</v>
+        <v>-96.68819679000006</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83600</v>
+        <v>84250</v>
       </c>
       <c r="C3" t="n">
-        <v>83600</v>
+        <v>84250</v>
       </c>
       <c r="D3" t="n">
-        <v>83600</v>
+        <v>84250</v>
       </c>
       <c r="E3" t="n">
-        <v>83600</v>
+        <v>84250</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0569</v>
+        <v>0.3494</v>
       </c>
       <c r="G3" t="n">
-        <v>83750</v>
+        <v>-97.03759679000007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,32 +510,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83300</v>
+        <v>83950</v>
       </c>
       <c r="C4" t="n">
-        <v>83200</v>
+        <v>83900</v>
       </c>
       <c r="D4" t="n">
-        <v>83300</v>
+        <v>83950</v>
       </c>
       <c r="E4" t="n">
-        <v>83200</v>
+        <v>83900</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5154</v>
+        <v>3.6835</v>
       </c>
       <c r="G4" t="n">
-        <v>83516.66666666667</v>
+        <v>-100.7210967900001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>84250</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +552,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="C5" t="n">
-        <v>82900</v>
+        <v>83950</v>
       </c>
       <c r="D5" t="n">
-        <v>82900</v>
+        <v>83950</v>
       </c>
       <c r="E5" t="n">
-        <v>82900</v>
+        <v>83750</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7793</v>
+        <v>10.5659</v>
       </c>
       <c r="G5" t="n">
-        <v>83233.33333333333</v>
+        <v>-90.15519679000006</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>83900</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82700</v>
+        <v>84150</v>
       </c>
       <c r="C6" t="n">
-        <v>82750</v>
+        <v>84200</v>
       </c>
       <c r="D6" t="n">
-        <v>82750</v>
+        <v>84200</v>
       </c>
       <c r="E6" t="n">
-        <v>82700</v>
+        <v>84150</v>
       </c>
       <c r="F6" t="n">
-        <v>4.8099</v>
+        <v>0.2621</v>
       </c>
       <c r="G6" t="n">
-        <v>82950</v>
+        <v>-89.89309679000006</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -606,12 +618,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>82900</v>
+        <v>83950</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -624,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82900</v>
+        <v>84250</v>
       </c>
       <c r="C7" t="n">
-        <v>82850</v>
+        <v>84250</v>
       </c>
       <c r="D7" t="n">
-        <v>82900</v>
+        <v>84250</v>
       </c>
       <c r="E7" t="n">
-        <v>82850</v>
+        <v>84250</v>
       </c>
       <c r="F7" t="n">
-        <v>8.5708</v>
+        <v>4.0841</v>
       </c>
       <c r="G7" t="n">
-        <v>82833.33333333333</v>
+        <v>-85.80899679000005</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -648,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>82750</v>
+        <v>84200</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -666,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82700</v>
+        <v>84000</v>
       </c>
       <c r="C8" t="n">
-        <v>82700</v>
+        <v>84000</v>
       </c>
       <c r="D8" t="n">
-        <v>82700</v>
+        <v>84000</v>
       </c>
       <c r="E8" t="n">
-        <v>82700</v>
+        <v>84000</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6795</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>82766.66666666667</v>
+        <v>-90.80899679000005</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -690,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82850</v>
+        <v>84250</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
@@ -708,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="C9" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="D9" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="E9" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="F9" t="n">
-        <v>1.547</v>
+        <v>0.4988</v>
       </c>
       <c r="G9" t="n">
-        <v>82750</v>
+        <v>-91.30779679000005</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -732,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>82700</v>
+        <v>84000</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -750,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="C10" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="D10" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="E10" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="F10" t="n">
-        <v>5.1912</v>
+        <v>0.0888</v>
       </c>
       <c r="G10" t="n">
-        <v>82700</v>
+        <v>-91.30779679000005</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -774,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -792,22 +804,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="C11" t="n">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="D11" t="n">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="E11" t="n">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4619</v>
+        <v>1.9155</v>
       </c>
       <c r="G11" t="n">
-        <v>82666.66666666667</v>
+        <v>-93.22329679000005</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -816,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
@@ -834,22 +846,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82950</v>
+        <v>83700</v>
       </c>
       <c r="C12" t="n">
-        <v>82950</v>
+        <v>83600</v>
       </c>
       <c r="D12" t="n">
-        <v>82950</v>
+        <v>83700</v>
       </c>
       <c r="E12" t="n">
-        <v>82950</v>
+        <v>83600</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1405</v>
+        <v>2.8108</v>
       </c>
       <c r="G12" t="n">
-        <v>82750</v>
+        <v>-93.22329679000005</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -858,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
@@ -876,22 +888,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83350</v>
+        <v>83400</v>
       </c>
       <c r="C13" t="n">
-        <v>83350</v>
+        <v>83300</v>
       </c>
       <c r="D13" t="n">
-        <v>83350</v>
+        <v>83400</v>
       </c>
       <c r="E13" t="n">
-        <v>83350</v>
+        <v>83300</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0107</v>
+        <v>4.2875</v>
       </c>
       <c r="G13" t="n">
-        <v>82966.66666666667</v>
+        <v>-97.51079679000004</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -900,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82950</v>
+        <v>83600</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
@@ -918,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83550</v>
+        <v>83300</v>
       </c>
       <c r="C14" t="n">
-        <v>83750</v>
+        <v>83300</v>
       </c>
       <c r="D14" t="n">
-        <v>83750</v>
+        <v>83300</v>
       </c>
       <c r="E14" t="n">
-        <v>83550</v>
+        <v>83300</v>
       </c>
       <c r="F14" t="n">
-        <v>3.58257946</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>83350</v>
+        <v>-97.51079679000004</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -942,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83350</v>
+        <v>83300</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
@@ -960,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>83800</v>
+        <v>83500</v>
       </c>
       <c r="C15" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="D15" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="E15" t="n">
-        <v>83800</v>
+        <v>83500</v>
       </c>
       <c r="F15" t="n">
-        <v>18.0179</v>
+        <v>2.0949</v>
       </c>
       <c r="G15" t="n">
-        <v>83633.33333333333</v>
+        <v>-95.41589679000005</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -984,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83750</v>
+        <v>83300</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
@@ -1002,32 +1014,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="C16" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="D16" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="E16" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6575</v>
+        <v>13.9944</v>
       </c>
       <c r="G16" t="n">
-        <v>83783.33333333333</v>
+        <v>-95.41589679000005</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>83800</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1044,32 +1054,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="C17" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="D17" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="E17" t="n">
-        <v>83800</v>
+        <v>83550</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>83800</v>
+        <v>-95.41589679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>83800</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1086,22 +1094,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83850</v>
+        <v>84050</v>
       </c>
       <c r="C18" t="n">
-        <v>83850</v>
+        <v>84050</v>
       </c>
       <c r="D18" t="n">
-        <v>83850</v>
+        <v>84050</v>
       </c>
       <c r="E18" t="n">
-        <v>83850</v>
+        <v>84050</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4658</v>
+        <v>24.2959</v>
       </c>
       <c r="G18" t="n">
-        <v>83816.66666666667</v>
+        <v>-71.11999679000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1126,32 +1134,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83950</v>
+        <v>84400</v>
       </c>
       <c r="C19" t="n">
-        <v>83950</v>
+        <v>84300</v>
       </c>
       <c r="D19" t="n">
-        <v>83950</v>
+        <v>84400</v>
       </c>
       <c r="E19" t="n">
-        <v>83950</v>
+        <v>84300</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0053</v>
+        <v>0.2606</v>
       </c>
       <c r="G19" t="n">
-        <v>83866.66666666667</v>
+        <v>-70.85939679000005</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>83850</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1180,20 +1186,18 @@
         <v>83950</v>
       </c>
       <c r="F20" t="n">
-        <v>0.193</v>
+        <v>0.1224</v>
       </c>
       <c r="G20" t="n">
-        <v>83916.66666666667</v>
+        <v>-70.98179679000005</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>83950</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1210,30 +1214,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="C21" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="D21" t="n">
-        <v>83900</v>
+        <v>84050</v>
       </c>
       <c r="E21" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="F21" t="n">
-        <v>7.9059</v>
+        <v>5.5445</v>
       </c>
       <c r="G21" t="n">
-        <v>83933.33333333333</v>
+        <v>-65.43729679000005</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>83950</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1250,22 +1256,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83900</v>
+        <v>84200</v>
       </c>
       <c r="C22" t="n">
-        <v>83900</v>
+        <v>84350</v>
       </c>
       <c r="D22" t="n">
-        <v>83900</v>
+        <v>84350</v>
       </c>
       <c r="E22" t="n">
-        <v>83900</v>
+        <v>84200</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02</v>
+        <v>2.5855</v>
       </c>
       <c r="G22" t="n">
-        <v>83916.66666666667</v>
+        <v>-62.85179679000004</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83900</v>
+        <v>84000</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
@@ -1292,30 +1298,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83900</v>
+        <v>84650</v>
       </c>
       <c r="C23" t="n">
-        <v>83850</v>
+        <v>85500</v>
       </c>
       <c r="D23" t="n">
-        <v>83900</v>
+        <v>85500</v>
       </c>
       <c r="E23" t="n">
-        <v>83850</v>
+        <v>84650</v>
       </c>
       <c r="F23" t="n">
-        <v>15.4439</v>
+        <v>51.5812</v>
       </c>
       <c r="G23" t="n">
-        <v>83883.33333333333</v>
+        <v>-11.27059679000004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>84350</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1332,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83850</v>
+        <v>85200</v>
       </c>
       <c r="C24" t="n">
-        <v>83850</v>
+        <v>85100</v>
       </c>
       <c r="D24" t="n">
-        <v>83850</v>
+        <v>85200</v>
       </c>
       <c r="E24" t="n">
-        <v>83850</v>
+        <v>85100</v>
       </c>
       <c r="F24" t="n">
-        <v>9.7774</v>
+        <v>0.2544</v>
       </c>
       <c r="G24" t="n">
-        <v>83866.66666666667</v>
+        <v>-11.52499679000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1372,32 +1380,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84000</v>
+        <v>84700</v>
       </c>
       <c r="C25" t="n">
-        <v>84350</v>
+        <v>84650</v>
       </c>
       <c r="D25" t="n">
-        <v>84350</v>
+        <v>84700</v>
       </c>
       <c r="E25" t="n">
-        <v>84000</v>
+        <v>84650</v>
       </c>
       <c r="F25" t="n">
-        <v>2.37190278</v>
+        <v>0.7876</v>
       </c>
       <c r="G25" t="n">
-        <v>84016.66666666667</v>
+        <v>-12.31259679000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>83850</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1414,22 +1420,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>84800</v>
+        <v>84700</v>
       </c>
       <c r="C26" t="n">
-        <v>84800</v>
+        <v>84550</v>
       </c>
       <c r="D26" t="n">
-        <v>84800</v>
+        <v>84700</v>
       </c>
       <c r="E26" t="n">
-        <v>84800</v>
+        <v>84550</v>
       </c>
       <c r="F26" t="n">
-        <v>0.216</v>
+        <v>0.2496</v>
       </c>
       <c r="G26" t="n">
-        <v>84333.33333333333</v>
+        <v>-12.56219679000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1454,22 +1460,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="C27" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="D27" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="E27" t="n">
-        <v>85000</v>
+        <v>84700</v>
       </c>
       <c r="F27" t="n">
-        <v>14.285</v>
+        <v>0.2578</v>
       </c>
       <c r="G27" t="n">
-        <v>84716.66666666667</v>
+        <v>-12.30439679000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1494,22 +1500,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>85050</v>
+        <v>84600</v>
       </c>
       <c r="C28" t="n">
-        <v>84700</v>
+        <v>84600</v>
       </c>
       <c r="D28" t="n">
-        <v>85050</v>
+        <v>84600</v>
       </c>
       <c r="E28" t="n">
-        <v>84700</v>
+        <v>84600</v>
       </c>
       <c r="F28" t="n">
-        <v>8.9139</v>
+        <v>0.1394</v>
       </c>
       <c r="G28" t="n">
-        <v>84833.33333333333</v>
+        <v>-12.44379679000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1534,22 +1540,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="C29" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="D29" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="E29" t="n">
-        <v>85000</v>
+        <v>84950</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02</v>
+        <v>0.3856</v>
       </c>
       <c r="G29" t="n">
-        <v>84900</v>
+        <v>-12.05819679000004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1574,22 +1580,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>85300</v>
+        <v>85000</v>
       </c>
       <c r="C30" t="n">
-        <v>85200</v>
+        <v>84950</v>
       </c>
       <c r="D30" t="n">
-        <v>85300</v>
+        <v>85000</v>
       </c>
       <c r="E30" t="n">
-        <v>84900</v>
+        <v>84950</v>
       </c>
       <c r="F30" t="n">
-        <v>11.3137</v>
+        <v>7.4815</v>
       </c>
       <c r="G30" t="n">
-        <v>84966.66666666667</v>
+        <v>-12.05819679000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1614,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>85150</v>
+        <v>84900</v>
       </c>
       <c r="C31" t="n">
-        <v>85200</v>
+        <v>84900</v>
       </c>
       <c r="D31" t="n">
-        <v>85200</v>
+        <v>84900</v>
       </c>
       <c r="E31" t="n">
-        <v>85150</v>
+        <v>84900</v>
       </c>
       <c r="F31" t="n">
-        <v>1.7322</v>
+        <v>12.5471</v>
       </c>
       <c r="G31" t="n">
-        <v>85133.33333333333</v>
+        <v>-24.60529679000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1654,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="C32" t="n">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="D32" t="n">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="E32" t="n">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="F32" t="n">
-        <v>3.5378</v>
+        <v>0.1421</v>
       </c>
       <c r="G32" t="n">
-        <v>85200</v>
+        <v>-24.46319679000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1694,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84950</v>
+        <v>84650</v>
       </c>
       <c r="C33" t="n">
-        <v>84950</v>
+        <v>84650</v>
       </c>
       <c r="D33" t="n">
-        <v>84950</v>
+        <v>84650</v>
       </c>
       <c r="E33" t="n">
-        <v>84950</v>
+        <v>84650</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6372</v>
+        <v>0.5477</v>
       </c>
       <c r="G33" t="n">
-        <v>85116.66666666667</v>
+        <v>-25.01089679000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1734,22 +1740,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="C34" t="n">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="D34" t="n">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="E34" t="n">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="F34" t="n">
-        <v>1.566</v>
+        <v>0.51</v>
       </c>
       <c r="G34" t="n">
-        <v>85083.33333333333</v>
+        <v>-24.50089679000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1774,22 +1780,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>85050</v>
+        <v>85200</v>
       </c>
       <c r="C35" t="n">
-        <v>85050</v>
+        <v>85200</v>
       </c>
       <c r="D35" t="n">
-        <v>85050</v>
+        <v>85200</v>
       </c>
       <c r="E35" t="n">
-        <v>85050</v>
+        <v>85200</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1297</v>
+        <v>0.3366</v>
       </c>
       <c r="G35" t="n">
-        <v>85033.33333333333</v>
+        <v>-24.16429679000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1814,22 +1820,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84950</v>
+        <v>84250</v>
       </c>
       <c r="C36" t="n">
-        <v>85000</v>
+        <v>83850</v>
       </c>
       <c r="D36" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="E36" t="n">
-        <v>84950</v>
+        <v>83850</v>
       </c>
       <c r="F36" t="n">
-        <v>20.6859</v>
+        <v>21.7982</v>
       </c>
       <c r="G36" t="n">
-        <v>85050</v>
+        <v>-45.96249679000004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1854,22 +1860,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="C37" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="D37" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="E37" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="F37" t="n">
-        <v>3.2021</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>85016.66666666667</v>
+        <v>-45.86249679000004</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1894,22 +1900,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="C38" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="D38" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="E38" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="F38" t="n">
-        <v>59.6359</v>
+        <v>20.6</v>
       </c>
       <c r="G38" t="n">
-        <v>85000</v>
+        <v>-66.46249679000005</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1934,22 +1940,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="C39" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="D39" t="n">
-        <v>85000</v>
+        <v>84150</v>
       </c>
       <c r="E39" t="n">
-        <v>84850</v>
+        <v>84150</v>
       </c>
       <c r="F39" t="n">
-        <v>33.3414</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>85000</v>
+        <v>-64.46249679000005</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1974,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84900</v>
+        <v>84250</v>
       </c>
       <c r="C40" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="D40" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="E40" t="n">
-        <v>84900</v>
+        <v>84250</v>
       </c>
       <c r="F40" t="n">
-        <v>50.8041</v>
+        <v>6.7637</v>
       </c>
       <c r="G40" t="n">
-        <v>85000</v>
+        <v>-57.69879679000005</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2014,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="C41" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="D41" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="E41" t="n">
-        <v>85000</v>
+        <v>84250</v>
       </c>
       <c r="F41" t="n">
-        <v>18.9303</v>
+        <v>0.7307</v>
       </c>
       <c r="G41" t="n">
-        <v>85000</v>
+        <v>-57.69879679000005</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2054,22 +2060,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84950</v>
+        <v>84050</v>
       </c>
       <c r="C42" t="n">
-        <v>84950</v>
+        <v>84050</v>
       </c>
       <c r="D42" t="n">
-        <v>84950</v>
+        <v>84050</v>
       </c>
       <c r="E42" t="n">
-        <v>84950</v>
+        <v>84050</v>
       </c>
       <c r="F42" t="n">
-        <v>18.0179</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>84983.33333333333</v>
+        <v>-63.69879679000005</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2094,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84950</v>
+        <v>84000</v>
       </c>
       <c r="C43" t="n">
-        <v>84950</v>
+        <v>84000</v>
       </c>
       <c r="D43" t="n">
-        <v>84950</v>
+        <v>84000</v>
       </c>
       <c r="E43" t="n">
-        <v>84950</v>
+        <v>84000</v>
       </c>
       <c r="F43" t="n">
-        <v>39.0358</v>
+        <v>5.9646</v>
       </c>
       <c r="G43" t="n">
-        <v>84966.66666666667</v>
+        <v>-69.66339679000005</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2134,22 +2140,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84950</v>
+        <v>84200</v>
       </c>
       <c r="C44" t="n">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="D44" t="n">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="E44" t="n">
-        <v>84950</v>
+        <v>84200</v>
       </c>
       <c r="F44" t="n">
-        <v>3.2041</v>
+        <v>0.02</v>
       </c>
       <c r="G44" t="n">
-        <v>84966.66666666667</v>
+        <v>-69.64339679000005</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2174,22 +2180,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="C45" t="n">
-        <v>85000</v>
+        <v>84350</v>
       </c>
       <c r="D45" t="n">
-        <v>85000</v>
+        <v>84350</v>
       </c>
       <c r="E45" t="n">
-        <v>85000</v>
+        <v>84000</v>
       </c>
       <c r="F45" t="n">
-        <v>17.0384</v>
+        <v>7.9836</v>
       </c>
       <c r="G45" t="n">
-        <v>84983.33333333333</v>
+        <v>-61.65979679000005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2214,22 +2220,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="C46" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="D46" t="n">
-        <v>85250</v>
+        <v>84100</v>
       </c>
       <c r="E46" t="n">
-        <v>85000</v>
+        <v>84100</v>
       </c>
       <c r="F46" t="n">
-        <v>31.9121</v>
+        <v>0.6021</v>
       </c>
       <c r="G46" t="n">
-        <v>85000</v>
+        <v>-62.26189679000005</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2254,22 +2260,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85600</v>
+        <v>83750</v>
       </c>
       <c r="C47" t="n">
-        <v>85600</v>
+        <v>83750</v>
       </c>
       <c r="D47" t="n">
-        <v>85600</v>
+        <v>83750</v>
       </c>
       <c r="E47" t="n">
-        <v>85600</v>
+        <v>83750</v>
       </c>
       <c r="F47" t="n">
-        <v>0.233</v>
+        <v>0.1328</v>
       </c>
       <c r="G47" t="n">
-        <v>85200</v>
+        <v>-62.39469679000005</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2294,22 +2300,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>85700</v>
+        <v>83500</v>
       </c>
       <c r="C48" t="n">
-        <v>85750</v>
+        <v>83500</v>
       </c>
       <c r="D48" t="n">
-        <v>85750</v>
+        <v>83500</v>
       </c>
       <c r="E48" t="n">
-        <v>85700</v>
+        <v>83500</v>
       </c>
       <c r="F48" t="n">
-        <v>2.5689</v>
+        <v>0.7302</v>
       </c>
       <c r="G48" t="n">
-        <v>85450</v>
+        <v>-63.12489679000005</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2334,22 +2340,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85800</v>
+        <v>83300</v>
       </c>
       <c r="C49" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="D49" t="n">
-        <v>85800</v>
+        <v>83300</v>
       </c>
       <c r="E49" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2.6735</v>
       </c>
       <c r="G49" t="n">
-        <v>85716.66666666667</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2374,22 +2380,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="C50" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="D50" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="E50" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="F50" t="n">
-        <v>11.6414</v>
+        <v>15.2742</v>
       </c>
       <c r="G50" t="n">
-        <v>85816.66666666667</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2414,22 +2420,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>85950</v>
+        <v>83250</v>
       </c>
       <c r="C51" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="D51" t="n">
-        <v>85950</v>
+        <v>83250</v>
       </c>
       <c r="E51" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="F51" t="n">
-        <v>7.5797</v>
+        <v>27.8011</v>
       </c>
       <c r="G51" t="n">
-        <v>85833.33333333333</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2454,22 +2460,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="C52" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="D52" t="n">
-        <v>85900</v>
+        <v>83250</v>
       </c>
       <c r="E52" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="F52" t="n">
-        <v>6.8198</v>
+        <v>0.395</v>
       </c>
       <c r="G52" t="n">
-        <v>85833.33333333333</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2494,22 +2500,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="C53" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="D53" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="E53" t="n">
-        <v>85800</v>
+        <v>83250</v>
       </c>
       <c r="F53" t="n">
-        <v>2.3283</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>85800</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2534,22 +2540,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>86000</v>
+        <v>83250</v>
       </c>
       <c r="C54" t="n">
-        <v>86200</v>
+        <v>83250</v>
       </c>
       <c r="D54" t="n">
-        <v>86200</v>
+        <v>83250</v>
       </c>
       <c r="E54" t="n">
-        <v>85950</v>
+        <v>83250</v>
       </c>
       <c r="F54" t="n">
-        <v>14.2592</v>
+        <v>2.3265</v>
       </c>
       <c r="G54" t="n">
-        <v>85933.33333333333</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2574,22 +2580,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>86300</v>
+        <v>83250</v>
       </c>
       <c r="C55" t="n">
-        <v>86300</v>
+        <v>83250</v>
       </c>
       <c r="D55" t="n">
-        <v>86300</v>
+        <v>83350</v>
       </c>
       <c r="E55" t="n">
-        <v>86300</v>
+        <v>83250</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>28.6821</v>
       </c>
       <c r="G55" t="n">
-        <v>86100</v>
+        <v>-65.79839679000006</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2614,22 +2620,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>86350</v>
+        <v>83750</v>
       </c>
       <c r="C56" t="n">
-        <v>86800</v>
+        <v>83750</v>
       </c>
       <c r="D56" t="n">
-        <v>86800</v>
+        <v>83750</v>
       </c>
       <c r="E56" t="n">
-        <v>86350</v>
+        <v>83750</v>
       </c>
       <c r="F56" t="n">
-        <v>44.02</v>
+        <v>1.5056</v>
       </c>
       <c r="G56" t="n">
-        <v>86433.33333333333</v>
+        <v>-64.29279679000005</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2654,22 +2660,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="C57" t="n">
-        <v>87000</v>
+        <v>83750</v>
       </c>
       <c r="D57" t="n">
-        <v>87000</v>
+        <v>83750</v>
       </c>
       <c r="E57" t="n">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="F57" t="n">
-        <v>10.6416</v>
+        <v>34.414</v>
       </c>
       <c r="G57" t="n">
-        <v>86700</v>
+        <v>-64.29279679000005</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2694,22 +2700,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>87000</v>
+        <v>83750</v>
       </c>
       <c r="C58" t="n">
-        <v>87300</v>
+        <v>83700</v>
       </c>
       <c r="D58" t="n">
-        <v>87300</v>
+        <v>83750</v>
       </c>
       <c r="E58" t="n">
-        <v>87000</v>
+        <v>83700</v>
       </c>
       <c r="F58" t="n">
-        <v>35.8276</v>
+        <v>19.9117</v>
       </c>
       <c r="G58" t="n">
-        <v>87033.33333333333</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2734,22 +2740,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>87300</v>
+        <v>83700</v>
       </c>
       <c r="C59" t="n">
-        <v>87300</v>
+        <v>83700</v>
       </c>
       <c r="D59" t="n">
-        <v>87300</v>
+        <v>83700</v>
       </c>
       <c r="E59" t="n">
-        <v>87300</v>
+        <v>83700</v>
       </c>
       <c r="F59" t="n">
-        <v>22.0417</v>
+        <v>17.061</v>
       </c>
       <c r="G59" t="n">
-        <v>87200</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2774,22 +2780,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>87500</v>
+        <v>83700</v>
       </c>
       <c r="C60" t="n">
-        <v>87700</v>
+        <v>83700</v>
       </c>
       <c r="D60" t="n">
-        <v>87700</v>
+        <v>83800</v>
       </c>
       <c r="E60" t="n">
-        <v>87500</v>
+        <v>83700</v>
       </c>
       <c r="F60" t="n">
-        <v>12.5022</v>
+        <v>11.14566396</v>
       </c>
       <c r="G60" t="n">
-        <v>87433.33333333333</v>
+        <v>-84.20449679000005</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2814,22 +2820,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>87750</v>
+        <v>83700</v>
       </c>
       <c r="C61" t="n">
-        <v>87750</v>
+        <v>83800</v>
       </c>
       <c r="D61" t="n">
-        <v>87750</v>
+        <v>83800</v>
       </c>
       <c r="E61" t="n">
-        <v>87750</v>
+        <v>83700</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5236</v>
+        <v>20.10333604</v>
       </c>
       <c r="G61" t="n">
-        <v>87583.33333333333</v>
+        <v>-64.10116075000005</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2854,22 +2860,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>87700</v>
+        <v>83700</v>
       </c>
       <c r="C62" t="n">
-        <v>87700</v>
+        <v>83700</v>
       </c>
       <c r="D62" t="n">
-        <v>87700</v>
+        <v>83700</v>
       </c>
       <c r="E62" t="n">
-        <v>87700</v>
+        <v>83700</v>
       </c>
       <c r="F62" t="n">
-        <v>17.5711</v>
+        <v>2.7156</v>
       </c>
       <c r="G62" t="n">
-        <v>87716.66666666667</v>
+        <v>-66.81676075000004</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2894,22 +2900,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87900</v>
+        <v>83850</v>
       </c>
       <c r="C63" t="n">
-        <v>88050</v>
+        <v>83950</v>
       </c>
       <c r="D63" t="n">
-        <v>88050</v>
+        <v>83950</v>
       </c>
       <c r="E63" t="n">
-        <v>87900</v>
+        <v>83850</v>
       </c>
       <c r="F63" t="n">
-        <v>28.3839</v>
+        <v>13.1864</v>
       </c>
       <c r="G63" t="n">
-        <v>87833.33333333333</v>
+        <v>-53.63036075000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2934,37 +2940,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>88050</v>
+        <v>83950</v>
       </c>
       <c r="C64" t="n">
-        <v>88100</v>
+        <v>83950</v>
       </c>
       <c r="D64" t="n">
-        <v>88100</v>
+        <v>83950</v>
       </c>
       <c r="E64" t="n">
-        <v>88050</v>
+        <v>83950</v>
       </c>
       <c r="F64" t="n">
-        <v>28.622</v>
+        <v>0.8189</v>
       </c>
       <c r="G64" t="n">
-        <v>87950</v>
+        <v>-53.63036075000004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
       <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2972,32 +2980,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>88100</v>
+        <v>84300</v>
       </c>
       <c r="C65" t="n">
-        <v>88100</v>
+        <v>84300</v>
       </c>
       <c r="D65" t="n">
-        <v>88100</v>
+        <v>84300</v>
       </c>
       <c r="E65" t="n">
-        <v>88100</v>
+        <v>84300</v>
       </c>
       <c r="F65" t="n">
-        <v>22.2725</v>
+        <v>69.1673</v>
       </c>
       <c r="G65" t="n">
-        <v>88083.33333333333</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3008,32 +3020,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>87850</v>
+        <v>84300</v>
       </c>
       <c r="C66" t="n">
-        <v>87750</v>
+        <v>84300</v>
       </c>
       <c r="D66" t="n">
-        <v>87850</v>
+        <v>84300</v>
       </c>
       <c r="E66" t="n">
-        <v>87550</v>
+        <v>84300</v>
       </c>
       <c r="F66" t="n">
-        <v>11.0046</v>
+        <v>1.0053</v>
       </c>
       <c r="G66" t="n">
-        <v>87983.33333333333</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3044,32 +3060,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>87750</v>
+        <v>84300</v>
       </c>
       <c r="C67" t="n">
-        <v>87750</v>
+        <v>84300</v>
       </c>
       <c r="D67" t="n">
-        <v>87750</v>
+        <v>84300</v>
       </c>
       <c r="E67" t="n">
-        <v>87750</v>
+        <v>84300</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4286</v>
+        <v>0.383</v>
       </c>
       <c r="G67" t="n">
-        <v>87866.66666666667</v>
+        <v>15.53693924999995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3080,32 +3100,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>87800</v>
+        <v>84000</v>
       </c>
       <c r="C68" t="n">
-        <v>87800</v>
+        <v>84000</v>
       </c>
       <c r="D68" t="n">
-        <v>87800</v>
+        <v>84000</v>
       </c>
       <c r="E68" t="n">
-        <v>87800</v>
+        <v>84000</v>
       </c>
       <c r="F68" t="n">
-        <v>2.2719</v>
+        <v>3.9244</v>
       </c>
       <c r="G68" t="n">
-        <v>87766.66666666667</v>
+        <v>11.61253924999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3116,32 +3140,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>87850</v>
+        <v>83950</v>
       </c>
       <c r="C69" t="n">
-        <v>87850</v>
+        <v>83900</v>
       </c>
       <c r="D69" t="n">
-        <v>87850</v>
+        <v>83950</v>
       </c>
       <c r="E69" t="n">
-        <v>87850</v>
+        <v>83900</v>
       </c>
       <c r="F69" t="n">
-        <v>1.694</v>
+        <v>0.704</v>
       </c>
       <c r="G69" t="n">
-        <v>87800</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3152,32 +3180,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>87950</v>
+        <v>83900</v>
       </c>
       <c r="C70" t="n">
-        <v>87750</v>
+        <v>83900</v>
       </c>
       <c r="D70" t="n">
-        <v>87950</v>
+        <v>83900</v>
       </c>
       <c r="E70" t="n">
-        <v>87750</v>
+        <v>83900</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04</v>
+        <v>0.1427</v>
       </c>
       <c r="G70" t="n">
-        <v>87800</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3188,32 +3220,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>87750</v>
+        <v>83900</v>
       </c>
       <c r="C71" t="n">
-        <v>87550</v>
+        <v>83900</v>
       </c>
       <c r="D71" t="n">
-        <v>87750</v>
+        <v>83900</v>
       </c>
       <c r="E71" t="n">
-        <v>87550</v>
+        <v>83900</v>
       </c>
       <c r="F71" t="n">
-        <v>28.3278</v>
+        <v>0.1135</v>
       </c>
       <c r="G71" t="n">
-        <v>87716.66666666667</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3224,32 +3260,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87600</v>
+        <v>83900</v>
       </c>
       <c r="C72" t="n">
-        <v>87400</v>
+        <v>83900</v>
       </c>
       <c r="D72" t="n">
-        <v>87600</v>
+        <v>83900</v>
       </c>
       <c r="E72" t="n">
-        <v>87400</v>
+        <v>83900</v>
       </c>
       <c r="F72" t="n">
-        <v>9.299899999999999</v>
+        <v>0.0568</v>
       </c>
       <c r="G72" t="n">
-        <v>87566.66666666667</v>
+        <v>10.90853924999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3260,32 +3300,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87600</v>
+        <v>83750</v>
       </c>
       <c r="C73" t="n">
-        <v>87600</v>
+        <v>83750</v>
       </c>
       <c r="D73" t="n">
-        <v>87600</v>
+        <v>83750</v>
       </c>
       <c r="E73" t="n">
-        <v>87600</v>
+        <v>83750</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0239726</v>
+        <v>0.11940298</v>
       </c>
       <c r="G73" t="n">
-        <v>87516.66666666667</v>
+        <v>10.78913626999995</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3296,32 +3340,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87450</v>
+        <v>83600</v>
       </c>
       <c r="C74" t="n">
-        <v>87450</v>
+        <v>83600</v>
       </c>
       <c r="D74" t="n">
-        <v>87450</v>
+        <v>83600</v>
       </c>
       <c r="E74" t="n">
-        <v>87450</v>
+        <v>83600</v>
       </c>
       <c r="F74" t="n">
-        <v>4.34</v>
+        <v>0.0569</v>
       </c>
       <c r="G74" t="n">
-        <v>87483.33333333333</v>
+        <v>10.73223626999995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3332,32 +3380,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87450</v>
+        <v>83300</v>
       </c>
       <c r="C75" t="n">
-        <v>87450</v>
+        <v>83200</v>
       </c>
       <c r="D75" t="n">
-        <v>87450</v>
+        <v>83300</v>
       </c>
       <c r="E75" t="n">
-        <v>87450</v>
+        <v>83200</v>
       </c>
       <c r="F75" t="n">
-        <v>10.1555</v>
+        <v>0.5154</v>
       </c>
       <c r="G75" t="n">
-        <v>87500</v>
+        <v>10.21683626999995</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3368,32 +3420,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87450</v>
+        <v>82900</v>
       </c>
       <c r="C76" t="n">
-        <v>87450</v>
+        <v>82900</v>
       </c>
       <c r="D76" t="n">
-        <v>87450</v>
+        <v>82900</v>
       </c>
       <c r="E76" t="n">
-        <v>87450</v>
+        <v>82900</v>
       </c>
       <c r="F76" t="n">
-        <v>1.5676</v>
+        <v>1.7793</v>
       </c>
       <c r="G76" t="n">
-        <v>87450</v>
+        <v>8.437536269999953</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3404,32 +3460,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>87400</v>
+        <v>82700</v>
       </c>
       <c r="C77" t="n">
-        <v>87400</v>
+        <v>82750</v>
       </c>
       <c r="D77" t="n">
-        <v>87400</v>
+        <v>82750</v>
       </c>
       <c r="E77" t="n">
-        <v>87400</v>
+        <v>82700</v>
       </c>
       <c r="F77" t="n">
-        <v>6.2234</v>
+        <v>4.8099</v>
       </c>
       <c r="G77" t="n">
-        <v>87433.33333333333</v>
+        <v>3.627636269999953</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3440,32 +3500,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>86900</v>
+        <v>82900</v>
       </c>
       <c r="C78" t="n">
-        <v>86900</v>
+        <v>82850</v>
       </c>
       <c r="D78" t="n">
-        <v>86900</v>
+        <v>82900</v>
       </c>
       <c r="E78" t="n">
-        <v>86900</v>
+        <v>82850</v>
       </c>
       <c r="F78" t="n">
-        <v>9.3634</v>
+        <v>8.5708</v>
       </c>
       <c r="G78" t="n">
-        <v>87250</v>
+        <v>12.19843626999995</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3476,32 +3540,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>86750</v>
+        <v>82700</v>
       </c>
       <c r="C79" t="n">
-        <v>86750</v>
+        <v>82700</v>
       </c>
       <c r="D79" t="n">
-        <v>86750</v>
+        <v>82700</v>
       </c>
       <c r="E79" t="n">
-        <v>86750</v>
+        <v>82700</v>
       </c>
       <c r="F79" t="n">
-        <v>4.34</v>
+        <v>0.6795</v>
       </c>
       <c r="G79" t="n">
-        <v>87016.66666666667</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3512,32 +3580,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>86800</v>
+        <v>82700</v>
       </c>
       <c r="C80" t="n">
-        <v>86800</v>
+        <v>82700</v>
       </c>
       <c r="D80" t="n">
-        <v>86800</v>
+        <v>82700</v>
       </c>
       <c r="E80" t="n">
-        <v>86800</v>
+        <v>82700</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>1.547</v>
       </c>
       <c r="G80" t="n">
-        <v>86816.66666666667</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3548,32 +3620,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>86550</v>
+        <v>82700</v>
       </c>
       <c r="C81" t="n">
-        <v>86550</v>
+        <v>82700</v>
       </c>
       <c r="D81" t="n">
-        <v>86550</v>
+        <v>82700</v>
       </c>
       <c r="E81" t="n">
-        <v>86550</v>
+        <v>82700</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1546967</v>
+        <v>5.1912</v>
       </c>
       <c r="G81" t="n">
-        <v>86700</v>
+        <v>11.51893626999995</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3584,32 +3660,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>86250</v>
+        <v>82600</v>
       </c>
       <c r="C82" t="n">
-        <v>86150</v>
+        <v>82600</v>
       </c>
       <c r="D82" t="n">
-        <v>86250</v>
+        <v>82600</v>
       </c>
       <c r="E82" t="n">
-        <v>86150</v>
+        <v>82600</v>
       </c>
       <c r="F82" t="n">
-        <v>0.24</v>
+        <v>0.4619</v>
       </c>
       <c r="G82" t="n">
-        <v>86500</v>
+        <v>11.05703626999995</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3620,32 +3700,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>86150</v>
+        <v>82950</v>
       </c>
       <c r="C83" t="n">
-        <v>86150</v>
+        <v>82950</v>
       </c>
       <c r="D83" t="n">
-        <v>86150</v>
+        <v>82950</v>
       </c>
       <c r="E83" t="n">
-        <v>86150</v>
+        <v>82950</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5543</v>
+        <v>0.1405</v>
       </c>
       <c r="G83" t="n">
-        <v>86283.33333333333</v>
+        <v>11.19753626999995</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3656,32 +3740,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>86250</v>
+        <v>83350</v>
       </c>
       <c r="C84" t="n">
-        <v>86250</v>
+        <v>83350</v>
       </c>
       <c r="D84" t="n">
-        <v>86250</v>
+        <v>83350</v>
       </c>
       <c r="E84" t="n">
-        <v>86250</v>
+        <v>83350</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1</v>
+        <v>0.0107</v>
       </c>
       <c r="G84" t="n">
-        <v>86183.33333333333</v>
+        <v>11.20823626999995</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3692,32 +3780,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85950</v>
+        <v>83550</v>
       </c>
       <c r="C85" t="n">
-        <v>85950</v>
+        <v>83750</v>
       </c>
       <c r="D85" t="n">
-        <v>85950</v>
+        <v>83750</v>
       </c>
       <c r="E85" t="n">
-        <v>85950</v>
+        <v>83550</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6104000000000001</v>
+        <v>3.58257946</v>
       </c>
       <c r="G85" t="n">
-        <v>86116.66666666667</v>
+        <v>14.79081572999995</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3728,32 +3820,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>85550</v>
+        <v>83800</v>
       </c>
       <c r="C86" t="n">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="D86" t="n">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="E86" t="n">
-        <v>85450</v>
+        <v>83800</v>
       </c>
       <c r="F86" t="n">
-        <v>50.1788</v>
+        <v>18.0179</v>
       </c>
       <c r="G86" t="n">
-        <v>86000</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3764,32 +3860,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85650</v>
+        <v>83800</v>
       </c>
       <c r="C87" t="n">
-        <v>85650</v>
+        <v>83800</v>
       </c>
       <c r="D87" t="n">
-        <v>85650</v>
+        <v>83800</v>
       </c>
       <c r="E87" t="n">
-        <v>85650</v>
+        <v>83800</v>
       </c>
       <c r="F87" t="n">
-        <v>15.0475</v>
+        <v>0.6575</v>
       </c>
       <c r="G87" t="n">
-        <v>85800</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3800,32 +3900,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>85750</v>
+        <v>83800</v>
       </c>
       <c r="C88" t="n">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="D88" t="n">
-        <v>85800</v>
+        <v>83800</v>
       </c>
       <c r="E88" t="n">
-        <v>85750</v>
+        <v>83800</v>
       </c>
       <c r="F88" t="n">
-        <v>15.5115</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>85750</v>
+        <v>32.80871572999995</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3836,22 +3940,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>85700</v>
+        <v>83850</v>
       </c>
       <c r="C89" t="n">
-        <v>85350</v>
+        <v>83850</v>
       </c>
       <c r="D89" t="n">
-        <v>85700</v>
+        <v>83850</v>
       </c>
       <c r="E89" t="n">
-        <v>85350</v>
+        <v>83850</v>
       </c>
       <c r="F89" t="n">
-        <v>3.641</v>
+        <v>0.4658</v>
       </c>
       <c r="G89" t="n">
-        <v>85600</v>
+        <v>33.27451572999995</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3861,7 +3965,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +3980,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>85300</v>
+        <v>83950</v>
       </c>
       <c r="C90" t="n">
-        <v>85300</v>
+        <v>83950</v>
       </c>
       <c r="D90" t="n">
-        <v>85600</v>
+        <v>83950</v>
       </c>
       <c r="E90" t="n">
-        <v>85300</v>
+        <v>83950</v>
       </c>
       <c r="F90" t="n">
-        <v>2.515</v>
+        <v>1.0053</v>
       </c>
       <c r="G90" t="n">
-        <v>85483.33333333333</v>
+        <v>34.27981572999995</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3897,7 +4005,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +4020,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85050</v>
+        <v>83950</v>
       </c>
       <c r="C91" t="n">
-        <v>85000</v>
+        <v>83950</v>
       </c>
       <c r="D91" t="n">
-        <v>85050</v>
+        <v>83950</v>
       </c>
       <c r="E91" t="n">
-        <v>85000</v>
+        <v>83950</v>
       </c>
       <c r="F91" t="n">
-        <v>45.1426</v>
+        <v>0.193</v>
       </c>
       <c r="G91" t="n">
-        <v>85216.66666666667</v>
+        <v>34.27981572999995</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3933,7 +4045,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3944,22 +4060,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>85050</v>
+        <v>83900</v>
       </c>
       <c r="C92" t="n">
-        <v>85300</v>
+        <v>83900</v>
       </c>
       <c r="D92" t="n">
-        <v>85300</v>
+        <v>83900</v>
       </c>
       <c r="E92" t="n">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="F92" t="n">
-        <v>9.209199999999999</v>
+        <v>7.9059</v>
       </c>
       <c r="G92" t="n">
-        <v>85200</v>
+        <v>26.37391572999995</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3969,7 +4085,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3980,22 +4100,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="C93" t="n">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="D93" t="n">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="E93" t="n">
-        <v>85400</v>
+        <v>83900</v>
       </c>
       <c r="F93" t="n">
-        <v>2.7885</v>
+        <v>0.02</v>
       </c>
       <c r="G93" t="n">
-        <v>85233.33333333333</v>
+        <v>26.37391572999995</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4005,7 +4125,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +4140,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>85500</v>
+        <v>83900</v>
       </c>
       <c r="C94" t="n">
-        <v>85500</v>
+        <v>83850</v>
       </c>
       <c r="D94" t="n">
-        <v>85500</v>
+        <v>83900</v>
       </c>
       <c r="E94" t="n">
-        <v>85500</v>
+        <v>83850</v>
       </c>
       <c r="F94" t="n">
-        <v>1.7</v>
+        <v>15.4439</v>
       </c>
       <c r="G94" t="n">
-        <v>85400</v>
+        <v>10.93001572999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4041,7 +4165,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4052,22 +4180,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>85500</v>
+        <v>83850</v>
       </c>
       <c r="C95" t="n">
-        <v>85350</v>
+        <v>83850</v>
       </c>
       <c r="D95" t="n">
-        <v>85500</v>
+        <v>83850</v>
       </c>
       <c r="E95" t="n">
-        <v>85350</v>
+        <v>83850</v>
       </c>
       <c r="F95" t="n">
-        <v>3.0663</v>
+        <v>9.7774</v>
       </c>
       <c r="G95" t="n">
-        <v>85416.66666666667</v>
+        <v>10.93001572999995</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4077,7 +4205,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4220,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>85350</v>
+        <v>84000</v>
       </c>
       <c r="C96" t="n">
-        <v>85350</v>
+        <v>84350</v>
       </c>
       <c r="D96" t="n">
-        <v>85350</v>
+        <v>84350</v>
       </c>
       <c r="E96" t="n">
-        <v>85350</v>
+        <v>84000</v>
       </c>
       <c r="F96" t="n">
-        <v>11.5353</v>
+        <v>2.37190278</v>
       </c>
       <c r="G96" t="n">
-        <v>85400</v>
+        <v>13.30191850999995</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4113,7 +4245,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4260,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="C97" t="n">
-        <v>85450</v>
+        <v>84800</v>
       </c>
       <c r="D97" t="n">
-        <v>85450</v>
+        <v>84800</v>
       </c>
       <c r="E97" t="n">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="F97" t="n">
-        <v>21</v>
+        <v>0.216</v>
       </c>
       <c r="G97" t="n">
-        <v>85383.33333333333</v>
+        <v>13.51791850999995</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4149,7 +4285,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4160,22 +4300,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>85700</v>
+        <v>85000</v>
       </c>
       <c r="C98" t="n">
-        <v>85900</v>
+        <v>85000</v>
       </c>
       <c r="D98" t="n">
-        <v>85900</v>
+        <v>85000</v>
       </c>
       <c r="E98" t="n">
-        <v>85700</v>
+        <v>85000</v>
       </c>
       <c r="F98" t="n">
-        <v>0.455</v>
+        <v>14.285</v>
       </c>
       <c r="G98" t="n">
-        <v>85566.66666666667</v>
+        <v>27.80291850999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4185,7 +4325,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4340,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>85950</v>
+        <v>85050</v>
       </c>
       <c r="C99" t="n">
-        <v>85950</v>
+        <v>84700</v>
       </c>
       <c r="D99" t="n">
-        <v>85950</v>
+        <v>85050</v>
       </c>
       <c r="E99" t="n">
-        <v>85950</v>
+        <v>84700</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8339</v>
+        <v>8.9139</v>
       </c>
       <c r="G99" t="n">
-        <v>85766.66666666667</v>
+        <v>18.88901850999996</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4221,7 +4365,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4232,22 +4380,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>85950</v>
+        <v>85000</v>
       </c>
       <c r="C100" t="n">
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="D100" t="n">
-        <v>86000</v>
+        <v>85000</v>
       </c>
       <c r="E100" t="n">
-        <v>85950</v>
+        <v>85000</v>
       </c>
       <c r="F100" t="n">
-        <v>25.4209</v>
+        <v>0.02</v>
       </c>
       <c r="G100" t="n">
-        <v>85950</v>
+        <v>18.90901850999996</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4257,7 +4405,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4420,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>86000</v>
+        <v>85300</v>
       </c>
       <c r="C101" t="n">
-        <v>86000</v>
+        <v>85200</v>
       </c>
       <c r="D101" t="n">
-        <v>86000</v>
+        <v>85300</v>
       </c>
       <c r="E101" t="n">
-        <v>86000</v>
+        <v>84900</v>
       </c>
       <c r="F101" t="n">
-        <v>2.2698</v>
+        <v>11.3137</v>
       </c>
       <c r="G101" t="n">
-        <v>85983.33333333333</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4293,7 +4445,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4460,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>86150</v>
+        <v>85150</v>
       </c>
       <c r="C102" t="n">
-        <v>86150</v>
+        <v>85200</v>
       </c>
       <c r="D102" t="n">
-        <v>86150</v>
+        <v>85200</v>
       </c>
       <c r="E102" t="n">
-        <v>86150</v>
+        <v>85150</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5669</v>
+        <v>1.7322</v>
       </c>
       <c r="G102" t="n">
-        <v>86050</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4329,7 +4485,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4500,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>86100</v>
+        <v>85200</v>
       </c>
       <c r="C103" t="n">
-        <v>86100</v>
+        <v>85200</v>
       </c>
       <c r="D103" t="n">
-        <v>86100</v>
+        <v>85200</v>
       </c>
       <c r="E103" t="n">
-        <v>86100</v>
+        <v>85200</v>
       </c>
       <c r="F103" t="n">
-        <v>20.8057</v>
+        <v>3.5378</v>
       </c>
       <c r="G103" t="n">
-        <v>86083.33333333333</v>
+        <v>30.22271850999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4365,7 +4525,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4540,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>86150</v>
+        <v>84950</v>
       </c>
       <c r="C104" t="n">
-        <v>86400</v>
+        <v>84950</v>
       </c>
       <c r="D104" t="n">
-        <v>86400</v>
+        <v>84950</v>
       </c>
       <c r="E104" t="n">
-        <v>86150</v>
+        <v>84950</v>
       </c>
       <c r="F104" t="n">
-        <v>2.3654</v>
+        <v>2.6372</v>
       </c>
       <c r="G104" t="n">
-        <v>86216.66666666667</v>
+        <v>27.58551850999996</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4401,7 +4565,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4580,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="C105" t="n">
-        <v>86150</v>
+        <v>85100</v>
       </c>
       <c r="D105" t="n">
-        <v>86150</v>
+        <v>85100</v>
       </c>
       <c r="E105" t="n">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="F105" t="n">
-        <v>24.5001</v>
+        <v>1.566</v>
       </c>
       <c r="G105" t="n">
-        <v>86216.66666666667</v>
+        <v>29.15151850999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4437,7 +4605,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4620,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>86050</v>
+        <v>85050</v>
       </c>
       <c r="C106" t="n">
-        <v>86050</v>
+        <v>85050</v>
       </c>
       <c r="D106" t="n">
-        <v>86050</v>
+        <v>85050</v>
       </c>
       <c r="E106" t="n">
-        <v>86050</v>
+        <v>85050</v>
       </c>
       <c r="F106" t="n">
-        <v>1.1757</v>
+        <v>0.1297</v>
       </c>
       <c r="G106" t="n">
-        <v>86200</v>
+        <v>29.02181850999996</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4473,7 +4645,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4660,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>86150</v>
+        <v>84950</v>
       </c>
       <c r="C107" t="n">
-        <v>86300</v>
+        <v>85000</v>
       </c>
       <c r="D107" t="n">
-        <v>86300</v>
+        <v>85000</v>
       </c>
       <c r="E107" t="n">
-        <v>86150</v>
+        <v>84950</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8682</v>
+        <v>20.6859</v>
       </c>
       <c r="G107" t="n">
-        <v>86166.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4509,7 +4685,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +4700,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="C108" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="D108" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="E108" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="F108" t="n">
-        <v>0.11534025</v>
+        <v>3.2021</v>
       </c>
       <c r="G108" t="n">
-        <v>86350</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4545,7 +4725,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4556,22 +4740,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="C109" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="D109" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="E109" t="n">
-        <v>86700</v>
+        <v>85000</v>
       </c>
       <c r="F109" t="n">
-        <v>36.6254</v>
+        <v>59.6359</v>
       </c>
       <c r="G109" t="n">
-        <v>86666.66666666667</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4581,7 +4765,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4592,22 +4780,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="C110" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="D110" t="n">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="E110" t="n">
-        <v>87000</v>
+        <v>84850</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05</v>
+        <v>33.3414</v>
       </c>
       <c r="G110" t="n">
-        <v>86900</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4617,7 +4805,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4628,22 +4820,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>86750</v>
+        <v>84900</v>
       </c>
       <c r="C111" t="n">
-        <v>86850</v>
+        <v>85000</v>
       </c>
       <c r="D111" t="n">
-        <v>86850</v>
+        <v>85000</v>
       </c>
       <c r="E111" t="n">
-        <v>86750</v>
+        <v>84900</v>
       </c>
       <c r="F111" t="n">
-        <v>23.28195958</v>
+        <v>50.8041</v>
       </c>
       <c r="G111" t="n">
-        <v>86950</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4653,7 +4845,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4664,22 +4860,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="C112" t="n">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="D112" t="n">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="E112" t="n">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="F112" t="n">
-        <v>0.669</v>
+        <v>18.9303</v>
       </c>
       <c r="G112" t="n">
-        <v>86650</v>
+        <v>8.335918509999956</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4689,7 +4885,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +4900,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85800</v>
+        <v>84950</v>
       </c>
       <c r="C113" t="n">
-        <v>85800</v>
+        <v>84950</v>
       </c>
       <c r="D113" t="n">
-        <v>85800</v>
+        <v>84950</v>
       </c>
       <c r="E113" t="n">
-        <v>85800</v>
+        <v>84950</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8</v>
+        <v>18.0179</v>
       </c>
       <c r="G113" t="n">
-        <v>86250</v>
+        <v>-9.681981490000044</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4725,11 +4925,2637 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>84950</v>
+      </c>
+      <c r="C114" t="n">
+        <v>84950</v>
+      </c>
+      <c r="D114" t="n">
+        <v>84950</v>
+      </c>
+      <c r="E114" t="n">
+        <v>84950</v>
+      </c>
+      <c r="F114" t="n">
+        <v>39.0358</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-9.681981490000044</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>84950</v>
+      </c>
+      <c r="C115" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E115" t="n">
+        <v>84950</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.2041</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-6.477881490000044</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17.0384</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-6.477881490000044</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>85000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>85250</v>
+      </c>
+      <c r="E117" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>31.9121</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-6.477881490000044</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>85600</v>
+      </c>
+      <c r="C118" t="n">
+        <v>85600</v>
+      </c>
+      <c r="D118" t="n">
+        <v>85600</v>
+      </c>
+      <c r="E118" t="n">
+        <v>85600</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-6.244881490000044</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C119" t="n">
+        <v>85750</v>
+      </c>
+      <c r="D119" t="n">
+        <v>85750</v>
+      </c>
+      <c r="E119" t="n">
+        <v>85700</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.5689</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3.675981490000044</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>85800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D120" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E120" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2.675981490000044</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>85900</v>
+      </c>
+      <c r="C121" t="n">
+        <v>85900</v>
+      </c>
+      <c r="D121" t="n">
+        <v>85900</v>
+      </c>
+      <c r="E121" t="n">
+        <v>85900</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11.6414</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8.965418509999957</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C122" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D122" t="n">
+        <v>85950</v>
+      </c>
+      <c r="E122" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7.5797</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.385718509999957</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>85900</v>
+      </c>
+      <c r="C123" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D123" t="n">
+        <v>85900</v>
+      </c>
+      <c r="E123" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6.8198</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.385718509999957</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>85800</v>
+      </c>
+      <c r="C124" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D124" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E124" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.3283</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.385718509999957</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>86200</v>
+      </c>
+      <c r="D125" t="n">
+        <v>86200</v>
+      </c>
+      <c r="E125" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14.2592</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15.64491850999996</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86300</v>
+      </c>
+      <c r="C126" t="n">
+        <v>86300</v>
+      </c>
+      <c r="D126" t="n">
+        <v>86300</v>
+      </c>
+      <c r="E126" t="n">
+        <v>86300</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>16.14491850999996</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>86350</v>
+      </c>
+      <c r="C127" t="n">
+        <v>86800</v>
+      </c>
+      <c r="D127" t="n">
+        <v>86800</v>
+      </c>
+      <c r="E127" t="n">
+        <v>86350</v>
+      </c>
+      <c r="F127" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="G127" t="n">
+        <v>60.16491850999996</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C128" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E128" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10.6416</v>
+      </c>
+      <c r="G128" t="n">
+        <v>70.80651850999996</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>87300</v>
+      </c>
+      <c r="D129" t="n">
+        <v>87300</v>
+      </c>
+      <c r="E129" t="n">
+        <v>87000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>35.8276</v>
+      </c>
+      <c r="G129" t="n">
+        <v>106.63411851</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>87300</v>
+      </c>
+      <c r="C130" t="n">
+        <v>87300</v>
+      </c>
+      <c r="D130" t="n">
+        <v>87300</v>
+      </c>
+      <c r="E130" t="n">
+        <v>87300</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22.0417</v>
+      </c>
+      <c r="G130" t="n">
+        <v>106.63411851</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>87500</v>
+      </c>
+      <c r="C131" t="n">
+        <v>87700</v>
+      </c>
+      <c r="D131" t="n">
+        <v>87700</v>
+      </c>
+      <c r="E131" t="n">
+        <v>87500</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12.5022</v>
+      </c>
+      <c r="G131" t="n">
+        <v>119.13631851</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>87750</v>
+      </c>
+      <c r="C132" t="n">
+        <v>87750</v>
+      </c>
+      <c r="D132" t="n">
+        <v>87750</v>
+      </c>
+      <c r="E132" t="n">
+        <v>87750</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5236</v>
+      </c>
+      <c r="G132" t="n">
+        <v>119.65991851</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>87700</v>
+      </c>
+      <c r="C133" t="n">
+        <v>87700</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87700</v>
+      </c>
+      <c r="E133" t="n">
+        <v>87700</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17.5711</v>
+      </c>
+      <c r="G133" t="n">
+        <v>102.08881851</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>87900</v>
+      </c>
+      <c r="C134" t="n">
+        <v>88050</v>
+      </c>
+      <c r="D134" t="n">
+        <v>88050</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87900</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28.3839</v>
+      </c>
+      <c r="G134" t="n">
+        <v>130.47271851</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>88050</v>
+      </c>
+      <c r="C135" t="n">
+        <v>88100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>88100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>88050</v>
+      </c>
+      <c r="F135" t="n">
+        <v>28.622</v>
+      </c>
+      <c r="G135" t="n">
+        <v>159.09471851</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>88100</v>
+      </c>
+      <c r="C136" t="n">
+        <v>88100</v>
+      </c>
+      <c r="D136" t="n">
+        <v>88100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>88100</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22.2725</v>
+      </c>
+      <c r="G136" t="n">
+        <v>159.09471851</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>87850</v>
+      </c>
+      <c r="C137" t="n">
+        <v>87750</v>
+      </c>
+      <c r="D137" t="n">
+        <v>87850</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87550</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11.0046</v>
+      </c>
+      <c r="G137" t="n">
+        <v>148.0901185099999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>87750</v>
+      </c>
+      <c r="C138" t="n">
+        <v>87750</v>
+      </c>
+      <c r="D138" t="n">
+        <v>87750</v>
+      </c>
+      <c r="E138" t="n">
+        <v>87750</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.4286</v>
+      </c>
+      <c r="G138" t="n">
+        <v>148.0901185099999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>87800</v>
+      </c>
+      <c r="C139" t="n">
+        <v>87800</v>
+      </c>
+      <c r="D139" t="n">
+        <v>87800</v>
+      </c>
+      <c r="E139" t="n">
+        <v>87800</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.2719</v>
+      </c>
+      <c r="G139" t="n">
+        <v>150.3620185099999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>87850</v>
+      </c>
+      <c r="C140" t="n">
+        <v>87850</v>
+      </c>
+      <c r="D140" t="n">
+        <v>87850</v>
+      </c>
+      <c r="E140" t="n">
+        <v>87850</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="G140" t="n">
+        <v>152.0560185099999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>87950</v>
+      </c>
+      <c r="C141" t="n">
+        <v>87750</v>
+      </c>
+      <c r="D141" t="n">
+        <v>87950</v>
+      </c>
+      <c r="E141" t="n">
+        <v>87750</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G141" t="n">
+        <v>152.0160185099999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>87750</v>
+      </c>
+      <c r="C142" t="n">
+        <v>87550</v>
+      </c>
+      <c r="D142" t="n">
+        <v>87750</v>
+      </c>
+      <c r="E142" t="n">
+        <v>87550</v>
+      </c>
+      <c r="F142" t="n">
+        <v>28.3278</v>
+      </c>
+      <c r="G142" t="n">
+        <v>123.6882185099999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>87600</v>
+      </c>
+      <c r="C143" t="n">
+        <v>87400</v>
+      </c>
+      <c r="D143" t="n">
+        <v>87600</v>
+      </c>
+      <c r="E143" t="n">
+        <v>87400</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9.299899999999999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>114.3883185099999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>87600</v>
+      </c>
+      <c r="C144" t="n">
+        <v>87600</v>
+      </c>
+      <c r="D144" t="n">
+        <v>87600</v>
+      </c>
+      <c r="E144" t="n">
+        <v>87600</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0239726</v>
+      </c>
+      <c r="G144" t="n">
+        <v>114.4122911099999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>87450</v>
+      </c>
+      <c r="C145" t="n">
+        <v>87450</v>
+      </c>
+      <c r="D145" t="n">
+        <v>87450</v>
+      </c>
+      <c r="E145" t="n">
+        <v>87450</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G145" t="n">
+        <v>110.0722911099999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>87450</v>
+      </c>
+      <c r="C146" t="n">
+        <v>87450</v>
+      </c>
+      <c r="D146" t="n">
+        <v>87450</v>
+      </c>
+      <c r="E146" t="n">
+        <v>87450</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10.1555</v>
+      </c>
+      <c r="G146" t="n">
+        <v>110.0722911099999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>87450</v>
+      </c>
+      <c r="C147" t="n">
+        <v>87450</v>
+      </c>
+      <c r="D147" t="n">
+        <v>87450</v>
+      </c>
+      <c r="E147" t="n">
+        <v>87450</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.5676</v>
+      </c>
+      <c r="G147" t="n">
+        <v>110.0722911099999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>87400</v>
+      </c>
+      <c r="C148" t="n">
+        <v>87400</v>
+      </c>
+      <c r="D148" t="n">
+        <v>87400</v>
+      </c>
+      <c r="E148" t="n">
+        <v>87400</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6.2234</v>
+      </c>
+      <c r="G148" t="n">
+        <v>103.8488911099999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86900</v>
+      </c>
+      <c r="C149" t="n">
+        <v>86900</v>
+      </c>
+      <c r="D149" t="n">
+        <v>86900</v>
+      </c>
+      <c r="E149" t="n">
+        <v>86900</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9.3634</v>
+      </c>
+      <c r="G149" t="n">
+        <v>94.48549110999993</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86750</v>
+      </c>
+      <c r="C150" t="n">
+        <v>86750</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86750</v>
+      </c>
+      <c r="E150" t="n">
+        <v>86750</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G150" t="n">
+        <v>90.14549110999992</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>86800</v>
+      </c>
+      <c r="C151" t="n">
+        <v>86800</v>
+      </c>
+      <c r="D151" t="n">
+        <v>86800</v>
+      </c>
+      <c r="E151" t="n">
+        <v>86800</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>94.14549110999992</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86550</v>
+      </c>
+      <c r="C152" t="n">
+        <v>86550</v>
+      </c>
+      <c r="D152" t="n">
+        <v>86550</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86550</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.1546967</v>
+      </c>
+      <c r="G152" t="n">
+        <v>92.99079440999992</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>86250</v>
+      </c>
+      <c r="C153" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86250</v>
+      </c>
+      <c r="E153" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G153" t="n">
+        <v>92.75079440999993</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C154" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D154" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E154" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.5543</v>
+      </c>
+      <c r="G154" t="n">
+        <v>92.75079440999993</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>86250</v>
+      </c>
+      <c r="C155" t="n">
+        <v>86250</v>
+      </c>
+      <c r="D155" t="n">
+        <v>86250</v>
+      </c>
+      <c r="E155" t="n">
+        <v>86250</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>92.85079440999992</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C156" t="n">
+        <v>85950</v>
+      </c>
+      <c r="D156" t="n">
+        <v>85950</v>
+      </c>
+      <c r="E156" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>92.24039440999992</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>85550</v>
+      </c>
+      <c r="C157" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D157" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E157" t="n">
+        <v>85450</v>
+      </c>
+      <c r="F157" t="n">
+        <v>50.1788</v>
+      </c>
+      <c r="G157" t="n">
+        <v>42.06159440999992</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>85650</v>
+      </c>
+      <c r="C158" t="n">
+        <v>85650</v>
+      </c>
+      <c r="D158" t="n">
+        <v>85650</v>
+      </c>
+      <c r="E158" t="n">
+        <v>85650</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15.0475</v>
+      </c>
+      <c r="G158" t="n">
+        <v>27.01409440999992</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>85750</v>
+      </c>
+      <c r="C159" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D159" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E159" t="n">
+        <v>85750</v>
+      </c>
+      <c r="F159" t="n">
+        <v>15.5115</v>
+      </c>
+      <c r="G159" t="n">
+        <v>42.52559440999992</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C160" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D160" t="n">
+        <v>85700</v>
+      </c>
+      <c r="E160" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="G160" t="n">
+        <v>38.88459440999992</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>85300</v>
+      </c>
+      <c r="C161" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D161" t="n">
+        <v>85600</v>
+      </c>
+      <c r="E161" t="n">
+        <v>85300</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="G161" t="n">
+        <v>36.36959440999992</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>85050</v>
+      </c>
+      <c r="C162" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>85050</v>
+      </c>
+      <c r="E162" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>45.1426</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-8.773005590000082</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>85050</v>
+      </c>
+      <c r="C163" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D163" t="n">
+        <v>85300</v>
+      </c>
+      <c r="E163" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9.209199999999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.4361944099999171</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C164" t="n">
+        <v>85400</v>
+      </c>
+      <c r="D164" t="n">
+        <v>85400</v>
+      </c>
+      <c r="E164" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.7885</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.224694409999917</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C165" t="n">
+        <v>85500</v>
+      </c>
+      <c r="D165" t="n">
+        <v>85500</v>
+      </c>
+      <c r="E165" t="n">
+        <v>85500</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4.924694409999917</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>85500</v>
+      </c>
+      <c r="C166" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85500</v>
+      </c>
+      <c r="E166" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3.0663</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.858394409999917</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>85350</v>
+      </c>
+      <c r="C167" t="n">
+        <v>85350</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85350</v>
+      </c>
+      <c r="E167" t="n">
+        <v>85350</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11.5353</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.858394409999917</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>85400</v>
+      </c>
+      <c r="C168" t="n">
+        <v>85450</v>
+      </c>
+      <c r="D168" t="n">
+        <v>85450</v>
+      </c>
+      <c r="E168" t="n">
+        <v>85400</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="n">
+        <v>22.85839440999992</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>85700</v>
+      </c>
+      <c r="C169" t="n">
+        <v>85900</v>
+      </c>
+      <c r="D169" t="n">
+        <v>85900</v>
+      </c>
+      <c r="E169" t="n">
+        <v>85700</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G169" t="n">
+        <v>23.31339440999992</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C170" t="n">
+        <v>85950</v>
+      </c>
+      <c r="D170" t="n">
+        <v>85950</v>
+      </c>
+      <c r="E170" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.8339</v>
+      </c>
+      <c r="G170" t="n">
+        <v>24.14729440999992</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>85950</v>
+      </c>
+      <c r="C171" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>85950</v>
+      </c>
+      <c r="F171" t="n">
+        <v>25.4209</v>
+      </c>
+      <c r="G171" t="n">
+        <v>49.56819440999992</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.2698</v>
+      </c>
+      <c r="G172" t="n">
+        <v>49.56819440999992</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C173" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D173" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E173" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="G173" t="n">
+        <v>50.13509440999992</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C174" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D174" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20.8057</v>
+      </c>
+      <c r="G174" t="n">
+        <v>29.32939440999991</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C175" t="n">
+        <v>86400</v>
+      </c>
+      <c r="D175" t="n">
+        <v>86400</v>
+      </c>
+      <c r="E175" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.3654</v>
+      </c>
+      <c r="G175" t="n">
+        <v>31.69479440999991</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C176" t="n">
+        <v>86150</v>
+      </c>
+      <c r="D176" t="n">
+        <v>86150</v>
+      </c>
+      <c r="E176" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F176" t="n">
+        <v>24.5001</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7.194694409999915</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>86050</v>
+      </c>
+      <c r="C177" t="n">
+        <v>86050</v>
+      </c>
+      <c r="D177" t="n">
+        <v>86050</v>
+      </c>
+      <c r="E177" t="n">
+        <v>86050</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.1757</v>
+      </c>
+      <c r="G177" t="n">
+        <v>6.018994409999915</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>86150</v>
+      </c>
+      <c r="C178" t="n">
+        <v>86300</v>
+      </c>
+      <c r="D178" t="n">
+        <v>86300</v>
+      </c>
+      <c r="E178" t="n">
+        <v>86150</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.8682</v>
+      </c>
+      <c r="G178" t="n">
+        <v>6.887194409999915</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C179" t="n">
+        <v>86700</v>
+      </c>
+      <c r="D179" t="n">
+        <v>86700</v>
+      </c>
+      <c r="E179" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.11534025</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7.002534659999915</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>86700</v>
+      </c>
+      <c r="C180" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>86700</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36.6254</v>
+      </c>
+      <c r="G180" t="n">
+        <v>43.62793465999992</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>87000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>87000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>87000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G181" t="n">
+        <v>43.62793465999992</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>86750</v>
+      </c>
+      <c r="C182" t="n">
+        <v>86850</v>
+      </c>
+      <c r="D182" t="n">
+        <v>86850</v>
+      </c>
+      <c r="E182" t="n">
+        <v>86750</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23.28195958</v>
+      </c>
+      <c r="G182" t="n">
+        <v>20.34597507999992</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>86100</v>
+      </c>
+      <c r="C183" t="n">
+        <v>86100</v>
+      </c>
+      <c r="D183" t="n">
+        <v>86100</v>
+      </c>
+      <c r="E183" t="n">
+        <v>86100</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G183" t="n">
+        <v>19.67697507999992</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>85800</v>
+      </c>
+      <c r="C184" t="n">
+        <v>85800</v>
+      </c>
+      <c r="D184" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E184" t="n">
+        <v>85800</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G184" t="n">
+        <v>18.87697507999992</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N184"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,24 +517,21 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>84250</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,24 +556,21 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>83900</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,24 +595,21 @@
         <v>-89.89309679000006</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>83950</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,24 +634,21 @@
         <v>-85.80899679000005</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>84200</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,24 +673,21 @@
         <v>-90.80899679000005</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>84250</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,24 +712,21 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>84000</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,24 +751,21 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>83800</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,24 +790,21 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>83800</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,24 +829,21 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>83600</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -906,24 +868,21 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>83600</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,24 +907,21 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>83300</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,24 +946,21 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>83300</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,22 +985,21 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1072,22 +1024,21 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1114,20 +1065,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,20 +1102,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1194,20 +1139,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1234,22 +1176,17 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>83950</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1274,24 +1211,19 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84000</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1316,24 +1248,19 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>84350</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,22 +1285,19 @@
         <v>-11.52499679000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1398,22 +1322,19 @@
         <v>-12.31259679000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,20 +1361,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,20 +1398,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1520,20 +1435,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1560,20 +1472,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1600,20 +1509,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1546,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,20 +1583,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,20 +1620,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1760,20 +1657,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,20 +1694,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1840,20 +1731,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,20 +1768,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1920,20 +1805,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1960,20 +1842,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2000,20 +1879,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2040,20 +1916,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2080,20 +1953,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,20 +1990,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,20 +2027,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2200,20 +2064,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2240,20 +2101,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2280,20 +2138,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2320,20 +2175,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2360,20 +2212,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2400,20 +2249,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2438,22 +2284,19 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2478,22 +2321,19 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2518,22 +2358,19 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2560,20 +2397,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2600,20 +2434,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2640,20 +2471,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2680,20 +2508,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2720,20 +2545,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2760,20 +2582,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2800,20 +2619,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2840,20 +2656,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2880,20 +2693,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2920,20 +2730,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2960,20 +2767,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3000,20 +2804,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3040,20 +2841,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3080,20 +2878,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3120,20 +2915,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3160,20 +2952,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3200,20 +2989,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3240,20 +3026,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,20 +3063,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3320,20 +3100,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3360,20 +3137,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3400,20 +3174,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3440,20 +3211,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3480,20 +3248,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3520,20 +3285,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3560,20 +3322,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3600,20 +3359,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3640,20 +3396,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3680,20 +3433,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3720,20 +3470,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3760,20 +3507,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3800,20 +3544,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3840,20 +3581,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3880,20 +3618,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3920,20 +3655,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3958,22 +3690,19 @@
         <v>33.27451572999995</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3998,22 +3727,19 @@
         <v>34.27981572999995</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4038,22 +3764,19 @@
         <v>34.27981572999995</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4078,22 +3801,19 @@
         <v>26.37391572999995</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4118,22 +3838,19 @@
         <v>26.37391572999995</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4158,22 +3875,19 @@
         <v>10.93001572999995</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4198,22 +3912,19 @@
         <v>10.93001572999995</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4240,20 +3951,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4280,20 +3988,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4320,20 +4025,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4358,22 +4060,19 @@
         <v>18.88901850999996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4400,20 +4099,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4438,22 +4134,19 @@
         <v>30.22271850999996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4478,22 +4171,17 @@
         <v>30.22271850999996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4520,20 +4208,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4560,20 +4241,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4600,20 +4274,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4638,22 +4305,15 @@
         <v>29.02181850999996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4678,22 +4338,15 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4718,22 +4371,15 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4760,20 +4406,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4798,22 +4437,15 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4838,22 +4470,15 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4878,22 +4503,15 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4918,22 +4536,15 @@
         <v>-9.681981490000044</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4960,20 +4571,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4998,22 +4602,15 @@
         <v>-6.477881490000044</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5040,20 +4637,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5080,20 +4670,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5120,20 +4703,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5160,20 +4736,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5200,20 +4769,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5238,22 +4800,15 @@
         <v>8.965418509999957</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5278,22 +4833,15 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5318,22 +4866,15 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5358,22 +4899,15 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5398,22 +4932,15 @@
         <v>15.64491850999996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5438,22 +4965,15 @@
         <v>16.14491850999996</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5478,22 +4998,15 @@
         <v>60.16491850999996</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5518,22 +5031,15 @@
         <v>70.80651850999996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5558,22 +5064,15 @@
         <v>106.63411851</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5598,20 +5097,15 @@
         <v>106.63411851</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L130" t="n">
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5636,18 +5130,15 @@
         <v>119.13631851</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5672,18 +5163,15 @@
         <v>119.65991851</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5708,18 +5196,15 @@
         <v>102.08881851</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5744,18 +5229,15 @@
         <v>130.47271851</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5782,16 +5264,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5816,18 +5295,15 @@
         <v>159.09471851</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5852,18 +5328,15 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5888,18 +5361,15 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5924,18 +5394,15 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5960,18 +5427,15 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5996,18 +5460,15 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6032,18 +5493,15 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6068,18 +5526,15 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6104,18 +5559,15 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6140,18 +5592,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6176,18 +5625,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6212,18 +5658,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6248,18 +5691,15 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6284,18 +5724,15 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6320,18 +5757,15 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6358,16 +5792,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6394,16 +5825,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6430,16 +5858,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6466,16 +5891,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6502,16 +5924,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6536,18 +5955,15 @@
         <v>92.24039440999992</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6572,18 +5988,15 @@
         <v>42.06159440999992</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6608,18 +6021,15 @@
         <v>27.01409440999992</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6644,18 +6054,15 @@
         <v>42.52559440999992</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6680,18 +6087,15 @@
         <v>38.88459440999992</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6716,18 +6120,15 @@
         <v>36.36959440999992</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6754,16 +6155,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6788,18 +6186,15 @@
         <v>0.4361944099999171</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6824,18 +6219,15 @@
         <v>3.224694409999917</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6860,18 +6252,15 @@
         <v>4.924694409999917</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6898,16 +6287,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6932,18 +6318,15 @@
         <v>1.858394409999917</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6970,16 +6353,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7004,18 +6384,15 @@
         <v>23.31339440999992</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7040,18 +6417,15 @@
         <v>24.14729440999992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7078,16 +6452,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7114,16 +6485,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7150,16 +6518,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7186,16 +6551,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7222,16 +6584,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7258,16 +6617,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7294,16 +6650,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7330,16 +6683,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7366,16 +6716,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7402,16 +6749,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7438,16 +6782,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7474,16 +6815,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7510,16 +6848,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7546,18 +6881,15 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-96.68819679000006</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-97.03759679000007</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J3" t="n">
+        <v>84550</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,12 +521,14 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>84250</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>84550</v>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -556,12 +562,14 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>83900</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>84550</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -595,12 +603,12 @@
         <v>-89.89309679000006</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83950</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>84550</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -634,12 +642,12 @@
         <v>-85.80899679000005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84200</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>84550</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -673,12 +681,12 @@
         <v>-90.80899679000005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>84250</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>84550</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -712,12 +720,12 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>84550</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -751,12 +759,12 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>83800</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>84550</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -790,12 +798,12 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>83800</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>84550</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -829,12 +837,12 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83600</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>84550</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -868,12 +876,12 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83600</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>84550</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -907,12 +915,12 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>83300</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>84550</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -946,12 +954,14 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>83300</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>84550</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -985,12 +995,12 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>83550</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>84550</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1024,12 +1034,14 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>83550</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>84550</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1066,7 +1078,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>84550</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1103,7 +1117,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>84550</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1140,7 +1156,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>84550</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,8 +1194,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>83950</v>
+      </c>
+      <c r="J21" t="n">
+        <v>84550</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1211,10 +1233,14 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>84000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84550</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1248,10 +1274,14 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>84350</v>
+      </c>
+      <c r="J23" t="n">
+        <v>84550</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1287,8 +1317,12 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>85500</v>
+      </c>
+      <c r="J24" t="n">
+        <v>84550</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1324,8 +1358,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>85100</v>
+      </c>
+      <c r="J25" t="n">
+        <v>84550</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1359,10 +1397,14 @@
         <v>-12.56219679000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>84650</v>
+      </c>
+      <c r="J26" t="n">
+        <v>84550</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1396,10 +1438,14 @@
         <v>-12.30439679000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J27" t="n">
+        <v>84550</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1433,10 +1479,14 @@
         <v>-12.44379679000004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>84700</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84550</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,10 +1520,14 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>84600</v>
+      </c>
+      <c r="J29" t="n">
+        <v>84550</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,10 +1561,14 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>84950</v>
+      </c>
+      <c r="J30" t="n">
+        <v>84550</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,10 +1602,14 @@
         <v>-24.60529679000004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>84950</v>
+      </c>
+      <c r="J31" t="n">
+        <v>84550</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,10 +1643,14 @@
         <v>-24.46319679000004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>84900</v>
+      </c>
+      <c r="J32" t="n">
+        <v>84550</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,10 +1684,14 @@
         <v>-25.01089679000004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>85100</v>
+      </c>
+      <c r="J33" t="n">
+        <v>84550</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1655,10 +1725,14 @@
         <v>-24.50089679000004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>84650</v>
+      </c>
+      <c r="J34" t="n">
+        <v>84550</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,10 +1766,14 @@
         <v>-24.16429679000004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>85000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>84550</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1729,10 +1807,14 @@
         <v>-45.96249679000004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>85200</v>
+      </c>
+      <c r="J36" t="n">
+        <v>84550</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1766,10 +1848,14 @@
         <v>-45.86249679000004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>83850</v>
+      </c>
+      <c r="J37" t="n">
+        <v>84550</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1803,10 +1889,14 @@
         <v>-66.46249679000005</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>84150</v>
+      </c>
+      <c r="J38" t="n">
+        <v>84550</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,10 +1930,14 @@
         <v>-64.46249679000005</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>84100</v>
+      </c>
+      <c r="J39" t="n">
+        <v>84550</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,10 +1971,14 @@
         <v>-57.69879679000005</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>84150</v>
+      </c>
+      <c r="J40" t="n">
+        <v>84550</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,7 +2015,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>84550</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,7 +2054,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>84550</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,7 +2093,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>84550</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,7 +2132,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>84550</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,7 +2171,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>84550</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,7 +2210,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>84550</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,7 +2249,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>84550</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,7 +2288,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>84550</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,7 +2327,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>84550</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,7 +2366,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>84550</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2284,10 +2402,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>84550</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2321,10 +2441,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>84550</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,10 +2480,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>84550</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,7 +2522,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>84550</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,7 +2561,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>84550</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,7 +2600,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>84550</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,7 +2639,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>84550</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,7 +2678,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>84550</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,7 +2717,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>84550</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,7 +2756,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>84550</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,7 +2795,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>84550</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,7 +2834,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>84550</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,7 +2873,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>84550</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,7 +2912,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>84550</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,7 +2951,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>84550</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,7 +2990,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>84550</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,7 +3029,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>84550</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,7 +3068,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>84550</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,7 +3107,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>84550</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,7 +3146,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>84550</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3027,7 +3185,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>84550</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,7 +3224,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>84550</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,7 +3263,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>84550</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,7 +3302,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>84550</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,7 +3341,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>84550</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,7 +3380,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>84550</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,7 +3419,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>84550</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,7 +3458,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>84550</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,7 +3497,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>84550</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,7 +3536,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>84550</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,7 +3575,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>84550</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,7 +3614,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>84550</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,7 +3653,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>84550</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,7 +3692,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>84550</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,7 +3731,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>84550</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,7 +3770,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>84550</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,7 +3809,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>84550</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,7 +3848,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>84550</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,10 +3884,12 @@
         <v>33.27451572999995</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>84550</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,10 +3923,12 @@
         <v>34.27981572999995</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>84550</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,10 +3962,12 @@
         <v>34.27981572999995</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>84550</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,10 +4001,12 @@
         <v>26.37391572999995</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>84550</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,10 +4040,12 @@
         <v>26.37391572999995</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>84550</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,10 +4079,12 @@
         <v>10.93001572999995</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>84550</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,10 +4118,12 @@
         <v>10.93001572999995</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>84550</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,7 +4160,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>84550</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,7 +4199,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>84550</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,7 +4238,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>84550</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,10 +4274,12 @@
         <v>18.88901850999996</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>84550</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,7 +4316,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>84550</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,10 +4352,12 @@
         <v>30.22271850999996</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>84550</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,16 +4391,20 @@
         <v>30.22271850999996</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>84550</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
       <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -4209,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4242,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4275,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4305,11 +4547,17 @@
         <v>29.02181850999996</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +4586,17 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4371,11 +4625,17 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4407,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4437,11 +4703,17 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4470,11 +4742,17 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4781,17 @@
         <v>8.335918509999956</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4820,17 @@
         <v>-9.681981490000044</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4572,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4602,11 +4898,17 @@
         <v>-6.477881490000044</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4638,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4671,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4704,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4737,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4770,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4800,11 +5132,17 @@
         <v>8.965418509999957</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +5171,17 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4866,11 +5210,17 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4899,11 +5249,17 @@
         <v>1.385718509999957</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +5288,17 @@
         <v>15.64491850999996</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4965,11 +5327,17 @@
         <v>16.14491850999996</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +5366,17 @@
         <v>60.16491850999996</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5031,11 +5405,17 @@
         <v>70.80651850999996</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5064,11 +5444,17 @@
         <v>106.63411851</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5097,11 +5483,17 @@
         <v>106.63411851</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5130,11 +5522,17 @@
         <v>119.13631851</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5163,11 +5561,17 @@
         <v>119.65991851</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +5600,17 @@
         <v>102.08881851</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +5639,17 @@
         <v>130.47271851</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5265,8 +5681,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +5717,17 @@
         <v>159.09471851</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5328,13 +5756,19 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>1.032847427557658</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
@@ -5361,7 +5795,7 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5394,7 +5828,7 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5427,7 +5861,7 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5460,7 +5894,7 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5493,7 +5927,7 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5526,7 +5960,7 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5559,7 +5993,7 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5592,7 +6026,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5625,7 +6059,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5658,7 +6092,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5691,7 +6125,7 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5724,7 +6158,7 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5757,7 +6191,7 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5790,7 +6224,7 @@
         <v>94.14549110999992</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5823,7 +6257,7 @@
         <v>92.99079440999992</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5856,7 +6290,7 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5889,7 +6323,7 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5922,7 +6356,7 @@
         <v>92.85079440999992</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5955,7 +6389,7 @@
         <v>92.24039440999992</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5988,7 +6422,7 @@
         <v>42.06159440999992</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6021,7 +6455,7 @@
         <v>27.01409440999992</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6054,7 +6488,7 @@
         <v>42.52559440999992</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6087,7 +6521,7 @@
         <v>38.88459440999992</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6120,7 +6554,7 @@
         <v>36.36959440999992</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6153,7 +6587,7 @@
         <v>-8.773005590000082</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6186,7 +6620,7 @@
         <v>0.4361944099999171</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6219,7 +6653,7 @@
         <v>3.224694409999917</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6252,7 +6686,7 @@
         <v>4.924694409999917</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6318,7 +6752,7 @@
         <v>1.858394409999917</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6351,7 +6785,7 @@
         <v>22.85839440999992</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6384,7 +6818,7 @@
         <v>23.31339440999992</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6417,7 +6851,7 @@
         <v>24.14729440999992</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6450,7 +6884,7 @@
         <v>49.56819440999992</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6483,7 +6917,7 @@
         <v>49.56819440999992</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6516,7 +6950,7 @@
         <v>50.13509440999992</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6549,7 +6983,7 @@
         <v>29.32939440999991</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6582,7 +7016,7 @@
         <v>31.69479440999991</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6615,7 +7049,7 @@
         <v>7.194694409999915</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6648,7 +7082,7 @@
         <v>6.018994409999915</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6681,7 +7115,7 @@
         <v>6.887194409999915</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6714,7 +7148,7 @@
         <v>7.002534659999915</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6747,7 +7181,7 @@
         <v>43.62793465999992</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6780,7 +7214,7 @@
         <v>43.62793465999992</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6813,7 +7247,7 @@
         <v>20.34597507999992</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6846,7 +7280,7 @@
         <v>19.67697507999992</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6879,7 +7313,7 @@
         <v>18.87697507999992</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6890,6 +7324,6 @@
       <c r="M184" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-96.68819679000006</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-97.03759679000007</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>84550</v>
-      </c>
-      <c r="J3" t="n">
-        <v>84550</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84250</v>
-      </c>
-      <c r="J4" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>83900</v>
-      </c>
-      <c r="J5" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -840,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -879,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -954,19 +880,11 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>83300</v>
-      </c>
-      <c r="J15" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1034,19 +946,11 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>83550</v>
-      </c>
-      <c r="J17" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1153,17 +1045,11 @@
         <v>-70.98179679000005</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1192,19 +1078,11 @@
         <v>-65.43729679000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>83950</v>
-      </c>
-      <c r="J21" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1233,19 +1111,11 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1274,19 +1144,11 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>84350</v>
-      </c>
-      <c r="J23" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1315,19 +1177,11 @@
         <v>-11.52499679000004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85500</v>
-      </c>
-      <c r="J24" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1356,19 +1210,11 @@
         <v>-12.31259679000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>85100</v>
-      </c>
-      <c r="J25" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1397,19 +1243,11 @@
         <v>-12.56219679000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>84650</v>
-      </c>
-      <c r="J26" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1438,19 +1276,11 @@
         <v>-12.30439679000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84550</v>
-      </c>
-      <c r="J27" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1479,19 +1309,11 @@
         <v>-12.44379679000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>84700</v>
-      </c>
-      <c r="J28" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1520,19 +1342,11 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>84600</v>
-      </c>
-      <c r="J29" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1561,19 +1375,11 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>84950</v>
-      </c>
-      <c r="J30" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1602,19 +1408,11 @@
         <v>-24.60529679000004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>84950</v>
-      </c>
-      <c r="J31" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1643,19 +1441,11 @@
         <v>-24.46319679000004</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>84900</v>
-      </c>
-      <c r="J32" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1684,19 +1474,11 @@
         <v>-25.01089679000004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>85100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1725,19 +1507,11 @@
         <v>-24.50089679000004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>84650</v>
-      </c>
-      <c r="J34" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1540,11 @@
         <v>-24.16429679000004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>85000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1807,19 +1573,11 @@
         <v>-45.96249679000004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>85200</v>
-      </c>
-      <c r="J36" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1848,19 +1606,11 @@
         <v>-45.86249679000004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>83850</v>
-      </c>
-      <c r="J37" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1889,19 +1639,11 @@
         <v>-66.46249679000005</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>84150</v>
-      </c>
-      <c r="J38" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1930,19 +1672,11 @@
         <v>-64.46249679000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>84100</v>
-      </c>
-      <c r="J39" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1971,19 +1705,11 @@
         <v>-57.69879679000005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>84150</v>
-      </c>
-      <c r="J40" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2015,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2054,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2093,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2132,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2210,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2249,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2288,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2324,15 +2002,15 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>83500</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2363,12 +2041,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>83250</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,12 +2080,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>83250</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,12 +2119,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>83250</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,12 +2158,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>83250</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,12 +2197,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>83250</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,9 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,9 +2276,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,9 +2313,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,9 +2350,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,9 +2387,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,9 +2424,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,9 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,9 +2498,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,9 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,9 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,9 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,9 +2646,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,9 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,9 +2720,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,9 +2757,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3146,9 +2794,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,9 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,9 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,9 +3127,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,12 +3198,12 @@
         <v>11.51893626999995</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>82700</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,9 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,12 +3274,12 @@
         <v>11.19753626999995</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>82600</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,12 +3313,12 @@
         <v>11.20823626999995</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82950</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3728,12 +3352,12 @@
         <v>14.79081572999995</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>84550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>83350</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,9 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,9 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,9 +3468,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,9 +3505,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,9 +3542,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,9 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,9 +3616,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,9 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,9 +3690,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,9 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,9 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,9 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,9 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,9 +3912,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,9 +3949,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,9 +3986,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,9 +4023,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,9 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,9 +4097,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,9 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,9 +4171,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,9 +4208,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,9 +4245,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,9 +4319,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,9 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,9 +4430,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,9 +4467,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,9 +4504,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,9 +4541,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,9 +4578,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,9 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,9 +4652,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,9 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5174,9 +4726,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,9 +4763,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,9 +4800,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,9 +4837,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,9 +4874,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,9 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,9 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,9 +4985,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,9 +5022,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5525,9 +5059,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,9 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,9 +5133,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,9 +5170,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,9 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,9 +5244,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,19 +5278,17 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>84550</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.032847427557658</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
@@ -5795,11 +5315,15 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5828,11 +5352,15 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5861,11 +5389,15 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5426,15 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5927,11 +5463,15 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5960,11 +5500,15 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5993,11 +5537,15 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +5574,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +5611,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +5648,15 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +5685,15 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6158,11 +5722,15 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +5759,15 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6224,11 +5796,15 @@
         <v>94.14549110999992</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6257,11 +5833,15 @@
         <v>92.99079440999992</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6290,11 +5870,15 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6323,11 +5907,15 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5944,15 @@
         <v>92.85079440999992</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +5981,15 @@
         <v>92.24039440999992</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +6018,15 @@
         <v>42.06159440999992</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +6055,15 @@
         <v>27.01409440999992</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +6092,15 @@
         <v>42.52559440999992</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +6129,15 @@
         <v>38.88459440999992</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6554,11 +6166,15 @@
         <v>36.36959440999992</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6203,15 @@
         <v>-8.773005590000082</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6620,11 +6240,15 @@
         <v>0.4361944099999171</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6653,11 +6277,15 @@
         <v>3.224694409999917</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +6314,15 @@
         <v>4.924694409999917</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6355,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6756,7 +6392,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6425,15 @@
         <v>22.85839440999992</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6818,11 +6462,15 @@
         <v>23.31339440999992</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +6499,15 @@
         <v>24.14729440999992</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +6536,15 @@
         <v>49.56819440999992</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6917,11 +6573,15 @@
         <v>49.56819440999992</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6610,15 @@
         <v>50.13509440999992</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +6647,15 @@
         <v>29.32939440999991</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6684,15 @@
         <v>31.69479440999991</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6721,15 @@
         <v>7.194694409999915</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7082,11 +6758,15 @@
         <v>6.018994409999915</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7115,11 +6795,15 @@
         <v>6.887194409999915</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +6832,15 @@
         <v>7.002534659999915</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +6869,15 @@
         <v>43.62793465999992</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +6906,15 @@
         <v>43.62793465999992</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +6943,15 @@
         <v>20.34597507999992</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +6980,15 @@
         <v>19.67697507999992</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7313,17 +7017,21 @@
         <v>18.87697507999992</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>-96.68819679000006</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-97.03759679000007</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J3" t="n">
+        <v>84550</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84250</v>
+      </c>
+      <c r="J4" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83900</v>
+      </c>
+      <c r="J5" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-89.89309679000006</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>83950</v>
+      </c>
+      <c r="J6" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-85.80899679000005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>84200</v>
+      </c>
+      <c r="J7" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-90.80899679000005</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>84250</v>
+      </c>
+      <c r="J8" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>84000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>83800</v>
+      </c>
+      <c r="J10" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>83800</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>83600</v>
+      </c>
+      <c r="J12" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>83600</v>
+      </c>
+      <c r="J13" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>83300</v>
+      </c>
+      <c r="J14" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>83300</v>
+      </c>
+      <c r="J15" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>83550</v>
+      </c>
+      <c r="J16" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>83550</v>
+      </c>
+      <c r="J17" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>-71.11999679000004</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83550</v>
+      </c>
+      <c r="J18" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1139,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1175,17 @@
         <v>-70.98179679000005</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1214,19 @@
         <v>-65.43729679000005</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>83950</v>
+      </c>
+      <c r="J21" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1255,19 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>84000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1296,19 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>84350</v>
+      </c>
+      <c r="J23" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1337,17 @@
         <v>-11.52499679000004</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1376,17 @@
         <v>-12.31259679000004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1415,17 @@
         <v>-12.56219679000004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1454,17 @@
         <v>-12.30439679000004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1493,17 @@
         <v>-12.44379679000004</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1532,17 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1571,17 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1610,17 @@
         <v>-24.60529679000004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1649,17 @@
         <v>-24.46319679000004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1688,17 @@
         <v>-25.01089679000004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1730,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1769,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1808,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1847,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1964,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2003,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2042,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2081,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2159,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2237,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>84550</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,15 +2312,15 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>83500</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>84550</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2041,12 +2351,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>83250</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>84550</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,12 +2390,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>83250</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>84550</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,12 +2429,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>83250</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>84550</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,12 +2468,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>83250</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>84550</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,12 +2507,12 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83250</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>84550</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,7 +2549,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>84550</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,7 +2588,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>84550</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,7 +2627,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>84550</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,7 +2666,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>84550</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2387,7 +2705,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>84550</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,7 +2744,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>84550</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,7 +2783,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>84550</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,7 +2822,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>84550</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2535,7 +2861,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>84550</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2572,7 +2900,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>84550</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2609,7 +2939,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>84550</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,7 +2978,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>84550</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,7 +3017,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>84550</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,7 +3056,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>84550</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2757,7 +3095,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>84550</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,7 +3134,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>84550</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,7 +3173,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>84550</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,7 +3212,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>84550</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,7 +3251,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>84550</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,7 +3290,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>84550</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,7 +3329,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>84550</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,7 +3368,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>84550</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,7 +3407,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>84550</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3446,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>84550</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,7 +3485,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>84550</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,7 +3524,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>84550</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,12 +3560,12 @@
         <v>11.51893626999995</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>82700</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>84550</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,7 +3602,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>84550</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,12 +3638,12 @@
         <v>11.19753626999995</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>82600</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>84550</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,12 +3677,12 @@
         <v>11.20823626999995</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>82950</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>84550</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,12 +3716,12 @@
         <v>14.79081572999995</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>83350</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>84550</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,7 +3758,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>84550</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3431,7 +3797,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>84550</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,7 +3836,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>84550</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,7 +3875,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>84550</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,7 +3914,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>84550</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,7 +3953,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>84550</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,7 +3992,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>84550</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,7 +4031,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>84550</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3690,7 +4070,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>84550</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,7 +4109,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>84550</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,7 +4148,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>84550</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,7 +4187,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>84550</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>84550</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,7 +4265,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>84550</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,7 +4304,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>84550</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3949,7 +4343,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>84550</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>84550</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4023,7 +4421,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>84550</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>84550</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>84550</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,7 +4538,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>84550</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,7 +4577,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>84550</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,7 +4616,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>84550</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,7 +4655,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>84550</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,7 +4694,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>84550</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,7 +4733,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>84550</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,7 +4772,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>84550</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,7 +4811,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>84550</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,7 +4850,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>84550</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,7 +4889,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>84550</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,7 +4928,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>84550</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,7 +4967,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>84550</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>84550</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,7 +5045,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>84550</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>84550</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>84550</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>84550</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>84550</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,7 +5240,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>84550</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,7 +5279,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>84550</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,7 +5318,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>84550</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>84550</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,7 +5396,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>84550</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,7 +5435,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>84550</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,7 +5474,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>84550</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,7 +5513,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>84550</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5552,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>84550</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,17 +5588,19 @@
         <v>102.08881851</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>84550</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>1.03225606150207</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
@@ -5167,15 +5627,11 @@
         <v>130.47271851</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5204,15 +5660,11 @@
         <v>159.09471851</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5241,15 +5693,11 @@
         <v>159.09471851</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5278,15 +5726,11 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5315,15 +5759,11 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5352,15 +5792,11 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5389,15 +5825,11 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5426,15 +5858,11 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5463,15 +5891,11 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5500,15 +5924,11 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5537,15 +5957,11 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5574,15 +5990,11 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5611,15 +6023,11 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5648,15 +6056,11 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5685,15 +6089,11 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5722,15 +6122,11 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5759,15 +6155,11 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +6192,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5833,15 +6221,11 @@
         <v>92.99079440999992</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +6258,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +6291,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5944,15 +6320,11 @@
         <v>92.85079440999992</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +6357,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6018,15 +6386,11 @@
         <v>42.06159440999992</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6055,15 +6419,11 @@
         <v>27.01409440999992</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6096,11 +6456,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +6489,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +6522,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +6555,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6588,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6621,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6654,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6687,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6720,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +6753,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +6786,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6503,11 +6819,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6540,11 +6852,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6885,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +6918,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6651,11 +6951,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6984,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6725,11 +7017,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6762,11 +7050,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6799,11 +7083,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6836,11 +7116,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6873,11 +7149,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +7182,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6947,11 +7215,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +7248,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +7281,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest DASH.xlsx
+++ b/BackTest/2019-10-28 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1.3206</v>
       </c>
       <c r="G2" t="n">
-        <v>-96.68819679000006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>0.3494</v>
       </c>
       <c r="G3" t="n">
-        <v>-97.03759679000007</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>84550</v>
       </c>
       <c r="I3" t="n">
         <v>84550</v>
       </c>
-      <c r="J3" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>3.6835</v>
       </c>
       <c r="G4" t="n">
-        <v>-100.7210967900001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>84250</v>
       </c>
       <c r="I4" t="n">
-        <v>84250</v>
-      </c>
-      <c r="J4" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>84550</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>10.5659</v>
       </c>
       <c r="G5" t="n">
-        <v>-90.15519679000006</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>83900</v>
       </c>
       <c r="I5" t="n">
-        <v>83900</v>
-      </c>
-      <c r="J5" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>0.2621</v>
       </c>
       <c r="G6" t="n">
-        <v>-89.89309679000006</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>83950</v>
       </c>
       <c r="I6" t="n">
-        <v>83950</v>
-      </c>
-      <c r="J6" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,21 @@
         <v>4.0841</v>
       </c>
       <c r="G7" t="n">
-        <v>-85.80899679000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>84200</v>
-      </c>
-      <c r="J7" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +657,21 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>-90.80899679000005</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>84250</v>
-      </c>
-      <c r="J8" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +693,21 @@
         <v>0.4988</v>
       </c>
       <c r="G9" t="n">
-        <v>-91.30779679000005</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +729,23 @@
         <v>0.0888</v>
       </c>
       <c r="G10" t="n">
-        <v>-91.30779679000005</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>83800</v>
       </c>
       <c r="I10" t="n">
-        <v>83800</v>
-      </c>
-      <c r="J10" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +767,23 @@
         <v>1.9155</v>
       </c>
       <c r="G11" t="n">
-        <v>-93.22329679000005</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>83800</v>
       </c>
       <c r="I11" t="n">
-        <v>83800</v>
-      </c>
-      <c r="J11" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +805,23 @@
         <v>2.8108</v>
       </c>
       <c r="G12" t="n">
-        <v>-93.22329679000005</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>83600</v>
       </c>
       <c r="I12" t="n">
-        <v>83600</v>
-      </c>
-      <c r="J12" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +843,23 @@
         <v>4.2875</v>
       </c>
       <c r="G13" t="n">
-        <v>-97.51079679000004</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>83600</v>
       </c>
       <c r="I13" t="n">
-        <v>83600</v>
-      </c>
-      <c r="J13" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +881,23 @@
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>-97.51079679000004</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>83300</v>
       </c>
       <c r="I14" t="n">
-        <v>83300</v>
-      </c>
-      <c r="J14" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +919,23 @@
         <v>2.0949</v>
       </c>
       <c r="G15" t="n">
-        <v>-95.41589679000005</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>83300</v>
       </c>
       <c r="I15" t="n">
-        <v>83300</v>
-      </c>
-      <c r="J15" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +957,23 @@
         <v>13.9944</v>
       </c>
       <c r="G16" t="n">
-        <v>-95.41589679000005</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>83550</v>
       </c>
       <c r="I16" t="n">
-        <v>83550</v>
-      </c>
-      <c r="J16" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +995,23 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-95.41589679000005</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>83550</v>
       </c>
       <c r="I17" t="n">
-        <v>83550</v>
-      </c>
-      <c r="J17" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1033,23 @@
         <v>24.2959</v>
       </c>
       <c r="G18" t="n">
-        <v>-71.11999679000004</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>83550</v>
       </c>
       <c r="I18" t="n">
-        <v>83550</v>
-      </c>
-      <c r="J18" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,24 +1071,23 @@
         <v>0.2606</v>
       </c>
       <c r="G19" t="n">
-        <v>-70.85939679000005</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>84050</v>
+      </c>
+      <c r="I19" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,24 +1109,21 @@
         <v>0.1224</v>
       </c>
       <c r="G20" t="n">
-        <v>-70.98179679000005</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,26 +1145,21 @@
         <v>5.5445</v>
       </c>
       <c r="G21" t="n">
-        <v>-65.43729679000005</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>83950</v>
-      </c>
-      <c r="J21" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1181,23 @@
         <v>2.5855</v>
       </c>
       <c r="G22" t="n">
-        <v>-62.85179679000004</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>84000</v>
       </c>
       <c r="I22" t="n">
-        <v>84000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,26 +1219,23 @@
         <v>51.5812</v>
       </c>
       <c r="G23" t="n">
-        <v>-11.27059679000004</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>84350</v>
       </c>
       <c r="I23" t="n">
-        <v>84350</v>
-      </c>
-      <c r="J23" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>84550</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,24 +1257,21 @@
         <v>0.2544</v>
       </c>
       <c r="G24" t="n">
-        <v>-11.52499679000004</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1373,24 +1293,21 @@
         <v>0.7876</v>
       </c>
       <c r="G25" t="n">
-        <v>-12.31259679000004</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,24 +1329,21 @@
         <v>0.2496</v>
       </c>
       <c r="G26" t="n">
-        <v>-12.56219679000004</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,24 +1365,21 @@
         <v>0.2578</v>
       </c>
       <c r="G27" t="n">
-        <v>-12.30439679000004</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,24 +1401,21 @@
         <v>0.1394</v>
       </c>
       <c r="G28" t="n">
-        <v>-12.44379679000004</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1529,24 +1437,21 @@
         <v>0.3856</v>
       </c>
       <c r="G29" t="n">
-        <v>-12.05819679000004</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,24 +1473,21 @@
         <v>7.4815</v>
       </c>
       <c r="G30" t="n">
-        <v>-12.05819679000004</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1607,24 +1509,21 @@
         <v>12.5471</v>
       </c>
       <c r="G31" t="n">
-        <v>-24.60529679000004</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,24 +1545,21 @@
         <v>0.1421</v>
       </c>
       <c r="G32" t="n">
-        <v>-24.46319679000004</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,24 +1581,21 @@
         <v>0.5477</v>
       </c>
       <c r="G33" t="n">
-        <v>-25.01089679000004</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,24 +1617,21 @@
         <v>0.51</v>
       </c>
       <c r="G34" t="n">
-        <v>-24.50089679000004</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1763,24 +1653,21 @@
         <v>0.3366</v>
       </c>
       <c r="G35" t="n">
-        <v>-24.16429679000004</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,24 +1689,21 @@
         <v>21.7982</v>
       </c>
       <c r="G36" t="n">
-        <v>-45.96249679000004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,24 +1725,21 @@
         <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>-45.86249679000004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,24 +1761,21 @@
         <v>20.6</v>
       </c>
       <c r="G38" t="n">
-        <v>-66.46249679000005</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1919,24 +1797,21 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>-64.46249679000005</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,24 +1833,21 @@
         <v>6.7637</v>
       </c>
       <c r="G40" t="n">
-        <v>-57.69879679000005</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,24 +1869,21 @@
         <v>0.7307</v>
       </c>
       <c r="G41" t="n">
-        <v>-57.69879679000005</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,24 +1905,21 @@
         <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>-63.69879679000005</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2075,24 +1941,21 @@
         <v>5.9646</v>
       </c>
       <c r="G43" t="n">
-        <v>-69.66339679000005</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +1977,21 @@
         <v>0.02</v>
       </c>
       <c r="G44" t="n">
-        <v>-69.64339679000005</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2153,24 +2013,21 @@
         <v>7.9836</v>
       </c>
       <c r="G45" t="n">
-        <v>-61.65979679000005</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +2049,21 @@
         <v>0.6021</v>
       </c>
       <c r="G46" t="n">
-        <v>-62.26189679000005</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2231,24 +2085,21 @@
         <v>0.1328</v>
       </c>
       <c r="G47" t="n">
-        <v>-62.39469679000005</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,24 +2121,21 @@
         <v>0.7302</v>
       </c>
       <c r="G48" t="n">
-        <v>-63.12489679000005</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,24 +2157,21 @@
         <v>2.6735</v>
       </c>
       <c r="G49" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,24 +2193,21 @@
         <v>15.2742</v>
       </c>
       <c r="G50" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,24 +2229,21 @@
         <v>27.8011</v>
       </c>
       <c r="G51" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,24 +2265,21 @@
         <v>0.395</v>
       </c>
       <c r="G52" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +2301,21 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,24 +2337,21 @@
         <v>2.3265</v>
       </c>
       <c r="G54" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2543,24 +2373,21 @@
         <v>28.6821</v>
       </c>
       <c r="G55" t="n">
-        <v>-65.79839679000006</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,24 +2409,21 @@
         <v>1.5056</v>
       </c>
       <c r="G56" t="n">
-        <v>-64.29279679000005</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2621,24 +2445,21 @@
         <v>34.414</v>
       </c>
       <c r="G57" t="n">
-        <v>-64.29279679000005</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2660,24 +2481,21 @@
         <v>19.9117</v>
       </c>
       <c r="G58" t="n">
-        <v>-84.20449679000005</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2699,24 +2517,21 @@
         <v>17.061</v>
       </c>
       <c r="G59" t="n">
-        <v>-84.20449679000005</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,24 +2553,23 @@
         <v>11.14566396</v>
       </c>
       <c r="G60" t="n">
-        <v>-84.20449679000005</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>83700</v>
+      </c>
+      <c r="I60" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2777,24 +2591,23 @@
         <v>20.10333604</v>
       </c>
       <c r="G61" t="n">
-        <v>-64.10116075000005</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>83700</v>
+      </c>
+      <c r="I61" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,24 +2629,23 @@
         <v>2.7156</v>
       </c>
       <c r="G62" t="n">
-        <v>-66.81676075000004</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>83800</v>
+      </c>
+      <c r="I62" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2855,24 +2667,21 @@
         <v>13.1864</v>
       </c>
       <c r="G63" t="n">
-        <v>-53.63036075000004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2894,24 +2703,21 @@
         <v>0.8189</v>
       </c>
       <c r="G64" t="n">
-        <v>-53.63036075000004</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2933,24 +2739,23 @@
         <v>69.1673</v>
       </c>
       <c r="G65" t="n">
-        <v>15.53693924999995</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>83950</v>
+      </c>
+      <c r="I65" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2972,24 +2777,21 @@
         <v>1.0053</v>
       </c>
       <c r="G66" t="n">
-        <v>15.53693924999995</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3011,24 +2813,21 @@
         <v>0.383</v>
       </c>
       <c r="G67" t="n">
-        <v>15.53693924999995</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,24 +2849,21 @@
         <v>3.9244</v>
       </c>
       <c r="G68" t="n">
-        <v>11.61253924999995</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3089,24 +2885,21 @@
         <v>0.704</v>
       </c>
       <c r="G69" t="n">
-        <v>10.90853924999995</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3128,24 +2921,23 @@
         <v>0.1427</v>
       </c>
       <c r="G70" t="n">
-        <v>10.90853924999995</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I70" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3167,24 +2959,23 @@
         <v>0.1135</v>
       </c>
       <c r="G71" t="n">
-        <v>10.90853924999995</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I71" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3206,24 +2997,23 @@
         <v>0.0568</v>
       </c>
       <c r="G72" t="n">
-        <v>10.90853924999995</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I72" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3245,24 +3035,23 @@
         <v>0.11940298</v>
       </c>
       <c r="G73" t="n">
-        <v>10.78913626999995</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I73" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3284,24 +3073,23 @@
         <v>0.0569</v>
       </c>
       <c r="G74" t="n">
-        <v>10.73223626999995</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>83750</v>
+      </c>
+      <c r="I74" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3323,24 +3111,21 @@
         <v>0.5154</v>
       </c>
       <c r="G75" t="n">
-        <v>10.21683626999995</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3362,24 +3147,23 @@
         <v>1.7793</v>
       </c>
       <c r="G76" t="n">
-        <v>8.437536269999953</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>83200</v>
+      </c>
+      <c r="I76" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3401,24 +3185,23 @@
         <v>4.8099</v>
       </c>
       <c r="G77" t="n">
-        <v>3.627636269999953</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>82900</v>
+      </c>
+      <c r="I77" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,24 +3223,23 @@
         <v>8.5708</v>
       </c>
       <c r="G78" t="n">
-        <v>12.19843626999995</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>82750</v>
+      </c>
+      <c r="I78" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3479,24 +3261,23 @@
         <v>0.6795</v>
       </c>
       <c r="G79" t="n">
-        <v>11.51893626999995</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>82850</v>
+      </c>
+      <c r="I79" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3518,24 +3299,23 @@
         <v>1.547</v>
       </c>
       <c r="G80" t="n">
-        <v>11.51893626999995</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>82700</v>
+      </c>
+      <c r="I80" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3557,24 +3337,23 @@
         <v>5.1912</v>
       </c>
       <c r="G81" t="n">
-        <v>11.51893626999995</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>82700</v>
+      </c>
+      <c r="I81" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3596,24 +3375,23 @@
         <v>0.4619</v>
       </c>
       <c r="G82" t="n">
-        <v>11.05703626999995</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>82700</v>
+      </c>
+      <c r="I82" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3635,24 +3413,23 @@
         <v>0.1405</v>
       </c>
       <c r="G83" t="n">
-        <v>11.19753626999995</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>82600</v>
+      </c>
+      <c r="I83" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3674,24 +3451,23 @@
         <v>0.0107</v>
       </c>
       <c r="G84" t="n">
-        <v>11.20823626999995</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>82950</v>
+      </c>
+      <c r="I84" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3713,24 +3489,23 @@
         <v>3.58257946</v>
       </c>
       <c r="G85" t="n">
-        <v>14.79081572999995</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>83350</v>
+      </c>
+      <c r="I85" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3752,24 +3527,23 @@
         <v>18.0179</v>
       </c>
       <c r="G86" t="n">
-        <v>32.80871572999995</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>83750</v>
+      </c>
+      <c r="I86" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3791,24 +3565,23 @@
         <v>0.6575</v>
       </c>
       <c r="G87" t="n">
-        <v>32.80871572999995</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>83800</v>
+      </c>
+      <c r="I87" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3830,24 +3603,23 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>32.80871572999995</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>83800</v>
+      </c>
+      <c r="I88" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3869,24 +3641,23 @@
         <v>0.4658</v>
       </c>
       <c r="G89" t="n">
-        <v>33.27451572999995</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>83800</v>
+      </c>
+      <c r="I89" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3908,24 +3679,23 @@
         <v>1.0053</v>
       </c>
       <c r="G90" t="n">
-        <v>34.27981572999995</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>83850</v>
+      </c>
+      <c r="I90" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3947,24 +3717,23 @@
         <v>0.193</v>
       </c>
       <c r="G91" t="n">
-        <v>34.27981572999995</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>83950</v>
+      </c>
+      <c r="I91" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3986,24 +3755,23 @@
         <v>7.9059</v>
       </c>
       <c r="G92" t="n">
-        <v>26.37391572999995</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>83950</v>
+      </c>
+      <c r="I92" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4025,24 +3793,23 @@
         <v>0.02</v>
       </c>
       <c r="G93" t="n">
-        <v>26.37391572999995</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I93" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4064,24 +3831,23 @@
         <v>15.4439</v>
       </c>
       <c r="G94" t="n">
-        <v>10.93001572999995</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>83900</v>
+      </c>
+      <c r="I94" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4103,24 +3869,23 @@
         <v>9.7774</v>
       </c>
       <c r="G95" t="n">
-        <v>10.93001572999995</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>83850</v>
+      </c>
+      <c r="I95" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4142,24 +3907,23 @@
         <v>2.37190278</v>
       </c>
       <c r="G96" t="n">
-        <v>13.30191850999995</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>83850</v>
+      </c>
+      <c r="I96" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4181,24 +3945,23 @@
         <v>0.216</v>
       </c>
       <c r="G97" t="n">
-        <v>13.51791850999995</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>84350</v>
+      </c>
+      <c r="I97" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4220,24 +3983,21 @@
         <v>14.285</v>
       </c>
       <c r="G98" t="n">
-        <v>27.80291850999996</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4259,24 +4019,21 @@
         <v>8.9139</v>
       </c>
       <c r="G99" t="n">
-        <v>18.88901850999996</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,24 +4055,21 @@
         <v>0.02</v>
       </c>
       <c r="G100" t="n">
-        <v>18.90901850999996</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4337,24 +4091,21 @@
         <v>11.3137</v>
       </c>
       <c r="G101" t="n">
-        <v>30.22271850999996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4376,24 +4127,21 @@
         <v>1.7322</v>
       </c>
       <c r="G102" t="n">
-        <v>30.22271850999996</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4415,24 +4163,21 @@
         <v>3.5378</v>
       </c>
       <c r="G103" t="n">
-        <v>30.22271850999996</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4454,24 +4199,21 @@
         <v>2.6372</v>
       </c>
       <c r="G104" t="n">
-        <v>27.58551850999996</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4493,24 +4235,21 @@
         <v>1.566</v>
       </c>
       <c r="G105" t="n">
-        <v>29.15151850999996</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4532,24 +4271,21 @@
         <v>0.1297</v>
       </c>
       <c r="G106" t="n">
-        <v>29.02181850999996</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4571,24 +4307,21 @@
         <v>20.6859</v>
       </c>
       <c r="G107" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4610,24 +4343,21 @@
         <v>3.2021</v>
       </c>
       <c r="G108" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4649,24 +4379,21 @@
         <v>59.6359</v>
       </c>
       <c r="G109" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4688,24 +4415,21 @@
         <v>33.3414</v>
       </c>
       <c r="G110" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4727,24 +4451,21 @@
         <v>50.8041</v>
       </c>
       <c r="G111" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4766,24 +4487,21 @@
         <v>18.9303</v>
       </c>
       <c r="G112" t="n">
-        <v>8.335918509999956</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4805,24 +4523,21 @@
         <v>18.0179</v>
       </c>
       <c r="G113" t="n">
-        <v>-9.681981490000044</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4844,24 +4559,21 @@
         <v>39.0358</v>
       </c>
       <c r="G114" t="n">
-        <v>-9.681981490000044</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4883,24 +4595,21 @@
         <v>3.2041</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.477881490000044</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4922,24 +4631,21 @@
         <v>17.0384</v>
       </c>
       <c r="G116" t="n">
-        <v>-6.477881490000044</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4961,24 +4667,21 @@
         <v>31.9121</v>
       </c>
       <c r="G117" t="n">
-        <v>-6.477881490000044</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5000,24 +4703,21 @@
         <v>0.233</v>
       </c>
       <c r="G118" t="n">
-        <v>-6.244881490000044</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5039,24 +4739,21 @@
         <v>2.5689</v>
       </c>
       <c r="G119" t="n">
-        <v>-3.675981490000044</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5078,24 +4775,21 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.675981490000044</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5117,24 +4811,21 @@
         <v>11.6414</v>
       </c>
       <c r="G121" t="n">
-        <v>8.965418509999957</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5156,24 +4847,21 @@
         <v>7.5797</v>
       </c>
       <c r="G122" t="n">
-        <v>1.385718509999957</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5195,24 +4883,21 @@
         <v>6.8198</v>
       </c>
       <c r="G123" t="n">
-        <v>1.385718509999957</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5234,24 +4919,21 @@
         <v>2.3283</v>
       </c>
       <c r="G124" t="n">
-        <v>1.385718509999957</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5273,24 +4955,21 @@
         <v>14.2592</v>
       </c>
       <c r="G125" t="n">
-        <v>15.64491850999996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5312,24 +4991,21 @@
         <v>0.5</v>
       </c>
       <c r="G126" t="n">
-        <v>16.14491850999996</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5351,24 +5027,21 @@
         <v>44.02</v>
       </c>
       <c r="G127" t="n">
-        <v>60.16491850999996</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5390,24 +5063,21 @@
         <v>10.6416</v>
       </c>
       <c r="G128" t="n">
-        <v>70.80651850999996</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5429,24 +5099,21 @@
         <v>35.8276</v>
       </c>
       <c r="G129" t="n">
-        <v>106.63411851</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5468,24 +5135,21 @@
         <v>22.0417</v>
       </c>
       <c r="G130" t="n">
-        <v>106.63411851</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5507,24 +5171,21 @@
         <v>12.5022</v>
       </c>
       <c r="G131" t="n">
-        <v>119.13631851</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5546,24 +5207,21 @@
         <v>0.5236</v>
       </c>
       <c r="G132" t="n">
-        <v>119.65991851</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5585,24 +5243,21 @@
         <v>17.5711</v>
       </c>
       <c r="G133" t="n">
-        <v>102.08881851</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>84550</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>84550</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L133" t="n">
+      <c r="K133" t="n">
         <v>1.03225606150207</v>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,18 +5279,15 @@
         <v>28.3839</v>
       </c>
       <c r="G134" t="n">
-        <v>130.47271851</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5657,18 +5309,15 @@
         <v>28.622</v>
       </c>
       <c r="G135" t="n">
-        <v>159.09471851</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5690,18 +5339,15 @@
         <v>22.2725</v>
       </c>
       <c r="G136" t="n">
-        <v>159.09471851</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5723,18 +5369,15 @@
         <v>11.0046</v>
       </c>
       <c r="G137" t="n">
-        <v>148.0901185099999</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5756,18 +5399,15 @@
         <v>1.4286</v>
       </c>
       <c r="G138" t="n">
-        <v>148.0901185099999</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5789,18 +5429,15 @@
         <v>2.2719</v>
       </c>
       <c r="G139" t="n">
-        <v>150.3620185099999</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5822,18 +5459,15 @@
         <v>1.694</v>
       </c>
       <c r="G140" t="n">
-        <v>152.0560185099999</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5855,18 +5489,15 @@
         <v>0.04</v>
       </c>
       <c r="G141" t="n">
-        <v>152.0160185099999</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5888,18 +5519,15 @@
         <v>28.3278</v>
       </c>
       <c r="G142" t="n">
-        <v>123.6882185099999</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5921,18 +5549,15 @@
         <v>9.299899999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>114.3883185099999</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5954,18 +5579,15 @@
         <v>0.0239726</v>
       </c>
       <c r="G144" t="n">
-        <v>114.4122911099999</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5987,18 +5609,15 @@
         <v>4.34</v>
       </c>
       <c r="G145" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6020,18 +5639,15 @@
         <v>10.1555</v>
       </c>
       <c r="G146" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6053,18 +5669,15 @@
         <v>1.5676</v>
       </c>
       <c r="G147" t="n">
-        <v>110.0722911099999</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6086,18 +5699,15 @@
         <v>6.2234</v>
       </c>
       <c r="G148" t="n">
-        <v>103.8488911099999</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6119,18 +5729,15 @@
         <v>9.3634</v>
       </c>
       <c r="G149" t="n">
-        <v>94.48549110999993</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6152,18 +5759,15 @@
         <v>4.34</v>
       </c>
       <c r="G150" t="n">
-        <v>90.14549110999992</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6185,18 +5789,15 @@
         <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>94.14549110999992</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6218,18 +5819,15 @@
         <v>1.1546967</v>
       </c>
       <c r="G152" t="n">
-        <v>92.99079440999992</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6251,18 +5849,15 @@
         <v>0.24</v>
       </c>
       <c r="G153" t="n">
-        <v>92.75079440999993</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6284,18 +5879,15 @@
         <v>0.5543</v>
       </c>
       <c r="G154" t="n">
-        <v>92.75079440999993</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6317,18 +5909,15 @@
         <v>0.1</v>
       </c>
       <c r="G155" t="n">
-        <v>92.85079440999992</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6350,18 +5939,15 @@
         <v>0.6104000000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>92.24039440999992</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6383,18 +5969,15 @@
         <v>50.1788</v>
       </c>
       <c r="G157" t="n">
-        <v>42.06159440999992</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6416,18 +5999,15 @@
         <v>15.0475</v>
       </c>
       <c r="G158" t="n">
-        <v>27.01409440999992</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6449,18 +6029,15 @@
         <v>15.5115</v>
       </c>
       <c r="G159" t="n">
-        <v>42.52559440999992</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6482,18 +6059,15 @@
         <v>3.641</v>
       </c>
       <c r="G160" t="n">
-        <v>38.88459440999992</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6515,18 +6089,15 @@
         <v>2.515</v>
       </c>
       <c r="G161" t="n">
-        <v>36.36959440999992</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6548,18 +6119,15 @@
         <v>45.1426</v>
       </c>
       <c r="G162" t="n">
-        <v>-8.773005590000082</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6581,18 +6149,15 @@
         <v>9.209199999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>0.4361944099999171</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6614,18 +6179,15 @@
         <v>2.7885</v>
       </c>
       <c r="G164" t="n">
-        <v>3.224694409999917</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6647,18 +6209,15 @@
         <v>1.7</v>
       </c>
       <c r="G165" t="n">
-        <v>4.924694409999917</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6680,18 +6239,15 @@
         <v>3.0663</v>
       </c>
       <c r="G166" t="n">
-        <v>1.858394409999917</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6713,18 +6269,15 @@
         <v>11.5353</v>
       </c>
       <c r="G167" t="n">
-        <v>1.858394409999917</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6746,18 +6299,15 @@
         <v>21</v>
       </c>
       <c r="G168" t="n">
-        <v>22.85839440999992</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6779,18 +6329,15 @@
         <v>0.455</v>
       </c>
       <c r="G169" t="n">
-        <v>23.31339440999992</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6812,18 +6359,15 @@
         <v>0.8339</v>
       </c>
       <c r="G170" t="n">
-        <v>24.14729440999992</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6845,18 +6389,15 @@
         <v>25.4209</v>
       </c>
       <c r="G171" t="n">
-        <v>49.56819440999992</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6878,18 +6419,15 @@
         <v>2.2698</v>
       </c>
       <c r="G172" t="n">
-        <v>49.56819440999992</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6911,18 +6449,15 @@
         <v>0.5669</v>
       </c>
       <c r="G173" t="n">
-        <v>50.13509440999992</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6944,18 +6479,15 @@
         <v>20.8057</v>
       </c>
       <c r="G174" t="n">
-        <v>29.32939440999991</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6977,18 +6509,15 @@
         <v>2.3654</v>
       </c>
       <c r="G175" t="n">
-        <v>31.69479440999991</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7010,18 +6539,15 @@
         <v>24.5001</v>
       </c>
       <c r="G176" t="n">
-        <v>7.194694409999915</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7043,18 +6569,15 @@
         <v>1.1757</v>
       </c>
       <c r="G177" t="n">
-        <v>6.018994409999915</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7076,18 +6599,15 @@
         <v>0.8682</v>
       </c>
       <c r="G178" t="n">
-        <v>6.887194409999915</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7109,18 +6629,15 @@
         <v>0.11534025</v>
       </c>
       <c r="G179" t="n">
-        <v>7.002534659999915</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7142,18 +6659,15 @@
         <v>36.6254</v>
       </c>
       <c r="G180" t="n">
-        <v>43.62793465999992</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7175,18 +6689,15 @@
         <v>0.05</v>
       </c>
       <c r="G181" t="n">
-        <v>43.62793465999992</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7208,18 +6719,15 @@
         <v>23.28195958</v>
       </c>
       <c r="G182" t="n">
-        <v>20.34597507999992</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7241,18 +6749,15 @@
         <v>0.669</v>
       </c>
       <c r="G183" t="n">
-        <v>19.67697507999992</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7274,18 +6779,15 @@
         <v>0.8</v>
       </c>
       <c r="G184" t="n">
-        <v>18.87697507999992</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
